--- a/public/data/download/MauTDKT.xlsx
+++ b/public/data/download/MauTDKT.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE75A78-CABD-45A5-9FAC-2413E9DF0812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5C41AA-BDB9-4B77-A2F4-99CE4B227FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLDT" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="HTKT" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="phan loai kt" sheetId="5" r:id="rId3"/>
-    <sheet name="LVHD" sheetId="7" state="hidden" r:id="rId4"/>
-    <sheet name="file mẫu" sheetId="6" r:id="rId5"/>
+    <sheet name="file mẫu" sheetId="6" r:id="rId3"/>
+    <sheet name="Hướng dẫn" sheetId="8" r:id="rId4"/>
+    <sheet name="phan loai kt" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="LVHD" sheetId="7" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>maphanloai</t>
   </si>
@@ -408,6 +409,12 @@
   </si>
   <si>
     <t>không nhập</t>
+  </si>
+  <si>
+    <t>Chủ tịch</t>
+  </si>
+  <si>
+    <t>UBND TP Đồng Hới</t>
   </si>
 </sst>
 </file>
@@ -521,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,6 +576,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,273 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.69921875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,12 +1394,8 @@
       <c r="D3" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
       <c r="G3" s="11">
         <f>VLOOKUP(H3,HTKT!$A$2:$B$34,2,0)</f>
         <v>1650360491</v>
@@ -1688,12 +1432,8 @@
       <c r="D4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
       <c r="G4" s="11">
         <f>VLOOKUP(H4,HTKT!$A$2:$B$34,2,0)</f>
         <v>1650360491</v>
@@ -1972,4 +1712,711 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DE8331-4404-4BBB-9642-A72BCFEA0EDD}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.59765625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="38.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="9.09765625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="33.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>VLOOKUP(B2,'phan loai kt'!$A$2:$B$4,2,0)</f>
+        <v>CANHAN</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="11">
+        <f>VLOOKUP(H2,HTKT!$A$2:$B$34,2,0)</f>
+        <v>1650360491</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="11">
+        <f>VLOOKUP(J2,PLDT!$A$2:$B$14,2,0)</f>
+        <v>1660638930</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="e">
+        <f>VLOOKUP(K2,LVHD!$A$2:$B$25,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>VLOOKUP(B3,'phan loai kt'!$A$2:$B$4,2,0)</f>
+        <v>TAPTHE</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="11">
+        <f>VLOOKUP(H3,HTKT!$A$2:$B$34,2,0)</f>
+        <v>1650360491</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="11">
+        <f>VLOOKUP(J3,PLDT!$A$2:$B$14,2,0)</f>
+        <v>1668477383</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f>VLOOKUP(K3,LVHD!$A$2:$B$25,2,0)</f>
+        <v>0013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>VLOOKUP(B4,'phan loai kt'!$A$2:$B$4,2,0)</f>
+        <v>HOGIADINH</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="11">
+        <f>VLOOKUP(H4,HTKT!$A$2:$B$34,2,0)</f>
+        <v>1650360491</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="11">
+        <f>VLOOKUP(J4,PLDT!$A$2:$B$14,2,0)</f>
+        <v>1660638538</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4" t="e">
+        <f>VLOOKUP(K4,LVHD!$A$2:$B$25,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>11</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>12</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>13</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>14</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>15</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>16</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>17</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>18</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>19</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>20</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FE37522D-FBF7-4771-96F8-FD30DA558515}">
+          <x14:formula1>
+            <xm:f>'phan loai kt'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5150FE6D-BEF4-46DF-A559-1E2D1D74A45C}">
+          <x14:formula1>
+            <xm:f>LVHD!$A$2:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE984287-EA7D-49DF-BAE5-C59E41625998}">
+          <x14:formula1>
+            <xm:f>PLDT!$A$2:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2B1953CF-3683-4B6B-A49D-D11A0BC5F02B}">
+          <x14:formula1>
+            <xm:f>HTKT!$A$2:$A$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.69921875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/data/download/MauTDKT.xlsx
+++ b/public/data/download/MauTDKT.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DAFCCC-F77D-47BC-9C8E-74877DDF7CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="file nhận" sheetId="9" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="phan loai kt" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Hướng dẫn" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -872,7 +871,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -955,7 +954,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -967,32 +966,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1051,24 +1024,20 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="headerStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="headerStyle" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1876,11 +1845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U555"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U553"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1888,48 +1857,48 @@
     <col min="1" max="1" width="4.140625" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="9" customWidth="1"/>
     <col min="6" max="6" width="21.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="27" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="15" customWidth="1"/>
     <col min="8" max="8" width="33" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.140625" style="9" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="9"/>
     <col min="11" max="14" width="9.140625" style="9" customWidth="1"/>
     <col min="15" max="16" width="9.140625" style="9"/>
     <col min="17" max="17" width="9.140625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="9" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="11" style="9" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="5.28515625" style="9" hidden="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="19" t="s">
         <v>55</v>
       </c>
       <c r="R1" s="7" t="s">
@@ -1948,19 +1917,19 @@
     <row r="2" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="19"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="13"/>
-      <c r="H2" s="20"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="11"/>
       <c r="R2" s="9" t="e">
         <f>VLOOKUP(F2,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S2" s="9" t="e">
-        <f>VLOOKUP(G2,HTKT!A2:$B$300,2,0)</f>
+        <f>VLOOKUP(G2,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T2" s="9" t="e">
@@ -1975,19 +1944,19 @@
     <row r="3" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="19"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="20"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="11"/>
       <c r="R3" s="9" t="e">
         <f>VLOOKUP(F3,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S3" s="9" t="e">
-        <f>VLOOKUP(G3,HTKT!A3:$B$300,2,0)</f>
+        <f>VLOOKUP(G3,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T3" s="9" t="e">
@@ -2002,19 +1971,19 @@
     <row r="4" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="19"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="13"/>
-      <c r="H4" s="20"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="11"/>
       <c r="R4" s="9" t="e">
         <f>VLOOKUP(F4,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S4" s="9" t="e">
-        <f>VLOOKUP(G4,HTKT!A4:$B$300,2,0)</f>
+        <f>VLOOKUP(G4,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T4" s="9" t="e">
@@ -2029,19 +1998,19 @@
     <row r="5" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="19"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="20"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="11"/>
       <c r="R5" s="9" t="e">
         <f>VLOOKUP(F5,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S5" s="9" t="e">
-        <f>VLOOKUP(G5,HTKT!A5:$B$300,2,0)</f>
+        <f>VLOOKUP(G5,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T5" s="9" t="e">
@@ -2056,19 +2025,19 @@
     <row r="6" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="11"/>
       <c r="R6" s="9" t="e">
         <f>VLOOKUP(F6,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S6" s="9" t="e">
-        <f>VLOOKUP(G6,HTKT!A6:$B$300,2,0)</f>
+        <f>VLOOKUP(G6,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T6" s="9" t="e">
@@ -2083,19 +2052,19 @@
     <row r="7" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="19"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="11"/>
       <c r="R7" s="9" t="e">
         <f>VLOOKUP(F7,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S7" s="9" t="e">
-        <f>VLOOKUP(G7,HTKT!A7:$B$300,2,0)</f>
+        <f>VLOOKUP(G7,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T7" s="9" t="e">
@@ -2110,19 +2079,19 @@
     <row r="8" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="19"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="11"/>
       <c r="R8" s="9" t="e">
         <f>VLOOKUP(F8,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S8" s="9" t="e">
-        <f>VLOOKUP(G8,HTKT!A8:$B$300,2,0)</f>
+        <f>VLOOKUP(G8,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T8" s="9" t="e">
@@ -2137,19 +2106,19 @@
     <row r="9" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="19"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="11"/>
       <c r="R9" s="9" t="e">
         <f>VLOOKUP(F9,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S9" s="9" t="e">
-        <f>VLOOKUP(G9,HTKT!A9:$B$300,2,0)</f>
+        <f>VLOOKUP(G9,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T9" s="9" t="e">
@@ -2164,19 +2133,19 @@
     <row r="10" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="19"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="11"/>
       <c r="R10" s="9" t="e">
         <f>VLOOKUP(F10,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S10" s="9" t="e">
-        <f>VLOOKUP(G10,HTKT!A10:$B$300,2,0)</f>
+        <f>VLOOKUP(G10,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T10" s="9" t="e">
@@ -2191,19 +2160,19 @@
     <row r="11" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="19"/>
+      <c r="F11" s="12"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="20"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="11"/>
       <c r="R11" s="9" t="e">
         <f>VLOOKUP(F11,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S11" s="9" t="e">
-        <f>VLOOKUP(G11,HTKT!A11:$B$300,2,0)</f>
+        <f>VLOOKUP(G11,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T11" s="9" t="e">
@@ -2218,19 +2187,19 @@
     <row r="12" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="11"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="20"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="11"/>
       <c r="R12" s="9" t="e">
         <f>VLOOKUP(F12,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S12" s="9" t="e">
-        <f>VLOOKUP(G12,HTKT!A12:$B$300,2,0)</f>
+        <f>VLOOKUP(G12,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T12" s="9" t="e">
@@ -2245,19 +2214,19 @@
     <row r="13" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="11"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="20"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="11"/>
       <c r="R13" s="9" t="e">
         <f>VLOOKUP(F13,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S13" s="9" t="e">
-        <f>VLOOKUP(G13,HTKT!A13:$B$300,2,0)</f>
+        <f>VLOOKUP(G13,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T13" s="9" t="e">
@@ -2272,19 +2241,19 @@
     <row r="14" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="11"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="11"/>
       <c r="R14" s="9" t="e">
         <f>VLOOKUP(F14,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S14" s="9" t="e">
-        <f>VLOOKUP(G14,HTKT!A14:$B$300,2,0)</f>
+        <f>VLOOKUP(G14,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T14" s="9" t="e">
@@ -2297,12 +2266,21 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
       <c r="R15" s="9" t="e">
         <f>VLOOKUP(F15,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S15" s="9" t="e">
-        <f>VLOOKUP(G15,HTKT!A15:$B$300,2,0)</f>
+        <f>VLOOKUP(G15,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T15" s="9" t="e">
@@ -2315,12 +2293,21 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="11"/>
       <c r="R16" s="9" t="e">
         <f>VLOOKUP(F16,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S16" s="9" t="e">
-        <f>VLOOKUP(G16,HTKT!A16:$B$300,2,0)</f>
+        <f>VLOOKUP(G16,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T16" s="9" t="e">
@@ -2332,13 +2319,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
       <c r="R17" s="9" t="e">
         <f>VLOOKUP(F17,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S17" s="9" t="e">
-        <f>VLOOKUP(G17,HTKT!A17:$B$300,2,0)</f>
+        <f>VLOOKUP(G17,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T17" s="9" t="e">
@@ -2350,13 +2346,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="11"/>
       <c r="R18" s="9" t="e">
         <f>VLOOKUP(F18,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S18" s="9" t="e">
-        <f>VLOOKUP(G18,HTKT!A18:$B$300,2,0)</f>
+        <f>VLOOKUP(G18,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T18" s="9" t="e">
@@ -2368,13 +2373,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="11"/>
       <c r="R19" s="9" t="e">
         <f>VLOOKUP(F19,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S19" s="9" t="e">
-        <f>VLOOKUP(G19,HTKT!A19:$B$300,2,0)</f>
+        <f>VLOOKUP(G19,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T19" s="9" t="e">
@@ -2386,13 +2400,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="11"/>
       <c r="R20" s="9" t="e">
         <f>VLOOKUP(F20,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S20" s="9" t="e">
-        <f>VLOOKUP(G20,HTKT!A20:$B$300,2,0)</f>
+        <f>VLOOKUP(G20,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T20" s="9" t="e">
@@ -2404,13 +2427,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="11"/>
       <c r="R21" s="9" t="e">
         <f>VLOOKUP(F21,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S21" s="9" t="e">
-        <f>VLOOKUP(G21,HTKT!A21:$B$300,2,0)</f>
+        <f>VLOOKUP(G21,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T21" s="9" t="e">
@@ -2422,13 +2454,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="11"/>
       <c r="R22" s="9" t="e">
         <f>VLOOKUP(F22,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S22" s="9" t="e">
-        <f>VLOOKUP(G22,HTKT!A22:$B$300,2,0)</f>
+        <f>VLOOKUP(G22,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T22" s="9" t="e">
@@ -2440,13 +2481,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="11"/>
       <c r="R23" s="9" t="e">
         <f>VLOOKUP(F23,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S23" s="9" t="e">
-        <f>VLOOKUP(G23,HTKT!A23:$B$300,2,0)</f>
+        <f>VLOOKUP(G23,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T23" s="9" t="e">
@@ -2458,13 +2508,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="11"/>
       <c r="R24" s="9" t="e">
         <f>VLOOKUP(F24,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S24" s="9" t="e">
-        <f>VLOOKUP(G24,HTKT!A24:$B$300,2,0)</f>
+        <f>VLOOKUP(G24,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T24" s="9" t="e">
@@ -2476,13 +2535,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
       <c r="R25" s="9" t="e">
         <f>VLOOKUP(F25,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S25" s="9" t="e">
-        <f>VLOOKUP(G25,HTKT!A25:$B$300,2,0)</f>
+        <f>VLOOKUP(G25,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T25" s="9" t="e">
@@ -2494,13 +2562,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="11"/>
       <c r="R26" s="9" t="e">
         <f>VLOOKUP(F26,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S26" s="9" t="e">
-        <f>VLOOKUP(G26,HTKT!A26:$B$300,2,0)</f>
+        <f>VLOOKUP(G26,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T26" s="9" t="e">
@@ -2512,13 +2589,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="11"/>
       <c r="R27" s="9" t="e">
         <f>VLOOKUP(F27,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S27" s="9" t="e">
-        <f>VLOOKUP(G27,HTKT!A27:$B$300,2,0)</f>
+        <f>VLOOKUP(G27,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T27" s="9" t="e">
@@ -2530,13 +2616,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="11"/>
       <c r="R28" s="9" t="e">
         <f>VLOOKUP(F28,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S28" s="9" t="e">
-        <f>VLOOKUP(G28,HTKT!A28:$B$300,2,0)</f>
+        <f>VLOOKUP(G28,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T28" s="9" t="e">
@@ -2548,13 +2643,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="11"/>
       <c r="R29" s="9" t="e">
         <f>VLOOKUP(F29,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S29" s="9" t="e">
-        <f>VLOOKUP(G29,HTKT!A29:$B$300,2,0)</f>
+        <f>VLOOKUP(G29,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T29" s="9" t="e">
@@ -2566,13 +2670,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="11"/>
       <c r="R30" s="9" t="e">
         <f>VLOOKUP(F30,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S30" s="9" t="e">
-        <f>VLOOKUP(G30,HTKT!A30:$B$300,2,0)</f>
+        <f>VLOOKUP(G30,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T30" s="9" t="e">
@@ -2584,13 +2697,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="11"/>
       <c r="R31" s="9" t="e">
         <f>VLOOKUP(F31,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S31" s="9" t="e">
-        <f>VLOOKUP(G31,HTKT!A31:$B$300,2,0)</f>
+        <f>VLOOKUP(G31,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T31" s="9" t="e">
@@ -2602,13 +2724,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="11"/>
       <c r="R32" s="9" t="e">
         <f>VLOOKUP(F32,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S32" s="9" t="e">
-        <f>VLOOKUP(G32,HTKT!A32:$B$300,2,0)</f>
+        <f>VLOOKUP(G32,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T32" s="9" t="e">
@@ -2620,13 +2751,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="11"/>
       <c r="R33" s="9" t="e">
         <f>VLOOKUP(F33,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S33" s="9" t="e">
-        <f>VLOOKUP(G33,HTKT!A33:$B$300,2,0)</f>
+        <f>VLOOKUP(G33,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T33" s="9" t="e">
@@ -2638,13 +2778,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="11"/>
       <c r="R34" s="9" t="e">
         <f>VLOOKUP(F34,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S34" s="9" t="e">
-        <f>VLOOKUP(G34,HTKT!A34:$B$300,2,0)</f>
+        <f>VLOOKUP(G34,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T34" s="9" t="e">
@@ -2656,13 +2805,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="11"/>
       <c r="R35" s="9" t="e">
         <f>VLOOKUP(F35,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S35" s="9" t="e">
-        <f>VLOOKUP(G35,HTKT!A35:$B$300,2,0)</f>
+        <f>VLOOKUP(G35,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T35" s="9" t="e">
@@ -2674,13 +2832,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="11"/>
       <c r="R36" s="9" t="e">
         <f>VLOOKUP(F36,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S36" s="9" t="e">
-        <f>VLOOKUP(G36,HTKT!A36:$B$300,2,0)</f>
+        <f>VLOOKUP(G36,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T36" s="9" t="e">
@@ -2692,13 +2859,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="11"/>
       <c r="R37" s="9" t="e">
         <f>VLOOKUP(F37,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S37" s="9" t="e">
-        <f>VLOOKUP(G37,HTKT!A37:$B$300,2,0)</f>
+        <f>VLOOKUP(G37,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T37" s="9" t="e">
@@ -2710,13 +2886,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="11"/>
       <c r="R38" s="9" t="e">
         <f>VLOOKUP(F38,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S38" s="9" t="e">
-        <f>VLOOKUP(G38,HTKT!A38:$B$300,2,0)</f>
+        <f>VLOOKUP(G38,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T38" s="9" t="e">
@@ -2728,13 +2913,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="11"/>
       <c r="R39" s="9" t="e">
         <f>VLOOKUP(F39,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S39" s="9" t="e">
-        <f>VLOOKUP(G39,HTKT!A39:$B$300,2,0)</f>
+        <f>VLOOKUP(G39,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T39" s="9" t="e">
@@ -2746,13 +2940,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="11"/>
       <c r="R40" s="9" t="e">
         <f>VLOOKUP(F40,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S40" s="9" t="e">
-        <f>VLOOKUP(G40,HTKT!A40:$B$300,2,0)</f>
+        <f>VLOOKUP(G40,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T40" s="9" t="e">
@@ -2764,13 +2967,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="11"/>
       <c r="R41" s="9" t="e">
         <f>VLOOKUP(F41,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S41" s="9" t="e">
-        <f>VLOOKUP(G41,HTKT!A41:$B$300,2,0)</f>
+        <f>VLOOKUP(G41,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T41" s="9" t="e">
@@ -2782,13 +2994,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="11"/>
       <c r="R42" s="9" t="e">
         <f>VLOOKUP(F42,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S42" s="9" t="e">
-        <f>VLOOKUP(G42,HTKT!A42:$B$300,2,0)</f>
+        <f>VLOOKUP(G42,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T42" s="9" t="e">
@@ -2800,13 +3021,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="11"/>
       <c r="R43" s="9" t="e">
         <f>VLOOKUP(F43,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S43" s="9" t="e">
-        <f>VLOOKUP(G43,HTKT!A43:$B$300,2,0)</f>
+        <f>VLOOKUP(G43,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T43" s="9" t="e">
@@ -2818,13 +3048,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="11"/>
       <c r="R44" s="9" t="e">
         <f>VLOOKUP(F44,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S44" s="9" t="e">
-        <f>VLOOKUP(G44,HTKT!A44:$B$300,2,0)</f>
+        <f>VLOOKUP(G44,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T44" s="9" t="e">
@@ -2836,13 +3075,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="11"/>
       <c r="R45" s="9" t="e">
         <f>VLOOKUP(F45,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S45" s="9" t="e">
-        <f>VLOOKUP(G45,HTKT!A45:$B$300,2,0)</f>
+        <f>VLOOKUP(G45,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T45" s="9" t="e">
@@ -2854,13 +3102,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="11"/>
       <c r="R46" s="9" t="e">
         <f>VLOOKUP(F46,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S46" s="9" t="e">
-        <f>VLOOKUP(G46,HTKT!A46:$B$300,2,0)</f>
+        <f>VLOOKUP(G46,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T46" s="9" t="e">
@@ -2872,13 +3129,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="11"/>
       <c r="R47" s="9" t="e">
         <f>VLOOKUP(F47,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S47" s="9" t="e">
-        <f>VLOOKUP(G47,HTKT!A47:$B$300,2,0)</f>
+        <f>VLOOKUP(G47,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T47" s="9" t="e">
@@ -2890,13 +3156,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="11"/>
       <c r="R48" s="9" t="e">
         <f>VLOOKUP(F48,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S48" s="9" t="e">
-        <f>VLOOKUP(G48,HTKT!A48:$B$300,2,0)</f>
+        <f>VLOOKUP(G48,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T48" s="9" t="e">
@@ -2908,13 +3183,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="11"/>
       <c r="R49" s="9" t="e">
         <f>VLOOKUP(F49,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S49" s="9" t="e">
-        <f>VLOOKUP(G49,HTKT!A49:$B$300,2,0)</f>
+        <f>VLOOKUP(G49,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T49" s="9" t="e">
@@ -2926,13 +3210,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="11"/>
       <c r="R50" s="9" t="e">
         <f>VLOOKUP(F50,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S50" s="9" t="e">
-        <f>VLOOKUP(G50,HTKT!A50:$B$300,2,0)</f>
+        <f>VLOOKUP(G50,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T50" s="9" t="e">
@@ -2944,13 +3237,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="11"/>
       <c r="R51" s="9" t="e">
         <f>VLOOKUP(F51,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S51" s="9" t="e">
-        <f>VLOOKUP(G51,HTKT!A51:$B$300,2,0)</f>
+        <f>VLOOKUP(G51,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T51" s="9" t="e">
@@ -2962,13 +3264,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="11"/>
       <c r="R52" s="9" t="e">
         <f>VLOOKUP(F52,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S52" s="9" t="e">
-        <f>VLOOKUP(G52,HTKT!A52:$B$300,2,0)</f>
+        <f>VLOOKUP(G52,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T52" s="9" t="e">
@@ -2980,13 +3291,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="11"/>
       <c r="R53" s="9" t="e">
         <f>VLOOKUP(F53,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S53" s="9" t="e">
-        <f>VLOOKUP(G53,HTKT!A53:$B$300,2,0)</f>
+        <f>VLOOKUP(G53,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T53" s="9" t="e">
@@ -2998,13 +3318,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="11"/>
       <c r="R54" s="9" t="e">
         <f>VLOOKUP(F54,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S54" s="9" t="e">
-        <f>VLOOKUP(G54,HTKT!A54:$B$300,2,0)</f>
+        <f>VLOOKUP(G54,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T54" s="9" t="e">
@@ -3016,13 +3345,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="11"/>
       <c r="R55" s="9" t="e">
         <f>VLOOKUP(F55,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S55" s="9" t="e">
-        <f>VLOOKUP(G55,HTKT!A55:$B$300,2,0)</f>
+        <f>VLOOKUP(G55,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T55" s="9" t="e">
@@ -3034,13 +3372,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="11"/>
       <c r="R56" s="9" t="e">
         <f>VLOOKUP(F56,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S56" s="9" t="e">
-        <f>VLOOKUP(G56,HTKT!A56:$B$300,2,0)</f>
+        <f>VLOOKUP(G56,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T56" s="9" t="e">
@@ -3052,13 +3399,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="11"/>
       <c r="R57" s="9" t="e">
         <f>VLOOKUP(F57,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S57" s="9" t="e">
-        <f>VLOOKUP(G57,HTKT!A57:$B$300,2,0)</f>
+        <f>VLOOKUP(G57,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T57" s="9" t="e">
@@ -3070,13 +3426,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="11"/>
       <c r="R58" s="9" t="e">
         <f>VLOOKUP(F58,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S58" s="9" t="e">
-        <f>VLOOKUP(G58,HTKT!A58:$B$300,2,0)</f>
+        <f>VLOOKUP(G58,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T58" s="9" t="e">
@@ -3088,13 +3453,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="11"/>
       <c r="R59" s="9" t="e">
         <f>VLOOKUP(F59,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S59" s="9" t="e">
-        <f>VLOOKUP(G59,HTKT!A59:$B$300,2,0)</f>
+        <f>VLOOKUP(G59,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T59" s="9" t="e">
@@ -3106,13 +3480,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="11"/>
       <c r="R60" s="9" t="e">
         <f>VLOOKUP(F60,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S60" s="9" t="e">
-        <f>VLOOKUP(G60,HTKT!A60:$B$300,2,0)</f>
+        <f>VLOOKUP(G60,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T60" s="9" t="e">
@@ -3124,13 +3507,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="11"/>
       <c r="R61" s="9" t="e">
         <f>VLOOKUP(F61,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S61" s="9" t="e">
-        <f>VLOOKUP(G61,HTKT!A61:$B$300,2,0)</f>
+        <f>VLOOKUP(G61,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T61" s="9" t="e">
@@ -3142,13 +3534,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="11"/>
       <c r="R62" s="9" t="e">
         <f>VLOOKUP(F62,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S62" s="9" t="e">
-        <f>VLOOKUP(G62,HTKT!A62:$B$300,2,0)</f>
+        <f>VLOOKUP(G62,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T62" s="9" t="e">
@@ -3160,13 +3561,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="11"/>
       <c r="R63" s="9" t="e">
         <f>VLOOKUP(F63,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S63" s="9" t="e">
-        <f>VLOOKUP(G63,HTKT!A63:$B$300,2,0)</f>
+        <f>VLOOKUP(G63,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T63" s="9" t="e">
@@ -3178,13 +3588,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="11"/>
       <c r="R64" s="9" t="e">
         <f>VLOOKUP(F64,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S64" s="9" t="e">
-        <f>VLOOKUP(G64,HTKT!A64:$B$300,2,0)</f>
+        <f>VLOOKUP(G64,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T64" s="9" t="e">
@@ -3196,13 +3615,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="11"/>
       <c r="R65" s="9" t="e">
         <f>VLOOKUP(F65,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S65" s="9" t="e">
-        <f>VLOOKUP(G65,HTKT!A65:$B$300,2,0)</f>
+        <f>VLOOKUP(G65,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T65" s="9" t="e">
@@ -3214,13 +3642,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="11"/>
       <c r="R66" s="9" t="e">
         <f>VLOOKUP(F66,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S66" s="9" t="e">
-        <f>VLOOKUP(G66,HTKT!A66:$B$300,2,0)</f>
+        <f>VLOOKUP(G66,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T66" s="9" t="e">
@@ -3232,13 +3669,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="11"/>
       <c r="R67" s="9" t="e">
         <f>VLOOKUP(F67,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S67" s="9" t="e">
-        <f>VLOOKUP(G67,HTKT!A67:$B$300,2,0)</f>
+        <f>VLOOKUP(G67,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T67" s="9" t="e">
@@ -3250,13 +3696,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="11"/>
       <c r="R68" s="9" t="e">
         <f>VLOOKUP(F68,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S68" s="9" t="e">
-        <f>VLOOKUP(G68,HTKT!A68:$B$300,2,0)</f>
+        <f>VLOOKUP(G68,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T68" s="9" t="e">
@@ -3268,13 +3723,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="11"/>
       <c r="R69" s="9" t="e">
         <f>VLOOKUP(F69,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S69" s="9" t="e">
-        <f>VLOOKUP(G69,HTKT!A69:$B$300,2,0)</f>
+        <f>VLOOKUP(G69,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T69" s="9" t="e">
@@ -3286,13 +3750,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="11"/>
       <c r="R70" s="9" t="e">
         <f>VLOOKUP(F70,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S70" s="9" t="e">
-        <f>VLOOKUP(G70,HTKT!A70:$B$300,2,0)</f>
+        <f>VLOOKUP(G70,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T70" s="9" t="e">
@@ -3304,13 +3777,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="11"/>
       <c r="R71" s="9" t="e">
         <f>VLOOKUP(F71,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S71" s="9" t="e">
-        <f>VLOOKUP(G71,HTKT!A71:$B$300,2,0)</f>
+        <f>VLOOKUP(G71,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T71" s="9" t="e">
@@ -3322,13 +3804,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="11"/>
       <c r="R72" s="9" t="e">
         <f>VLOOKUP(F72,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S72" s="9" t="e">
-        <f>VLOOKUP(G72,HTKT!A72:$B$300,2,0)</f>
+        <f>VLOOKUP(G72,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T72" s="9" t="e">
@@ -3340,13 +3831,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="11"/>
       <c r="R73" s="9" t="e">
         <f>VLOOKUP(F73,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S73" s="9" t="e">
-        <f>VLOOKUP(G73,HTKT!A73:$B$300,2,0)</f>
+        <f>VLOOKUP(G73,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T73" s="9" t="e">
@@ -3358,13 +3858,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="11"/>
       <c r="R74" s="9" t="e">
         <f>VLOOKUP(F74,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S74" s="9" t="e">
-        <f>VLOOKUP(G74,HTKT!A74:$B$300,2,0)</f>
+        <f>VLOOKUP(G74,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T74" s="9" t="e">
@@ -3376,13 +3885,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="11"/>
       <c r="R75" s="9" t="e">
         <f>VLOOKUP(F75,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S75" s="9" t="e">
-        <f>VLOOKUP(G75,HTKT!A75:$B$300,2,0)</f>
+        <f>VLOOKUP(G75,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T75" s="9" t="e">
@@ -3394,13 +3912,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="11"/>
       <c r="R76" s="9" t="e">
         <f>VLOOKUP(F76,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S76" s="9" t="e">
-        <f>VLOOKUP(G76,HTKT!A76:$B$300,2,0)</f>
+        <f>VLOOKUP(G76,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T76" s="9" t="e">
@@ -3412,13 +3939,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="11"/>
       <c r="R77" s="9" t="e">
         <f>VLOOKUP(F77,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S77" s="9" t="e">
-        <f>VLOOKUP(G77,HTKT!A77:$B$300,2,0)</f>
+        <f>VLOOKUP(G77,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T77" s="9" t="e">
@@ -3430,13 +3966,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="11"/>
       <c r="R78" s="9" t="e">
         <f>VLOOKUP(F78,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S78" s="9" t="e">
-        <f>VLOOKUP(G78,HTKT!A78:$B$300,2,0)</f>
+        <f>VLOOKUP(G78,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T78" s="9" t="e">
@@ -3448,13 +3993,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="11"/>
       <c r="R79" s="9" t="e">
         <f>VLOOKUP(F79,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S79" s="9" t="e">
-        <f>VLOOKUP(G79,HTKT!A79:$B$300,2,0)</f>
+        <f>VLOOKUP(G79,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T79" s="9" t="e">
@@ -3466,13 +4020,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="11"/>
       <c r="R80" s="9" t="e">
         <f>VLOOKUP(F80,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S80" s="9" t="e">
-        <f>VLOOKUP(G80,HTKT!A80:$B$300,2,0)</f>
+        <f>VLOOKUP(G80,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T80" s="9" t="e">
@@ -3484,13 +4047,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="11"/>
       <c r="R81" s="9" t="e">
         <f>VLOOKUP(F81,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S81" s="9" t="e">
-        <f>VLOOKUP(G81,HTKT!A81:$B$300,2,0)</f>
+        <f>VLOOKUP(G81,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T81" s="9" t="e">
@@ -3502,13 +4074,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="11"/>
       <c r="R82" s="9" t="e">
         <f>VLOOKUP(F82,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S82" s="9" t="e">
-        <f>VLOOKUP(G82,HTKT!A82:$B$300,2,0)</f>
+        <f>VLOOKUP(G82,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T82" s="9" t="e">
@@ -3520,13 +4101,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="11"/>
       <c r="R83" s="9" t="e">
         <f>VLOOKUP(F83,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S83" s="9" t="e">
-        <f>VLOOKUP(G83,HTKT!A83:$B$300,2,0)</f>
+        <f>VLOOKUP(G83,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T83" s="9" t="e">
@@ -3538,13 +4128,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="11"/>
       <c r="R84" s="9" t="e">
         <f>VLOOKUP(F84,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S84" s="9" t="e">
-        <f>VLOOKUP(G84,HTKT!A84:$B$300,2,0)</f>
+        <f>VLOOKUP(G84,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T84" s="9" t="e">
@@ -3556,13 +4155,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="11"/>
       <c r="R85" s="9" t="e">
         <f>VLOOKUP(F85,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S85" s="9" t="e">
-        <f>VLOOKUP(G85,HTKT!A85:$B$300,2,0)</f>
+        <f>VLOOKUP(G85,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T85" s="9" t="e">
@@ -3574,13 +4182,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="11"/>
       <c r="R86" s="9" t="e">
         <f>VLOOKUP(F86,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S86" s="9" t="e">
-        <f>VLOOKUP(G86,HTKT!A86:$B$300,2,0)</f>
+        <f>VLOOKUP(G86,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T86" s="9" t="e">
@@ -3592,13 +4209,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="11"/>
       <c r="R87" s="9" t="e">
         <f>VLOOKUP(F87,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S87" s="9" t="e">
-        <f>VLOOKUP(G87,HTKT!A87:$B$300,2,0)</f>
+        <f>VLOOKUP(G87,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T87" s="9" t="e">
@@ -3610,13 +4236,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="11"/>
       <c r="R88" s="9" t="e">
         <f>VLOOKUP(F88,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S88" s="9" t="e">
-        <f>VLOOKUP(G88,HTKT!A88:$B$300,2,0)</f>
+        <f>VLOOKUP(G88,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T88" s="9" t="e">
@@ -3628,13 +4263,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="11"/>
       <c r="R89" s="9" t="e">
         <f>VLOOKUP(F89,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S89" s="9" t="e">
-        <f>VLOOKUP(G89,HTKT!A89:$B$300,2,0)</f>
+        <f>VLOOKUP(G89,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T89" s="9" t="e">
@@ -3646,13 +4290,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="11"/>
       <c r="R90" s="9" t="e">
         <f>VLOOKUP(F90,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S90" s="9" t="e">
-        <f>VLOOKUP(G90,HTKT!A90:$B$300,2,0)</f>
+        <f>VLOOKUP(G90,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T90" s="9" t="e">
@@ -3664,13 +4317,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="11"/>
       <c r="R91" s="9" t="e">
         <f>VLOOKUP(F91,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S91" s="9" t="e">
-        <f>VLOOKUP(G91,HTKT!A91:$B$300,2,0)</f>
+        <f>VLOOKUP(G91,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T91" s="9" t="e">
@@ -3682,13 +4344,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="11"/>
       <c r="R92" s="9" t="e">
         <f>VLOOKUP(F92,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S92" s="9" t="e">
-        <f>VLOOKUP(G92,HTKT!A92:$B$300,2,0)</f>
+        <f>VLOOKUP(G92,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T92" s="9" t="e">
@@ -3700,13 +4371,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="11"/>
       <c r="R93" s="9" t="e">
         <f>VLOOKUP(F93,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S93" s="9" t="e">
-        <f>VLOOKUP(G93,HTKT!A93:$B$300,2,0)</f>
+        <f>VLOOKUP(G93,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T93" s="9" t="e">
@@ -3718,13 +4398,22 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="11"/>
       <c r="R94" s="9" t="e">
         <f>VLOOKUP(F94,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S94" s="9" t="e">
-        <f>VLOOKUP(G94,HTKT!A94:$B$300,2,0)</f>
+        <f>VLOOKUP(G94,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T94" s="9" t="e">
@@ -3736,13 +4425,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R95" s="9" t="e">
         <f>VLOOKUP(F95,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S95" s="9" t="e">
-        <f>VLOOKUP(G95,HTKT!A95:$B$300,2,0)</f>
+        <f>VLOOKUP(G95,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T95" s="9" t="e">
@@ -3754,13 +4443,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R96" s="9" t="e">
         <f>VLOOKUP(F96,'phan loai kt'!$A$2:$B$4,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="S96" s="9" t="e">
-        <f>VLOOKUP(G96,HTKT!A96:$B$300,2,0)</f>
+        <f>VLOOKUP(G96,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T96" s="9" t="e">
@@ -3778,7 +4467,7 @@
         <v>#N/A</v>
       </c>
       <c r="S97" s="9" t="e">
-        <f>VLOOKUP(G97,HTKT!A97:$B$300,2,0)</f>
+        <f>VLOOKUP(G97,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T97" s="9" t="e">
@@ -3796,7 +4485,7 @@
         <v>#N/A</v>
       </c>
       <c r="S98" s="9" t="e">
-        <f>VLOOKUP(G98,HTKT!A98:$B$300,2,0)</f>
+        <f>VLOOKUP(G98,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T98" s="9" t="e">
@@ -3814,7 +4503,7 @@
         <v>#N/A</v>
       </c>
       <c r="S99" s="9" t="e">
-        <f>VLOOKUP(G99,HTKT!A99:$B$300,2,0)</f>
+        <f>VLOOKUP(G99,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T99" s="9" t="e">
@@ -3832,7 +4521,7 @@
         <v>#N/A</v>
       </c>
       <c r="S100" s="9" t="e">
-        <f>VLOOKUP(G100,HTKT!A100:$B$300,2,0)</f>
+        <f>VLOOKUP(G100,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T100" s="9" t="e">
@@ -3850,7 +4539,7 @@
         <v>#N/A</v>
       </c>
       <c r="S101" s="9" t="e">
-        <f>VLOOKUP(G101,HTKT!A101:$B$300,2,0)</f>
+        <f>VLOOKUP(G101,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T101" s="9" t="e">
@@ -3868,7 +4557,7 @@
         <v>#N/A</v>
       </c>
       <c r="S102" s="9" t="e">
-        <f>VLOOKUP(G102,HTKT!A102:$B$300,2,0)</f>
+        <f>VLOOKUP(G102,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T102" s="9" t="e">
@@ -3886,7 +4575,7 @@
         <v>#N/A</v>
       </c>
       <c r="S103" s="9" t="e">
-        <f>VLOOKUP(G103,HTKT!A103:$B$300,2,0)</f>
+        <f>VLOOKUP(G103,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T103" s="9" t="e">
@@ -3904,7 +4593,7 @@
         <v>#N/A</v>
       </c>
       <c r="S104" s="9" t="e">
-        <f>VLOOKUP(G104,HTKT!A104:$B$300,2,0)</f>
+        <f>VLOOKUP(G104,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T104" s="9" t="e">
@@ -3922,7 +4611,7 @@
         <v>#N/A</v>
       </c>
       <c r="S105" s="9" t="e">
-        <f>VLOOKUP(G105,HTKT!A105:$B$300,2,0)</f>
+        <f>VLOOKUP(G105,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T105" s="9" t="e">
@@ -3940,7 +4629,7 @@
         <v>#N/A</v>
       </c>
       <c r="S106" s="9" t="e">
-        <f>VLOOKUP(G106,HTKT!A106:$B$300,2,0)</f>
+        <f>VLOOKUP(G106,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T106" s="9" t="e">
@@ -3958,7 +4647,7 @@
         <v>#N/A</v>
       </c>
       <c r="S107" s="9" t="e">
-        <f>VLOOKUP(G107,HTKT!A107:$B$300,2,0)</f>
+        <f>VLOOKUP(G107,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T107" s="9" t="e">
@@ -3976,7 +4665,7 @@
         <v>#N/A</v>
       </c>
       <c r="S108" s="9" t="e">
-        <f>VLOOKUP(G108,HTKT!A108:$B$300,2,0)</f>
+        <f>VLOOKUP(G108,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T108" s="9" t="e">
@@ -3994,7 +4683,7 @@
         <v>#N/A</v>
       </c>
       <c r="S109" s="9" t="e">
-        <f>VLOOKUP(G109,HTKT!A109:$B$300,2,0)</f>
+        <f>VLOOKUP(G109,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T109" s="9" t="e">
@@ -4012,7 +4701,7 @@
         <v>#N/A</v>
       </c>
       <c r="S110" s="9" t="e">
-        <f>VLOOKUP(G110,HTKT!A110:$B$300,2,0)</f>
+        <f>VLOOKUP(G110,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T110" s="9" t="e">
@@ -4030,7 +4719,7 @@
         <v>#N/A</v>
       </c>
       <c r="S111" s="9" t="e">
-        <f>VLOOKUP(G111,HTKT!A111:$B$300,2,0)</f>
+        <f>VLOOKUP(G111,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T111" s="9" t="e">
@@ -4048,7 +4737,7 @@
         <v>#N/A</v>
       </c>
       <c r="S112" s="9" t="e">
-        <f>VLOOKUP(G112,HTKT!A112:$B$300,2,0)</f>
+        <f>VLOOKUP(G112,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T112" s="9" t="e">
@@ -4066,7 +4755,7 @@
         <v>#N/A</v>
       </c>
       <c r="S113" s="9" t="e">
-        <f>VLOOKUP(G113,HTKT!A113:$B$300,2,0)</f>
+        <f>VLOOKUP(G113,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T113" s="9" t="e">
@@ -4084,7 +4773,7 @@
         <v>#N/A</v>
       </c>
       <c r="S114" s="9" t="e">
-        <f>VLOOKUP(G114,HTKT!A114:$B$300,2,0)</f>
+        <f>VLOOKUP(G114,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T114" s="9" t="e">
@@ -4102,7 +4791,7 @@
         <v>#N/A</v>
       </c>
       <c r="S115" s="9" t="e">
-        <f>VLOOKUP(G115,HTKT!A115:$B$300,2,0)</f>
+        <f>VLOOKUP(G115,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T115" s="9" t="e">
@@ -4120,7 +4809,7 @@
         <v>#N/A</v>
       </c>
       <c r="S116" s="9" t="e">
-        <f>VLOOKUP(G116,HTKT!A116:$B$300,2,0)</f>
+        <f>VLOOKUP(G116,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T116" s="9" t="e">
@@ -4138,7 +4827,7 @@
         <v>#N/A</v>
       </c>
       <c r="S117" s="9" t="e">
-        <f>VLOOKUP(G117,HTKT!A117:$B$300,2,0)</f>
+        <f>VLOOKUP(G117,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T117" s="9" t="e">
@@ -4156,7 +4845,7 @@
         <v>#N/A</v>
       </c>
       <c r="S118" s="9" t="e">
-        <f>VLOOKUP(G118,HTKT!A118:$B$300,2,0)</f>
+        <f>VLOOKUP(G118,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T118" s="9" t="e">
@@ -4174,7 +4863,7 @@
         <v>#N/A</v>
       </c>
       <c r="S119" s="9" t="e">
-        <f>VLOOKUP(G119,HTKT!A119:$B$300,2,0)</f>
+        <f>VLOOKUP(G119,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T119" s="9" t="e">
@@ -4192,7 +4881,7 @@
         <v>#N/A</v>
       </c>
       <c r="S120" s="9" t="e">
-        <f>VLOOKUP(G120,HTKT!A120:$B$300,2,0)</f>
+        <f>VLOOKUP(G120,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T120" s="9" t="e">
@@ -4210,7 +4899,7 @@
         <v>#N/A</v>
       </c>
       <c r="S121" s="9" t="e">
-        <f>VLOOKUP(G121,HTKT!A121:$B$300,2,0)</f>
+        <f>VLOOKUP(G121,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T121" s="9" t="e">
@@ -4228,7 +4917,7 @@
         <v>#N/A</v>
       </c>
       <c r="S122" s="9" t="e">
-        <f>VLOOKUP(G122,HTKT!A122:$B$300,2,0)</f>
+        <f>VLOOKUP(G122,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T122" s="9" t="e">
@@ -4246,7 +4935,7 @@
         <v>#N/A</v>
       </c>
       <c r="S123" s="9" t="e">
-        <f>VLOOKUP(G123,HTKT!A123:$B$300,2,0)</f>
+        <f>VLOOKUP(G123,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T123" s="9" t="e">
@@ -4264,7 +4953,7 @@
         <v>#N/A</v>
       </c>
       <c r="S124" s="9" t="e">
-        <f>VLOOKUP(G124,HTKT!A124:$B$300,2,0)</f>
+        <f>VLOOKUP(G124,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T124" s="9" t="e">
@@ -4282,7 +4971,7 @@
         <v>#N/A</v>
       </c>
       <c r="S125" s="9" t="e">
-        <f>VLOOKUP(G125,HTKT!A125:$B$300,2,0)</f>
+        <f>VLOOKUP(G125,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T125" s="9" t="e">
@@ -4300,7 +4989,7 @@
         <v>#N/A</v>
       </c>
       <c r="S126" s="9" t="e">
-        <f>VLOOKUP(G126,HTKT!A126:$B$300,2,0)</f>
+        <f>VLOOKUP(G126,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T126" s="9" t="e">
@@ -4318,7 +5007,7 @@
         <v>#N/A</v>
       </c>
       <c r="S127" s="9" t="e">
-        <f>VLOOKUP(G127,HTKT!A127:$B$300,2,0)</f>
+        <f>VLOOKUP(G127,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T127" s="9" t="e">
@@ -4336,7 +5025,7 @@
         <v>#N/A</v>
       </c>
       <c r="S128" s="9" t="e">
-        <f>VLOOKUP(G128,HTKT!A128:$B$300,2,0)</f>
+        <f>VLOOKUP(G128,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T128" s="9" t="e">
@@ -4354,7 +5043,7 @@
         <v>#N/A</v>
       </c>
       <c r="S129" s="9" t="e">
-        <f>VLOOKUP(G129,HTKT!A129:$B$300,2,0)</f>
+        <f>VLOOKUP(G129,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T129" s="9" t="e">
@@ -4372,7 +5061,7 @@
         <v>#N/A</v>
       </c>
       <c r="S130" s="9" t="e">
-        <f>VLOOKUP(G130,HTKT!A130:$B$300,2,0)</f>
+        <f>VLOOKUP(G130,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T130" s="9" t="e">
@@ -4390,7 +5079,7 @@
         <v>#N/A</v>
       </c>
       <c r="S131" s="9" t="e">
-        <f>VLOOKUP(G131,HTKT!A131:$B$300,2,0)</f>
+        <f>VLOOKUP(G131,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T131" s="9" t="e">
@@ -4408,7 +5097,7 @@
         <v>#N/A</v>
       </c>
       <c r="S132" s="9" t="e">
-        <f>VLOOKUP(G132,HTKT!A132:$B$300,2,0)</f>
+        <f>VLOOKUP(G132,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T132" s="9" t="e">
@@ -4426,7 +5115,7 @@
         <v>#N/A</v>
       </c>
       <c r="S133" s="9" t="e">
-        <f>VLOOKUP(G133,HTKT!A133:$B$300,2,0)</f>
+        <f>VLOOKUP(G133,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T133" s="9" t="e">
@@ -4444,7 +5133,7 @@
         <v>#N/A</v>
       </c>
       <c r="S134" s="9" t="e">
-        <f>VLOOKUP(G134,HTKT!A134:$B$300,2,0)</f>
+        <f>VLOOKUP(G134,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T134" s="9" t="e">
@@ -4462,7 +5151,7 @@
         <v>#N/A</v>
       </c>
       <c r="S135" s="9" t="e">
-        <f>VLOOKUP(G135,HTKT!A135:$B$300,2,0)</f>
+        <f>VLOOKUP(G135,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T135" s="9" t="e">
@@ -4480,7 +5169,7 @@
         <v>#N/A</v>
       </c>
       <c r="S136" s="9" t="e">
-        <f>VLOOKUP(G136,HTKT!A136:$B$300,2,0)</f>
+        <f>VLOOKUP(G136,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T136" s="9" t="e">
@@ -4498,7 +5187,7 @@
         <v>#N/A</v>
       </c>
       <c r="S137" s="9" t="e">
-        <f>VLOOKUP(G137,HTKT!A137:$B$300,2,0)</f>
+        <f>VLOOKUP(G137,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T137" s="9" t="e">
@@ -4516,7 +5205,7 @@
         <v>#N/A</v>
       </c>
       <c r="S138" s="9" t="e">
-        <f>VLOOKUP(G138,HTKT!A138:$B$300,2,0)</f>
+        <f>VLOOKUP(G138,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T138" s="9" t="e">
@@ -4534,7 +5223,7 @@
         <v>#N/A</v>
       </c>
       <c r="S139" s="9" t="e">
-        <f>VLOOKUP(G139,HTKT!A139:$B$300,2,0)</f>
+        <f>VLOOKUP(G139,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T139" s="9" t="e">
@@ -4552,7 +5241,7 @@
         <v>#N/A</v>
       </c>
       <c r="S140" s="9" t="e">
-        <f>VLOOKUP(G140,HTKT!A140:$B$300,2,0)</f>
+        <f>VLOOKUP(G140,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T140" s="9" t="e">
@@ -4570,7 +5259,7 @@
         <v>#N/A</v>
       </c>
       <c r="S141" s="9" t="e">
-        <f>VLOOKUP(G141,HTKT!A141:$B$300,2,0)</f>
+        <f>VLOOKUP(G141,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T141" s="9" t="e">
@@ -4588,7 +5277,7 @@
         <v>#N/A</v>
       </c>
       <c r="S142" s="9" t="e">
-        <f>VLOOKUP(G142,HTKT!A142:$B$300,2,0)</f>
+        <f>VLOOKUP(G142,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T142" s="9" t="e">
@@ -4606,7 +5295,7 @@
         <v>#N/A</v>
       </c>
       <c r="S143" s="9" t="e">
-        <f>VLOOKUP(G143,HTKT!A143:$B$300,2,0)</f>
+        <f>VLOOKUP(G143,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T143" s="9" t="e">
@@ -4624,7 +5313,7 @@
         <v>#N/A</v>
       </c>
       <c r="S144" s="9" t="e">
-        <f>VLOOKUP(G144,HTKT!A144:$B$300,2,0)</f>
+        <f>VLOOKUP(G144,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T144" s="9" t="e">
@@ -4642,7 +5331,7 @@
         <v>#N/A</v>
       </c>
       <c r="S145" s="9" t="e">
-        <f>VLOOKUP(G145,HTKT!A145:$B$300,2,0)</f>
+        <f>VLOOKUP(G145,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T145" s="9" t="e">
@@ -4660,7 +5349,7 @@
         <v>#N/A</v>
       </c>
       <c r="S146" s="9" t="e">
-        <f>VLOOKUP(G146,HTKT!A146:$B$300,2,0)</f>
+        <f>VLOOKUP(G146,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T146" s="9" t="e">
@@ -4678,7 +5367,7 @@
         <v>#N/A</v>
       </c>
       <c r="S147" s="9" t="e">
-        <f>VLOOKUP(G147,HTKT!A147:$B$300,2,0)</f>
+        <f>VLOOKUP(G147,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T147" s="9" t="e">
@@ -4696,7 +5385,7 @@
         <v>#N/A</v>
       </c>
       <c r="S148" s="9" t="e">
-        <f>VLOOKUP(G148,HTKT!A148:$B$300,2,0)</f>
+        <f>VLOOKUP(G148,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T148" s="9" t="e">
@@ -4714,7 +5403,7 @@
         <v>#N/A</v>
       </c>
       <c r="S149" s="9" t="e">
-        <f>VLOOKUP(G149,HTKT!A149:$B$300,2,0)</f>
+        <f>VLOOKUP(G149,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T149" s="9" t="e">
@@ -4732,7 +5421,7 @@
         <v>#N/A</v>
       </c>
       <c r="S150" s="9" t="e">
-        <f>VLOOKUP(G150,HTKT!A150:$B$300,2,0)</f>
+        <f>VLOOKUP(G150,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T150" s="9" t="e">
@@ -4750,7 +5439,7 @@
         <v>#N/A</v>
       </c>
       <c r="S151" s="9" t="e">
-        <f>VLOOKUP(G151,HTKT!A151:$B$300,2,0)</f>
+        <f>VLOOKUP(G151,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T151" s="9" t="e">
@@ -4768,7 +5457,7 @@
         <v>#N/A</v>
       </c>
       <c r="S152" s="9" t="e">
-        <f>VLOOKUP(G152,HTKT!A152:$B$300,2,0)</f>
+        <f>VLOOKUP(G152,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T152" s="9" t="e">
@@ -4786,7 +5475,7 @@
         <v>#N/A</v>
       </c>
       <c r="S153" s="9" t="e">
-        <f>VLOOKUP(G153,HTKT!A153:$B$300,2,0)</f>
+        <f>VLOOKUP(G153,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T153" s="9" t="e">
@@ -4804,7 +5493,7 @@
         <v>#N/A</v>
       </c>
       <c r="S154" s="9" t="e">
-        <f>VLOOKUP(G154,HTKT!A154:$B$300,2,0)</f>
+        <f>VLOOKUP(G154,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T154" s="9" t="e">
@@ -4822,7 +5511,7 @@
         <v>#N/A</v>
       </c>
       <c r="S155" s="9" t="e">
-        <f>VLOOKUP(G155,HTKT!A155:$B$300,2,0)</f>
+        <f>VLOOKUP(G155,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T155" s="9" t="e">
@@ -4840,7 +5529,7 @@
         <v>#N/A</v>
       </c>
       <c r="S156" s="9" t="e">
-        <f>VLOOKUP(G156,HTKT!A156:$B$300,2,0)</f>
+        <f>VLOOKUP(G156,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T156" s="9" t="e">
@@ -4858,7 +5547,7 @@
         <v>#N/A</v>
       </c>
       <c r="S157" s="9" t="e">
-        <f>VLOOKUP(G157,HTKT!A157:$B$300,2,0)</f>
+        <f>VLOOKUP(G157,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T157" s="9" t="e">
@@ -4876,7 +5565,7 @@
         <v>#N/A</v>
       </c>
       <c r="S158" s="9" t="e">
-        <f>VLOOKUP(G158,HTKT!A158:$B$300,2,0)</f>
+        <f>VLOOKUP(G158,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T158" s="9" t="e">
@@ -4894,7 +5583,7 @@
         <v>#N/A</v>
       </c>
       <c r="S159" s="9" t="e">
-        <f>VLOOKUP(G159,HTKT!A159:$B$300,2,0)</f>
+        <f>VLOOKUP(G159,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T159" s="9" t="e">
@@ -4912,7 +5601,7 @@
         <v>#N/A</v>
       </c>
       <c r="S160" s="9" t="e">
-        <f>VLOOKUP(G160,HTKT!A160:$B$300,2,0)</f>
+        <f>VLOOKUP(G160,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T160" s="9" t="e">
@@ -4930,7 +5619,7 @@
         <v>#N/A</v>
       </c>
       <c r="S161" s="9" t="e">
-        <f>VLOOKUP(G161,HTKT!A161:$B$300,2,0)</f>
+        <f>VLOOKUP(G161,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T161" s="9" t="e">
@@ -4948,7 +5637,7 @@
         <v>#N/A</v>
       </c>
       <c r="S162" s="9" t="e">
-        <f>VLOOKUP(G162,HTKT!A162:$B$300,2,0)</f>
+        <f>VLOOKUP(G162,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T162" s="9" t="e">
@@ -4966,7 +5655,7 @@
         <v>#N/A</v>
       </c>
       <c r="S163" s="9" t="e">
-        <f>VLOOKUP(G163,HTKT!A163:$B$300,2,0)</f>
+        <f>VLOOKUP(G163,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T163" s="9" t="e">
@@ -4984,7 +5673,7 @@
         <v>#N/A</v>
       </c>
       <c r="S164" s="9" t="e">
-        <f>VLOOKUP(G164,HTKT!A164:$B$300,2,0)</f>
+        <f>VLOOKUP(G164,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T164" s="9" t="e">
@@ -5002,7 +5691,7 @@
         <v>#N/A</v>
       </c>
       <c r="S165" s="9" t="e">
-        <f>VLOOKUP(G165,HTKT!A165:$B$300,2,0)</f>
+        <f>VLOOKUP(G165,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T165" s="9" t="e">
@@ -5020,7 +5709,7 @@
         <v>#N/A</v>
       </c>
       <c r="S166" s="9" t="e">
-        <f>VLOOKUP(G166,HTKT!A166:$B$300,2,0)</f>
+        <f>VLOOKUP(G166,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T166" s="9" t="e">
@@ -5038,7 +5727,7 @@
         <v>#N/A</v>
       </c>
       <c r="S167" s="9" t="e">
-        <f>VLOOKUP(G167,HTKT!A167:$B$300,2,0)</f>
+        <f>VLOOKUP(G167,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T167" s="9" t="e">
@@ -5056,7 +5745,7 @@
         <v>#N/A</v>
       </c>
       <c r="S168" s="9" t="e">
-        <f>VLOOKUP(G168,HTKT!A168:$B$300,2,0)</f>
+        <f>VLOOKUP(G168,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T168" s="9" t="e">
@@ -5074,7 +5763,7 @@
         <v>#N/A</v>
       </c>
       <c r="S169" s="9" t="e">
-        <f>VLOOKUP(G169,HTKT!A169:$B$300,2,0)</f>
+        <f>VLOOKUP(G169,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T169" s="9" t="e">
@@ -5092,7 +5781,7 @@
         <v>#N/A</v>
       </c>
       <c r="S170" s="9" t="e">
-        <f>VLOOKUP(G170,HTKT!A170:$B$300,2,0)</f>
+        <f>VLOOKUP(G170,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T170" s="9" t="e">
@@ -5110,7 +5799,7 @@
         <v>#N/A</v>
       </c>
       <c r="S171" s="9" t="e">
-        <f>VLOOKUP(G171,HTKT!A171:$B$300,2,0)</f>
+        <f>VLOOKUP(G171,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T171" s="9" t="e">
@@ -5128,7 +5817,7 @@
         <v>#N/A</v>
       </c>
       <c r="S172" s="9" t="e">
-        <f>VLOOKUP(G172,HTKT!A172:$B$300,2,0)</f>
+        <f>VLOOKUP(G172,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T172" s="9" t="e">
@@ -5146,7 +5835,7 @@
         <v>#N/A</v>
       </c>
       <c r="S173" s="9" t="e">
-        <f>VLOOKUP(G173,HTKT!A173:$B$300,2,0)</f>
+        <f>VLOOKUP(G173,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T173" s="9" t="e">
@@ -5164,7 +5853,7 @@
         <v>#N/A</v>
       </c>
       <c r="S174" s="9" t="e">
-        <f>VLOOKUP(G174,HTKT!A174:$B$300,2,0)</f>
+        <f>VLOOKUP(G174,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T174" s="9" t="e">
@@ -5182,7 +5871,7 @@
         <v>#N/A</v>
       </c>
       <c r="S175" s="9" t="e">
-        <f>VLOOKUP(G175,HTKT!A175:$B$300,2,0)</f>
+        <f>VLOOKUP(G175,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T175" s="9" t="e">
@@ -5200,7 +5889,7 @@
         <v>#N/A</v>
       </c>
       <c r="S176" s="9" t="e">
-        <f>VLOOKUP(G176,HTKT!A176:$B$300,2,0)</f>
+        <f>VLOOKUP(G176,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T176" s="9" t="e">
@@ -5218,7 +5907,7 @@
         <v>#N/A</v>
       </c>
       <c r="S177" s="9" t="e">
-        <f>VLOOKUP(G177,HTKT!A177:$B$300,2,0)</f>
+        <f>VLOOKUP(G177,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T177" s="9" t="e">
@@ -5236,7 +5925,7 @@
         <v>#N/A</v>
       </c>
       <c r="S178" s="9" t="e">
-        <f>VLOOKUP(G178,HTKT!A178:$B$300,2,0)</f>
+        <f>VLOOKUP(G178,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T178" s="9" t="e">
@@ -5254,7 +5943,7 @@
         <v>#N/A</v>
       </c>
       <c r="S179" s="9" t="e">
-        <f>VLOOKUP(G179,HTKT!A179:$B$300,2,0)</f>
+        <f>VLOOKUP(G179,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T179" s="9" t="e">
@@ -5272,7 +5961,7 @@
         <v>#N/A</v>
       </c>
       <c r="S180" s="9" t="e">
-        <f>VLOOKUP(G180,HTKT!A180:$B$300,2,0)</f>
+        <f>VLOOKUP(G180,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T180" s="9" t="e">
@@ -5290,7 +5979,7 @@
         <v>#N/A</v>
       </c>
       <c r="S181" s="9" t="e">
-        <f>VLOOKUP(G181,HTKT!A181:$B$300,2,0)</f>
+        <f>VLOOKUP(G181,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T181" s="9" t="e">
@@ -5308,7 +5997,7 @@
         <v>#N/A</v>
       </c>
       <c r="S182" s="9" t="e">
-        <f>VLOOKUP(G182,HTKT!A182:$B$300,2,0)</f>
+        <f>VLOOKUP(G182,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T182" s="9" t="e">
@@ -5326,7 +6015,7 @@
         <v>#N/A</v>
       </c>
       <c r="S183" s="9" t="e">
-        <f>VLOOKUP(G183,HTKT!A183:$B$300,2,0)</f>
+        <f>VLOOKUP(G183,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T183" s="9" t="e">
@@ -5344,7 +6033,7 @@
         <v>#N/A</v>
       </c>
       <c r="S184" s="9" t="e">
-        <f>VLOOKUP(G184,HTKT!A184:$B$300,2,0)</f>
+        <f>VLOOKUP(G184,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T184" s="9" t="e">
@@ -5362,7 +6051,7 @@
         <v>#N/A</v>
       </c>
       <c r="S185" s="9" t="e">
-        <f>VLOOKUP(G185,HTKT!A185:$B$300,2,0)</f>
+        <f>VLOOKUP(G185,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T185" s="9" t="e">
@@ -5380,7 +6069,7 @@
         <v>#N/A</v>
       </c>
       <c r="S186" s="9" t="e">
-        <f>VLOOKUP(G186,HTKT!A186:$B$300,2,0)</f>
+        <f>VLOOKUP(G186,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T186" s="9" t="e">
@@ -5398,7 +6087,7 @@
         <v>#N/A</v>
       </c>
       <c r="S187" s="9" t="e">
-        <f>VLOOKUP(G187,HTKT!A187:$B$300,2,0)</f>
+        <f>VLOOKUP(G187,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T187" s="9" t="e">
@@ -5416,7 +6105,7 @@
         <v>#N/A</v>
       </c>
       <c r="S188" s="9" t="e">
-        <f>VLOOKUP(G188,HTKT!A188:$B$300,2,0)</f>
+        <f>VLOOKUP(G188,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T188" s="9" t="e">
@@ -5434,7 +6123,7 @@
         <v>#N/A</v>
       </c>
       <c r="S189" s="9" t="e">
-        <f>VLOOKUP(G189,HTKT!A189:$B$300,2,0)</f>
+        <f>VLOOKUP(G189,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T189" s="9" t="e">
@@ -5452,7 +6141,7 @@
         <v>#N/A</v>
       </c>
       <c r="S190" s="9" t="e">
-        <f>VLOOKUP(G190,HTKT!A190:$B$300,2,0)</f>
+        <f>VLOOKUP(G190,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T190" s="9" t="e">
@@ -5470,7 +6159,7 @@
         <v>#N/A</v>
       </c>
       <c r="S191" s="9" t="e">
-        <f>VLOOKUP(G191,HTKT!A191:$B$300,2,0)</f>
+        <f>VLOOKUP(G191,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T191" s="9" t="e">
@@ -5488,7 +6177,7 @@
         <v>#N/A</v>
       </c>
       <c r="S192" s="9" t="e">
-        <f>VLOOKUP(G192,HTKT!A192:$B$300,2,0)</f>
+        <f>VLOOKUP(G192,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T192" s="9" t="e">
@@ -5506,7 +6195,7 @@
         <v>#N/A</v>
       </c>
       <c r="S193" s="9" t="e">
-        <f>VLOOKUP(G193,HTKT!A193:$B$300,2,0)</f>
+        <f>VLOOKUP(G193,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T193" s="9" t="e">
@@ -5524,7 +6213,7 @@
         <v>#N/A</v>
       </c>
       <c r="S194" s="9" t="e">
-        <f>VLOOKUP(G194,HTKT!A194:$B$300,2,0)</f>
+        <f>VLOOKUP(G194,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T194" s="9" t="e">
@@ -5542,7 +6231,7 @@
         <v>#N/A</v>
       </c>
       <c r="S195" s="9" t="e">
-        <f>VLOOKUP(G195,HTKT!A195:$B$300,2,0)</f>
+        <f>VLOOKUP(G195,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T195" s="9" t="e">
@@ -5560,7 +6249,7 @@
         <v>#N/A</v>
       </c>
       <c r="S196" s="9" t="e">
-        <f>VLOOKUP(G196,HTKT!A196:$B$300,2,0)</f>
+        <f>VLOOKUP(G196,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T196" s="9" t="e">
@@ -5578,7 +6267,7 @@
         <v>#N/A</v>
       </c>
       <c r="S197" s="9" t="e">
-        <f>VLOOKUP(G197,HTKT!A197:$B$300,2,0)</f>
+        <f>VLOOKUP(G197,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T197" s="9" t="e">
@@ -5596,7 +6285,7 @@
         <v>#N/A</v>
       </c>
       <c r="S198" s="9" t="e">
-        <f>VLOOKUP(G198,HTKT!A198:$B$300,2,0)</f>
+        <f>VLOOKUP(G198,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T198" s="9" t="e">
@@ -5614,7 +6303,7 @@
         <v>#N/A</v>
       </c>
       <c r="S199" s="9" t="e">
-        <f>VLOOKUP(G199,HTKT!A199:$B$300,2,0)</f>
+        <f>VLOOKUP(G199,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T199" s="9" t="e">
@@ -5632,7 +6321,7 @@
         <v>#N/A</v>
       </c>
       <c r="S200" s="9" t="e">
-        <f>VLOOKUP(G200,HTKT!A200:$B$300,2,0)</f>
+        <f>VLOOKUP(G200,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T200" s="9" t="e">
@@ -5650,7 +6339,7 @@
         <v>#N/A</v>
       </c>
       <c r="S201" s="9" t="e">
-        <f>VLOOKUP(G201,HTKT!A201:$B$300,2,0)</f>
+        <f>VLOOKUP(G201,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T201" s="9" t="e">
@@ -5668,7 +6357,7 @@
         <v>#N/A</v>
       </c>
       <c r="S202" s="9" t="e">
-        <f>VLOOKUP(G202,HTKT!A202:$B$300,2,0)</f>
+        <f>VLOOKUP(G202,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T202" s="9" t="e">
@@ -5686,7 +6375,7 @@
         <v>#N/A</v>
       </c>
       <c r="S203" s="9" t="e">
-        <f>VLOOKUP(G203,HTKT!A203:$B$300,2,0)</f>
+        <f>VLOOKUP(G203,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T203" s="9" t="e">
@@ -5704,7 +6393,7 @@
         <v>#N/A</v>
       </c>
       <c r="S204" s="9" t="e">
-        <f>VLOOKUP(G204,HTKT!A204:$B$300,2,0)</f>
+        <f>VLOOKUP(G204,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T204" s="9" t="e">
@@ -5722,7 +6411,7 @@
         <v>#N/A</v>
       </c>
       <c r="S205" s="9" t="e">
-        <f>VLOOKUP(G205,HTKT!A205:$B$300,2,0)</f>
+        <f>VLOOKUP(G205,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T205" s="9" t="e">
@@ -5740,7 +6429,7 @@
         <v>#N/A</v>
       </c>
       <c r="S206" s="9" t="e">
-        <f>VLOOKUP(G206,HTKT!A206:$B$300,2,0)</f>
+        <f>VLOOKUP(G206,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T206" s="9" t="e">
@@ -5758,7 +6447,7 @@
         <v>#N/A</v>
       </c>
       <c r="S207" s="9" t="e">
-        <f>VLOOKUP(G207,HTKT!A207:$B$300,2,0)</f>
+        <f>VLOOKUP(G207,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T207" s="9" t="e">
@@ -5776,7 +6465,7 @@
         <v>#N/A</v>
       </c>
       <c r="S208" s="9" t="e">
-        <f>VLOOKUP(G208,HTKT!A208:$B$300,2,0)</f>
+        <f>VLOOKUP(G208,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T208" s="9" t="e">
@@ -5794,7 +6483,7 @@
         <v>#N/A</v>
       </c>
       <c r="S209" s="9" t="e">
-        <f>VLOOKUP(G209,HTKT!A209:$B$300,2,0)</f>
+        <f>VLOOKUP(G209,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T209" s="9" t="e">
@@ -5812,7 +6501,7 @@
         <v>#N/A</v>
       </c>
       <c r="S210" s="9" t="e">
-        <f>VLOOKUP(G210,HTKT!A210:$B$300,2,0)</f>
+        <f>VLOOKUP(G210,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T210" s="9" t="e">
@@ -5830,7 +6519,7 @@
         <v>#N/A</v>
       </c>
       <c r="S211" s="9" t="e">
-        <f>VLOOKUP(G211,HTKT!A211:$B$300,2,0)</f>
+        <f>VLOOKUP(G211,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T211" s="9" t="e">
@@ -5848,7 +6537,7 @@
         <v>#N/A</v>
       </c>
       <c r="S212" s="9" t="e">
-        <f>VLOOKUP(G212,HTKT!A212:$B$300,2,0)</f>
+        <f>VLOOKUP(G212,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T212" s="9" t="e">
@@ -5866,7 +6555,7 @@
         <v>#N/A</v>
       </c>
       <c r="S213" s="9" t="e">
-        <f>VLOOKUP(G213,HTKT!A213:$B$300,2,0)</f>
+        <f>VLOOKUP(G213,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T213" s="9" t="e">
@@ -5884,7 +6573,7 @@
         <v>#N/A</v>
       </c>
       <c r="S214" s="9" t="e">
-        <f>VLOOKUP(G214,HTKT!A214:$B$300,2,0)</f>
+        <f>VLOOKUP(G214,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T214" s="9" t="e">
@@ -5902,7 +6591,7 @@
         <v>#N/A</v>
       </c>
       <c r="S215" s="9" t="e">
-        <f>VLOOKUP(G215,HTKT!A215:$B$300,2,0)</f>
+        <f>VLOOKUP(G215,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T215" s="9" t="e">
@@ -5920,7 +6609,7 @@
         <v>#N/A</v>
       </c>
       <c r="S216" s="9" t="e">
-        <f>VLOOKUP(G216,HTKT!A216:$B$300,2,0)</f>
+        <f>VLOOKUP(G216,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T216" s="9" t="e">
@@ -5938,7 +6627,7 @@
         <v>#N/A</v>
       </c>
       <c r="S217" s="9" t="e">
-        <f>VLOOKUP(G217,HTKT!A217:$B$300,2,0)</f>
+        <f>VLOOKUP(G217,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T217" s="9" t="e">
@@ -5956,7 +6645,7 @@
         <v>#N/A</v>
       </c>
       <c r="S218" s="9" t="e">
-        <f>VLOOKUP(G218,HTKT!A218:$B$300,2,0)</f>
+        <f>VLOOKUP(G218,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T218" s="9" t="e">
@@ -5974,7 +6663,7 @@
         <v>#N/A</v>
       </c>
       <c r="S219" s="9" t="e">
-        <f>VLOOKUP(G219,HTKT!A219:$B$300,2,0)</f>
+        <f>VLOOKUP(G219,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T219" s="9" t="e">
@@ -5992,7 +6681,7 @@
         <v>#N/A</v>
       </c>
       <c r="S220" s="9" t="e">
-        <f>VLOOKUP(G220,HTKT!A220:$B$300,2,0)</f>
+        <f>VLOOKUP(G220,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T220" s="9" t="e">
@@ -6010,7 +6699,7 @@
         <v>#N/A</v>
       </c>
       <c r="S221" s="9" t="e">
-        <f>VLOOKUP(G221,HTKT!A221:$B$300,2,0)</f>
+        <f>VLOOKUP(G221,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T221" s="9" t="e">
@@ -6028,7 +6717,7 @@
         <v>#N/A</v>
       </c>
       <c r="S222" s="9" t="e">
-        <f>VLOOKUP(G222,HTKT!A222:$B$300,2,0)</f>
+        <f>VLOOKUP(G222,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T222" s="9" t="e">
@@ -6046,7 +6735,7 @@
         <v>#N/A</v>
       </c>
       <c r="S223" s="9" t="e">
-        <f>VLOOKUP(G223,HTKT!A223:$B$300,2,0)</f>
+        <f>VLOOKUP(G223,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T223" s="9" t="e">
@@ -6064,7 +6753,7 @@
         <v>#N/A</v>
       </c>
       <c r="S224" s="9" t="e">
-        <f>VLOOKUP(G224,HTKT!A224:$B$300,2,0)</f>
+        <f>VLOOKUP(G224,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T224" s="9" t="e">
@@ -6082,7 +6771,7 @@
         <v>#N/A</v>
       </c>
       <c r="S225" s="9" t="e">
-        <f>VLOOKUP(G225,HTKT!A225:$B$300,2,0)</f>
+        <f>VLOOKUP(G225,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T225" s="9" t="e">
@@ -6100,7 +6789,7 @@
         <v>#N/A</v>
       </c>
       <c r="S226" s="9" t="e">
-        <f>VLOOKUP(G226,HTKT!A226:$B$300,2,0)</f>
+        <f>VLOOKUP(G226,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T226" s="9" t="e">
@@ -6118,7 +6807,7 @@
         <v>#N/A</v>
       </c>
       <c r="S227" s="9" t="e">
-        <f>VLOOKUP(G227,HTKT!A227:$B$300,2,0)</f>
+        <f>VLOOKUP(G227,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T227" s="9" t="e">
@@ -6136,7 +6825,7 @@
         <v>#N/A</v>
       </c>
       <c r="S228" s="9" t="e">
-        <f>VLOOKUP(G228,HTKT!A228:$B$300,2,0)</f>
+        <f>VLOOKUP(G228,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T228" s="9" t="e">
@@ -6154,7 +6843,7 @@
         <v>#N/A</v>
       </c>
       <c r="S229" s="9" t="e">
-        <f>VLOOKUP(G229,HTKT!A229:$B$300,2,0)</f>
+        <f>VLOOKUP(G229,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T229" s="9" t="e">
@@ -6172,7 +6861,7 @@
         <v>#N/A</v>
       </c>
       <c r="S230" s="9" t="e">
-        <f>VLOOKUP(G230,HTKT!A230:$B$300,2,0)</f>
+        <f>VLOOKUP(G230,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T230" s="9" t="e">
@@ -6190,7 +6879,7 @@
         <v>#N/A</v>
       </c>
       <c r="S231" s="9" t="e">
-        <f>VLOOKUP(G231,HTKT!A231:$B$300,2,0)</f>
+        <f>VLOOKUP(G231,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T231" s="9" t="e">
@@ -6208,7 +6897,7 @@
         <v>#N/A</v>
       </c>
       <c r="S232" s="9" t="e">
-        <f>VLOOKUP(G232,HTKT!A232:$B$300,2,0)</f>
+        <f>VLOOKUP(G232,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T232" s="9" t="e">
@@ -6226,7 +6915,7 @@
         <v>#N/A</v>
       </c>
       <c r="S233" s="9" t="e">
-        <f>VLOOKUP(G233,HTKT!A233:$B$300,2,0)</f>
+        <f>VLOOKUP(G233,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T233" s="9" t="e">
@@ -6244,7 +6933,7 @@
         <v>#N/A</v>
       </c>
       <c r="S234" s="9" t="e">
-        <f>VLOOKUP(G234,HTKT!A234:$B$300,2,0)</f>
+        <f>VLOOKUP(G234,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T234" s="9" t="e">
@@ -6262,7 +6951,7 @@
         <v>#N/A</v>
       </c>
       <c r="S235" s="9" t="e">
-        <f>VLOOKUP(G235,HTKT!A235:$B$300,2,0)</f>
+        <f>VLOOKUP(G235,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T235" s="9" t="e">
@@ -6280,7 +6969,7 @@
         <v>#N/A</v>
       </c>
       <c r="S236" s="9" t="e">
-        <f>VLOOKUP(G236,HTKT!A236:$B$300,2,0)</f>
+        <f>VLOOKUP(G236,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T236" s="9" t="e">
@@ -6298,7 +6987,7 @@
         <v>#N/A</v>
       </c>
       <c r="S237" s="9" t="e">
-        <f>VLOOKUP(G237,HTKT!A237:$B$300,2,0)</f>
+        <f>VLOOKUP(G237,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T237" s="9" t="e">
@@ -6316,7 +7005,7 @@
         <v>#N/A</v>
       </c>
       <c r="S238" s="9" t="e">
-        <f>VLOOKUP(G238,HTKT!A238:$B$300,2,0)</f>
+        <f>VLOOKUP(G238,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T238" s="9" t="e">
@@ -6334,7 +7023,7 @@
         <v>#N/A</v>
       </c>
       <c r="S239" s="9" t="e">
-        <f>VLOOKUP(G239,HTKT!A239:$B$300,2,0)</f>
+        <f>VLOOKUP(G239,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T239" s="9" t="e">
@@ -6352,7 +7041,7 @@
         <v>#N/A</v>
       </c>
       <c r="S240" s="9" t="e">
-        <f>VLOOKUP(G240,HTKT!A240:$B$300,2,0)</f>
+        <f>VLOOKUP(G240,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T240" s="9" t="e">
@@ -6370,7 +7059,7 @@
         <v>#N/A</v>
       </c>
       <c r="S241" s="9" t="e">
-        <f>VLOOKUP(G241,HTKT!A241:$B$300,2,0)</f>
+        <f>VLOOKUP(G241,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T241" s="9" t="e">
@@ -6388,7 +7077,7 @@
         <v>#N/A</v>
       </c>
       <c r="S242" s="9" t="e">
-        <f>VLOOKUP(G242,HTKT!A242:$B$300,2,0)</f>
+        <f>VLOOKUP(G242,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T242" s="9" t="e">
@@ -6406,7 +7095,7 @@
         <v>#N/A</v>
       </c>
       <c r="S243" s="9" t="e">
-        <f>VLOOKUP(G243,HTKT!A243:$B$300,2,0)</f>
+        <f>VLOOKUP(G243,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T243" s="9" t="e">
@@ -6424,7 +7113,7 @@
         <v>#N/A</v>
       </c>
       <c r="S244" s="9" t="e">
-        <f>VLOOKUP(G244,HTKT!A244:$B$300,2,0)</f>
+        <f>VLOOKUP(G244,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T244" s="9" t="e">
@@ -6442,7 +7131,7 @@
         <v>#N/A</v>
       </c>
       <c r="S245" s="9" t="e">
-        <f>VLOOKUP(G245,HTKT!A245:$B$300,2,0)</f>
+        <f>VLOOKUP(G245,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T245" s="9" t="e">
@@ -6460,7 +7149,7 @@
         <v>#N/A</v>
       </c>
       <c r="S246" s="9" t="e">
-        <f>VLOOKUP(G246,HTKT!A246:$B$300,2,0)</f>
+        <f>VLOOKUP(G246,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T246" s="9" t="e">
@@ -6478,7 +7167,7 @@
         <v>#N/A</v>
       </c>
       <c r="S247" s="9" t="e">
-        <f>VLOOKUP(G247,HTKT!A247:$B$300,2,0)</f>
+        <f>VLOOKUP(G247,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T247" s="9" t="e">
@@ -6496,7 +7185,7 @@
         <v>#N/A</v>
       </c>
       <c r="S248" s="9" t="e">
-        <f>VLOOKUP(G248,HTKT!A248:$B$300,2,0)</f>
+        <f>VLOOKUP(G248,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T248" s="9" t="e">
@@ -6514,7 +7203,7 @@
         <v>#N/A</v>
       </c>
       <c r="S249" s="9" t="e">
-        <f>VLOOKUP(G249,HTKT!A249:$B$300,2,0)</f>
+        <f>VLOOKUP(G249,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T249" s="9" t="e">
@@ -6532,7 +7221,7 @@
         <v>#N/A</v>
       </c>
       <c r="S250" s="9" t="e">
-        <f>VLOOKUP(G250,HTKT!A250:$B$300,2,0)</f>
+        <f>VLOOKUP(G250,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T250" s="9" t="e">
@@ -6550,7 +7239,7 @@
         <v>#N/A</v>
       </c>
       <c r="S251" s="9" t="e">
-        <f>VLOOKUP(G251,HTKT!A251:$B$300,2,0)</f>
+        <f>VLOOKUP(G251,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T251" s="9" t="e">
@@ -6568,7 +7257,7 @@
         <v>#N/A</v>
       </c>
       <c r="S252" s="9" t="e">
-        <f>VLOOKUP(G252,HTKT!A252:$B$300,2,0)</f>
+        <f>VLOOKUP(G252,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T252" s="9" t="e">
@@ -6586,7 +7275,7 @@
         <v>#N/A</v>
       </c>
       <c r="S253" s="9" t="e">
-        <f>VLOOKUP(G253,HTKT!A253:$B$300,2,0)</f>
+        <f>VLOOKUP(G253,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T253" s="9" t="e">
@@ -6604,7 +7293,7 @@
         <v>#N/A</v>
       </c>
       <c r="S254" s="9" t="e">
-        <f>VLOOKUP(G254,HTKT!A254:$B$300,2,0)</f>
+        <f>VLOOKUP(G254,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T254" s="9" t="e">
@@ -6622,7 +7311,7 @@
         <v>#N/A</v>
       </c>
       <c r="S255" s="9" t="e">
-        <f>VLOOKUP(G255,HTKT!A255:$B$300,2,0)</f>
+        <f>VLOOKUP(G255,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T255" s="9" t="e">
@@ -6640,7 +7329,7 @@
         <v>#N/A</v>
       </c>
       <c r="S256" s="9" t="e">
-        <f>VLOOKUP(G256,HTKT!A256:$B$300,2,0)</f>
+        <f>VLOOKUP(G256,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T256" s="9" t="e">
@@ -6658,7 +7347,7 @@
         <v>#N/A</v>
       </c>
       <c r="S257" s="9" t="e">
-        <f>VLOOKUP(G257,HTKT!A257:$B$300,2,0)</f>
+        <f>VLOOKUP(G257,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T257" s="9" t="e">
@@ -6676,7 +7365,7 @@
         <v>#N/A</v>
       </c>
       <c r="S258" s="9" t="e">
-        <f>VLOOKUP(G258,HTKT!A258:$B$300,2,0)</f>
+        <f>VLOOKUP(G258,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T258" s="9" t="e">
@@ -6694,7 +7383,7 @@
         <v>#N/A</v>
       </c>
       <c r="S259" s="9" t="e">
-        <f>VLOOKUP(G259,HTKT!A259:$B$300,2,0)</f>
+        <f>VLOOKUP(G259,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T259" s="9" t="e">
@@ -6712,7 +7401,7 @@
         <v>#N/A</v>
       </c>
       <c r="S260" s="9" t="e">
-        <f>VLOOKUP(G260,HTKT!A260:$B$300,2,0)</f>
+        <f>VLOOKUP(G260,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T260" s="9" t="e">
@@ -6730,7 +7419,7 @@
         <v>#N/A</v>
       </c>
       <c r="S261" s="9" t="e">
-        <f>VLOOKUP(G261,HTKT!A261:$B$300,2,0)</f>
+        <f>VLOOKUP(G261,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T261" s="9" t="e">
@@ -6748,7 +7437,7 @@
         <v>#N/A</v>
       </c>
       <c r="S262" s="9" t="e">
-        <f>VLOOKUP(G262,HTKT!A262:$B$300,2,0)</f>
+        <f>VLOOKUP(G262,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T262" s="9" t="e">
@@ -6766,7 +7455,7 @@
         <v>#N/A</v>
       </c>
       <c r="S263" s="9" t="e">
-        <f>VLOOKUP(G263,HTKT!A263:$B$300,2,0)</f>
+        <f>VLOOKUP(G263,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T263" s="9" t="e">
@@ -6784,7 +7473,7 @@
         <v>#N/A</v>
       </c>
       <c r="S264" s="9" t="e">
-        <f>VLOOKUP(G264,HTKT!A264:$B$300,2,0)</f>
+        <f>VLOOKUP(G264,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T264" s="9" t="e">
@@ -6802,7 +7491,7 @@
         <v>#N/A</v>
       </c>
       <c r="S265" s="9" t="e">
-        <f>VLOOKUP(G265,HTKT!A265:$B$300,2,0)</f>
+        <f>VLOOKUP(G265,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T265" s="9" t="e">
@@ -6820,7 +7509,7 @@
         <v>#N/A</v>
       </c>
       <c r="S266" s="9" t="e">
-        <f>VLOOKUP(G266,HTKT!A266:$B$300,2,0)</f>
+        <f>VLOOKUP(G266,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T266" s="9" t="e">
@@ -6838,7 +7527,7 @@
         <v>#N/A</v>
       </c>
       <c r="S267" s="9" t="e">
-        <f>VLOOKUP(G267,HTKT!A267:$B$300,2,0)</f>
+        <f>VLOOKUP(G267,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T267" s="9" t="e">
@@ -6856,7 +7545,7 @@
         <v>#N/A</v>
       </c>
       <c r="S268" s="9" t="e">
-        <f>VLOOKUP(G268,HTKT!A268:$B$300,2,0)</f>
+        <f>VLOOKUP(G268,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T268" s="9" t="e">
@@ -6874,7 +7563,7 @@
         <v>#N/A</v>
       </c>
       <c r="S269" s="9" t="e">
-        <f>VLOOKUP(G269,HTKT!A269:$B$300,2,0)</f>
+        <f>VLOOKUP(G269,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T269" s="9" t="e">
@@ -6892,7 +7581,7 @@
         <v>#N/A</v>
       </c>
       <c r="S270" s="9" t="e">
-        <f>VLOOKUP(G270,HTKT!A270:$B$300,2,0)</f>
+        <f>VLOOKUP(G270,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T270" s="9" t="e">
@@ -6910,7 +7599,7 @@
         <v>#N/A</v>
       </c>
       <c r="S271" s="9" t="e">
-        <f>VLOOKUP(G271,HTKT!A271:$B$300,2,0)</f>
+        <f>VLOOKUP(G271,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T271" s="9" t="e">
@@ -6928,7 +7617,7 @@
         <v>#N/A</v>
       </c>
       <c r="S272" s="9" t="e">
-        <f>VLOOKUP(G272,HTKT!A272:$B$300,2,0)</f>
+        <f>VLOOKUP(G272,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T272" s="9" t="e">
@@ -6946,7 +7635,7 @@
         <v>#N/A</v>
       </c>
       <c r="S273" s="9" t="e">
-        <f>VLOOKUP(G273,HTKT!A273:$B$300,2,0)</f>
+        <f>VLOOKUP(G273,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T273" s="9" t="e">
@@ -6964,7 +7653,7 @@
         <v>#N/A</v>
       </c>
       <c r="S274" s="9" t="e">
-        <f>VLOOKUP(G274,HTKT!A274:$B$300,2,0)</f>
+        <f>VLOOKUP(G274,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T274" s="9" t="e">
@@ -6982,7 +7671,7 @@
         <v>#N/A</v>
       </c>
       <c r="S275" s="9" t="e">
-        <f>VLOOKUP(G275,HTKT!A275:$B$300,2,0)</f>
+        <f>VLOOKUP(G275,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T275" s="9" t="e">
@@ -7000,7 +7689,7 @@
         <v>#N/A</v>
       </c>
       <c r="S276" s="9" t="e">
-        <f>VLOOKUP(G276,HTKT!A276:$B$300,2,0)</f>
+        <f>VLOOKUP(G276,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T276" s="9" t="e">
@@ -7018,7 +7707,7 @@
         <v>#N/A</v>
       </c>
       <c r="S277" s="9" t="e">
-        <f>VLOOKUP(G277,HTKT!A277:$B$300,2,0)</f>
+        <f>VLOOKUP(G277,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T277" s="9" t="e">
@@ -7036,7 +7725,7 @@
         <v>#N/A</v>
       </c>
       <c r="S278" s="9" t="e">
-        <f>VLOOKUP(G278,HTKT!A278:$B$300,2,0)</f>
+        <f>VLOOKUP(G278,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T278" s="9" t="e">
@@ -7054,7 +7743,7 @@
         <v>#N/A</v>
       </c>
       <c r="S279" s="9" t="e">
-        <f>VLOOKUP(G279,HTKT!A279:$B$300,2,0)</f>
+        <f>VLOOKUP(G279,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T279" s="9" t="e">
@@ -7072,7 +7761,7 @@
         <v>#N/A</v>
       </c>
       <c r="S280" s="9" t="e">
-        <f>VLOOKUP(G280,HTKT!A280:$B$300,2,0)</f>
+        <f>VLOOKUP(G280,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T280" s="9" t="e">
@@ -7090,7 +7779,7 @@
         <v>#N/A</v>
       </c>
       <c r="S281" s="9" t="e">
-        <f>VLOOKUP(G281,HTKT!A281:$B$300,2,0)</f>
+        <f>VLOOKUP(G281,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T281" s="9" t="e">
@@ -7108,7 +7797,7 @@
         <v>#N/A</v>
       </c>
       <c r="S282" s="9" t="e">
-        <f>VLOOKUP(G282,HTKT!A282:$B$300,2,0)</f>
+        <f>VLOOKUP(G282,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T282" s="9" t="e">
@@ -7126,7 +7815,7 @@
         <v>#N/A</v>
       </c>
       <c r="S283" s="9" t="e">
-        <f>VLOOKUP(G283,HTKT!A283:$B$300,2,0)</f>
+        <f>VLOOKUP(G283,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T283" s="9" t="e">
@@ -7144,7 +7833,7 @@
         <v>#N/A</v>
       </c>
       <c r="S284" s="9" t="e">
-        <f>VLOOKUP(G284,HTKT!A284:$B$300,2,0)</f>
+        <f>VLOOKUP(G284,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T284" s="9" t="e">
@@ -7162,7 +7851,7 @@
         <v>#N/A</v>
       </c>
       <c r="S285" s="9" t="e">
-        <f>VLOOKUP(G285,HTKT!A285:$B$300,2,0)</f>
+        <f>VLOOKUP(G285,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T285" s="9" t="e">
@@ -7180,7 +7869,7 @@
         <v>#N/A</v>
       </c>
       <c r="S286" s="9" t="e">
-        <f>VLOOKUP(G286,HTKT!A286:$B$300,2,0)</f>
+        <f>VLOOKUP(G286,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T286" s="9" t="e">
@@ -7198,7 +7887,7 @@
         <v>#N/A</v>
       </c>
       <c r="S287" s="9" t="e">
-        <f>VLOOKUP(G287,HTKT!A287:$B$300,2,0)</f>
+        <f>VLOOKUP(G287,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T287" s="9" t="e">
@@ -7216,7 +7905,7 @@
         <v>#N/A</v>
       </c>
       <c r="S288" s="9" t="e">
-        <f>VLOOKUP(G288,HTKT!A288:$B$300,2,0)</f>
+        <f>VLOOKUP(G288,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T288" s="9" t="e">
@@ -7234,7 +7923,7 @@
         <v>#N/A</v>
       </c>
       <c r="S289" s="9" t="e">
-        <f>VLOOKUP(G289,HTKT!A289:$B$300,2,0)</f>
+        <f>VLOOKUP(G289,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T289" s="9" t="e">
@@ -7252,7 +7941,7 @@
         <v>#N/A</v>
       </c>
       <c r="S290" s="9" t="e">
-        <f>VLOOKUP(G290,HTKT!A290:$B$300,2,0)</f>
+        <f>VLOOKUP(G290,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T290" s="9" t="e">
@@ -7270,7 +7959,7 @@
         <v>#N/A</v>
       </c>
       <c r="S291" s="9" t="e">
-        <f>VLOOKUP(G291,HTKT!A291:$B$300,2,0)</f>
+        <f>VLOOKUP(G291,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T291" s="9" t="e">
@@ -7288,7 +7977,7 @@
         <v>#N/A</v>
       </c>
       <c r="S292" s="9" t="e">
-        <f>VLOOKUP(G292,HTKT!A292:$B$300,2,0)</f>
+        <f>VLOOKUP(G292,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T292" s="9" t="e">
@@ -7306,7 +7995,7 @@
         <v>#N/A</v>
       </c>
       <c r="S293" s="9" t="e">
-        <f>VLOOKUP(G293,HTKT!A293:$B$300,2,0)</f>
+        <f>VLOOKUP(G293,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T293" s="9" t="e">
@@ -7324,7 +8013,7 @@
         <v>#N/A</v>
       </c>
       <c r="S294" s="9" t="e">
-        <f>VLOOKUP(G294,HTKT!A294:$B$300,2,0)</f>
+        <f>VLOOKUP(G294,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T294" s="9" t="e">
@@ -7342,7 +8031,7 @@
         <v>#N/A</v>
       </c>
       <c r="S295" s="9" t="e">
-        <f>VLOOKUP(G295,HTKT!A295:$B$300,2,0)</f>
+        <f>VLOOKUP(G295,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T295" s="9" t="e">
@@ -7360,7 +8049,7 @@
         <v>#N/A</v>
       </c>
       <c r="S296" s="9" t="e">
-        <f>VLOOKUP(G296,HTKT!A296:$B$300,2,0)</f>
+        <f>VLOOKUP(G296,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T296" s="9" t="e">
@@ -7378,7 +8067,7 @@
         <v>#N/A</v>
       </c>
       <c r="S297" s="9" t="e">
-        <f>VLOOKUP(G297,HTKT!A297:$B$300,2,0)</f>
+        <f>VLOOKUP(G297,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T297" s="9" t="e">
@@ -7396,7 +8085,7 @@
         <v>#N/A</v>
       </c>
       <c r="S298" s="9" t="e">
-        <f>VLOOKUP(G298,HTKT!A298:$B$300,2,0)</f>
+        <f>VLOOKUP(G298,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T298" s="9" t="e">
@@ -7414,7 +8103,7 @@
         <v>#N/A</v>
       </c>
       <c r="S299" s="9" t="e">
-        <f>VLOOKUP(G299,HTKT!A299:$B$300,2,0)</f>
+        <f>VLOOKUP(G299,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T299" s="9" t="e">
@@ -7432,7 +8121,7 @@
         <v>#N/A</v>
       </c>
       <c r="S300" s="9" t="e">
-        <f>VLOOKUP(G300,HTKT!A300:$B$300,2,0)</f>
+        <f>VLOOKUP(G300,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T300" s="9" t="e">
@@ -7450,7 +8139,7 @@
         <v>#N/A</v>
       </c>
       <c r="S301" s="9" t="e">
-        <f>VLOOKUP(G301,HTKT!A$300:$B301,2,0)</f>
+        <f>VLOOKUP(G301,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T301" s="9" t="e">
@@ -7468,7 +8157,7 @@
         <v>#N/A</v>
       </c>
       <c r="S302" s="9" t="e">
-        <f>VLOOKUP(G302,HTKT!A$300:$B302,2,0)</f>
+        <f>VLOOKUP(G302,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T302" s="9" t="e">
@@ -7486,7 +8175,7 @@
         <v>#N/A</v>
       </c>
       <c r="S303" s="9" t="e">
-        <f>VLOOKUP(G303,HTKT!A$300:$B303,2,0)</f>
+        <f>VLOOKUP(G303,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T303" s="9" t="e">
@@ -7504,7 +8193,7 @@
         <v>#N/A</v>
       </c>
       <c r="S304" s="9" t="e">
-        <f>VLOOKUP(G304,HTKT!A$300:$B304,2,0)</f>
+        <f>VLOOKUP(G304,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T304" s="9" t="e">
@@ -7522,7 +8211,7 @@
         <v>#N/A</v>
       </c>
       <c r="S305" s="9" t="e">
-        <f>VLOOKUP(G305,HTKT!A$300:$B305,2,0)</f>
+        <f>VLOOKUP(G305,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T305" s="9" t="e">
@@ -7540,7 +8229,7 @@
         <v>#N/A</v>
       </c>
       <c r="S306" s="9" t="e">
-        <f>VLOOKUP(G306,HTKT!A$300:$B306,2,0)</f>
+        <f>VLOOKUP(G306,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T306" s="9" t="e">
@@ -7558,7 +8247,7 @@
         <v>#N/A</v>
       </c>
       <c r="S307" s="9" t="e">
-        <f>VLOOKUP(G307,HTKT!A$300:$B307,2,0)</f>
+        <f>VLOOKUP(G307,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T307" s="9" t="e">
@@ -7576,7 +8265,7 @@
         <v>#N/A</v>
       </c>
       <c r="S308" s="9" t="e">
-        <f>VLOOKUP(G308,HTKT!A$300:$B308,2,0)</f>
+        <f>VLOOKUP(G308,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T308" s="9" t="e">
@@ -7594,7 +8283,7 @@
         <v>#N/A</v>
       </c>
       <c r="S309" s="9" t="e">
-        <f>VLOOKUP(G309,HTKT!A$300:$B309,2,0)</f>
+        <f>VLOOKUP(G309,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T309" s="9" t="e">
@@ -7612,7 +8301,7 @@
         <v>#N/A</v>
       </c>
       <c r="S310" s="9" t="e">
-        <f>VLOOKUP(G310,HTKT!A$300:$B310,2,0)</f>
+        <f>VLOOKUP(G310,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T310" s="9" t="e">
@@ -7630,7 +8319,7 @@
         <v>#N/A</v>
       </c>
       <c r="S311" s="9" t="e">
-        <f>VLOOKUP(G311,HTKT!A$300:$B311,2,0)</f>
+        <f>VLOOKUP(G311,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T311" s="9" t="e">
@@ -7648,7 +8337,7 @@
         <v>#N/A</v>
       </c>
       <c r="S312" s="9" t="e">
-        <f>VLOOKUP(G312,HTKT!A$300:$B312,2,0)</f>
+        <f>VLOOKUP(G312,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T312" s="9" t="e">
@@ -7666,7 +8355,7 @@
         <v>#N/A</v>
       </c>
       <c r="S313" s="9" t="e">
-        <f>VLOOKUP(G313,HTKT!A$300:$B313,2,0)</f>
+        <f>VLOOKUP(G313,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T313" s="9" t="e">
@@ -7684,7 +8373,7 @@
         <v>#N/A</v>
       </c>
       <c r="S314" s="9" t="e">
-        <f>VLOOKUP(G314,HTKT!A$300:$B314,2,0)</f>
+        <f>VLOOKUP(G314,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T314" s="9" t="e">
@@ -7702,7 +8391,7 @@
         <v>#N/A</v>
       </c>
       <c r="S315" s="9" t="e">
-        <f>VLOOKUP(G315,HTKT!A$300:$B315,2,0)</f>
+        <f>VLOOKUP(G315,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T315" s="9" t="e">
@@ -7720,7 +8409,7 @@
         <v>#N/A</v>
       </c>
       <c r="S316" s="9" t="e">
-        <f>VLOOKUP(G316,HTKT!A$300:$B316,2,0)</f>
+        <f>VLOOKUP(G316,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T316" s="9" t="e">
@@ -7738,7 +8427,7 @@
         <v>#N/A</v>
       </c>
       <c r="S317" s="9" t="e">
-        <f>VLOOKUP(G317,HTKT!A$300:$B317,2,0)</f>
+        <f>VLOOKUP(G317,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T317" s="9" t="e">
@@ -7756,7 +8445,7 @@
         <v>#N/A</v>
       </c>
       <c r="S318" s="9" t="e">
-        <f>VLOOKUP(G318,HTKT!A$300:$B318,2,0)</f>
+        <f>VLOOKUP(G318,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T318" s="9" t="e">
@@ -7774,7 +8463,7 @@
         <v>#N/A</v>
       </c>
       <c r="S319" s="9" t="e">
-        <f>VLOOKUP(G319,HTKT!A$300:$B319,2,0)</f>
+        <f>VLOOKUP(G319,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T319" s="9" t="e">
@@ -7792,7 +8481,7 @@
         <v>#N/A</v>
       </c>
       <c r="S320" s="9" t="e">
-        <f>VLOOKUP(G320,HTKT!A$300:$B320,2,0)</f>
+        <f>VLOOKUP(G320,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T320" s="9" t="e">
@@ -7810,7 +8499,7 @@
         <v>#N/A</v>
       </c>
       <c r="S321" s="9" t="e">
-        <f>VLOOKUP(G321,HTKT!A$300:$B321,2,0)</f>
+        <f>VLOOKUP(G321,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T321" s="9" t="e">
@@ -7828,7 +8517,7 @@
         <v>#N/A</v>
       </c>
       <c r="S322" s="9" t="e">
-        <f>VLOOKUP(G322,HTKT!A$300:$B322,2,0)</f>
+        <f>VLOOKUP(G322,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T322" s="9" t="e">
@@ -7846,7 +8535,7 @@
         <v>#N/A</v>
       </c>
       <c r="S323" s="9" t="e">
-        <f>VLOOKUP(G323,HTKT!A$300:$B323,2,0)</f>
+        <f>VLOOKUP(G323,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T323" s="9" t="e">
@@ -7864,7 +8553,7 @@
         <v>#N/A</v>
       </c>
       <c r="S324" s="9" t="e">
-        <f>VLOOKUP(G324,HTKT!A$300:$B324,2,0)</f>
+        <f>VLOOKUP(G324,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T324" s="9" t="e">
@@ -7882,7 +8571,7 @@
         <v>#N/A</v>
       </c>
       <c r="S325" s="9" t="e">
-        <f>VLOOKUP(G325,HTKT!A$300:$B325,2,0)</f>
+        <f>VLOOKUP(G325,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T325" s="9" t="e">
@@ -7900,7 +8589,7 @@
         <v>#N/A</v>
       </c>
       <c r="S326" s="9" t="e">
-        <f>VLOOKUP(G326,HTKT!A$300:$B326,2,0)</f>
+        <f>VLOOKUP(G326,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T326" s="9" t="e">
@@ -7918,7 +8607,7 @@
         <v>#N/A</v>
       </c>
       <c r="S327" s="9" t="e">
-        <f>VLOOKUP(G327,HTKT!A$300:$B327,2,0)</f>
+        <f>VLOOKUP(G327,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T327" s="9" t="e">
@@ -7936,7 +8625,7 @@
         <v>#N/A</v>
       </c>
       <c r="S328" s="9" t="e">
-        <f>VLOOKUP(G328,HTKT!A$300:$B328,2,0)</f>
+        <f>VLOOKUP(G328,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T328" s="9" t="e">
@@ -7954,7 +8643,7 @@
         <v>#N/A</v>
       </c>
       <c r="S329" s="9" t="e">
-        <f>VLOOKUP(G329,HTKT!A$300:$B329,2,0)</f>
+        <f>VLOOKUP(G329,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T329" s="9" t="e">
@@ -7972,7 +8661,7 @@
         <v>#N/A</v>
       </c>
       <c r="S330" s="9" t="e">
-        <f>VLOOKUP(G330,HTKT!A$300:$B330,2,0)</f>
+        <f>VLOOKUP(G330,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T330" s="9" t="e">
@@ -7990,7 +8679,7 @@
         <v>#N/A</v>
       </c>
       <c r="S331" s="9" t="e">
-        <f>VLOOKUP(G331,HTKT!A$300:$B331,2,0)</f>
+        <f>VLOOKUP(G331,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T331" s="9" t="e">
@@ -8008,7 +8697,7 @@
         <v>#N/A</v>
       </c>
       <c r="S332" s="9" t="e">
-        <f>VLOOKUP(G332,HTKT!A$300:$B332,2,0)</f>
+        <f>VLOOKUP(G332,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T332" s="9" t="e">
@@ -8026,7 +8715,7 @@
         <v>#N/A</v>
       </c>
       <c r="S333" s="9" t="e">
-        <f>VLOOKUP(G333,HTKT!A$300:$B333,2,0)</f>
+        <f>VLOOKUP(G333,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T333" s="9" t="e">
@@ -8044,7 +8733,7 @@
         <v>#N/A</v>
       </c>
       <c r="S334" s="9" t="e">
-        <f>VLOOKUP(G334,HTKT!A$300:$B334,2,0)</f>
+        <f>VLOOKUP(G334,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T334" s="9" t="e">
@@ -8062,7 +8751,7 @@
         <v>#N/A</v>
       </c>
       <c r="S335" s="9" t="e">
-        <f>VLOOKUP(G335,HTKT!A$300:$B335,2,0)</f>
+        <f>VLOOKUP(G335,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T335" s="9" t="e">
@@ -8080,7 +8769,7 @@
         <v>#N/A</v>
       </c>
       <c r="S336" s="9" t="e">
-        <f>VLOOKUP(G336,HTKT!A$300:$B336,2,0)</f>
+        <f>VLOOKUP(G336,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T336" s="9" t="e">
@@ -8098,7 +8787,7 @@
         <v>#N/A</v>
       </c>
       <c r="S337" s="9" t="e">
-        <f>VLOOKUP(G337,HTKT!A$300:$B337,2,0)</f>
+        <f>VLOOKUP(G337,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T337" s="9" t="e">
@@ -8116,7 +8805,7 @@
         <v>#N/A</v>
       </c>
       <c r="S338" s="9" t="e">
-        <f>VLOOKUP(G338,HTKT!A$300:$B338,2,0)</f>
+        <f>VLOOKUP(G338,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T338" s="9" t="e">
@@ -8134,7 +8823,7 @@
         <v>#N/A</v>
       </c>
       <c r="S339" s="9" t="e">
-        <f>VLOOKUP(G339,HTKT!A$300:$B339,2,0)</f>
+        <f>VLOOKUP(G339,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T339" s="9" t="e">
@@ -8152,7 +8841,7 @@
         <v>#N/A</v>
       </c>
       <c r="S340" s="9" t="e">
-        <f>VLOOKUP(G340,HTKT!A$300:$B340,2,0)</f>
+        <f>VLOOKUP(G340,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T340" s="9" t="e">
@@ -8170,7 +8859,7 @@
         <v>#N/A</v>
       </c>
       <c r="S341" s="9" t="e">
-        <f>VLOOKUP(G341,HTKT!A$300:$B341,2,0)</f>
+        <f>VLOOKUP(G341,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T341" s="9" t="e">
@@ -8188,7 +8877,7 @@
         <v>#N/A</v>
       </c>
       <c r="S342" s="9" t="e">
-        <f>VLOOKUP(G342,HTKT!A$300:$B342,2,0)</f>
+        <f>VLOOKUP(G342,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T342" s="9" t="e">
@@ -8206,7 +8895,7 @@
         <v>#N/A</v>
       </c>
       <c r="S343" s="9" t="e">
-        <f>VLOOKUP(G343,HTKT!A$300:$B343,2,0)</f>
+        <f>VLOOKUP(G343,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T343" s="9" t="e">
@@ -8224,7 +8913,7 @@
         <v>#N/A</v>
       </c>
       <c r="S344" s="9" t="e">
-        <f>VLOOKUP(G344,HTKT!A$300:$B344,2,0)</f>
+        <f>VLOOKUP(G344,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T344" s="9" t="e">
@@ -8242,7 +8931,7 @@
         <v>#N/A</v>
       </c>
       <c r="S345" s="9" t="e">
-        <f>VLOOKUP(G345,HTKT!A$300:$B345,2,0)</f>
+        <f>VLOOKUP(G345,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T345" s="9" t="e">
@@ -8260,7 +8949,7 @@
         <v>#N/A</v>
       </c>
       <c r="S346" s="9" t="e">
-        <f>VLOOKUP(G346,HTKT!A$300:$B346,2,0)</f>
+        <f>VLOOKUP(G346,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T346" s="9" t="e">
@@ -8278,7 +8967,7 @@
         <v>#N/A</v>
       </c>
       <c r="S347" s="9" t="e">
-        <f>VLOOKUP(G347,HTKT!A$300:$B347,2,0)</f>
+        <f>VLOOKUP(G347,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T347" s="9" t="e">
@@ -8296,7 +8985,7 @@
         <v>#N/A</v>
       </c>
       <c r="S348" s="9" t="e">
-        <f>VLOOKUP(G348,HTKT!A$300:$B348,2,0)</f>
+        <f>VLOOKUP(G348,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T348" s="9" t="e">
@@ -8314,7 +9003,7 @@
         <v>#N/A</v>
       </c>
       <c r="S349" s="9" t="e">
-        <f>VLOOKUP(G349,HTKT!A$300:$B349,2,0)</f>
+        <f>VLOOKUP(G349,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T349" s="9" t="e">
@@ -8332,7 +9021,7 @@
         <v>#N/A</v>
       </c>
       <c r="S350" s="9" t="e">
-        <f>VLOOKUP(G350,HTKT!A$300:$B350,2,0)</f>
+        <f>VLOOKUP(G350,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T350" s="9" t="e">
@@ -8350,7 +9039,7 @@
         <v>#N/A</v>
       </c>
       <c r="S351" s="9" t="e">
-        <f>VLOOKUP(G351,HTKT!A$300:$B351,2,0)</f>
+        <f>VLOOKUP(G351,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T351" s="9" t="e">
@@ -8368,7 +9057,7 @@
         <v>#N/A</v>
       </c>
       <c r="S352" s="9" t="e">
-        <f>VLOOKUP(G352,HTKT!A$300:$B352,2,0)</f>
+        <f>VLOOKUP(G352,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T352" s="9" t="e">
@@ -8386,7 +9075,7 @@
         <v>#N/A</v>
       </c>
       <c r="S353" s="9" t="e">
-        <f>VLOOKUP(G353,HTKT!A$300:$B353,2,0)</f>
+        <f>VLOOKUP(G353,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T353" s="9" t="e">
@@ -8404,7 +9093,7 @@
         <v>#N/A</v>
       </c>
       <c r="S354" s="9" t="e">
-        <f>VLOOKUP(G354,HTKT!A$300:$B354,2,0)</f>
+        <f>VLOOKUP(G354,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T354" s="9" t="e">
@@ -8422,7 +9111,7 @@
         <v>#N/A</v>
       </c>
       <c r="S355" s="9" t="e">
-        <f>VLOOKUP(G355,HTKT!A$300:$B355,2,0)</f>
+        <f>VLOOKUP(G355,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T355" s="9" t="e">
@@ -8440,7 +9129,7 @@
         <v>#N/A</v>
       </c>
       <c r="S356" s="9" t="e">
-        <f>VLOOKUP(G356,HTKT!A$300:$B356,2,0)</f>
+        <f>VLOOKUP(G356,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T356" s="9" t="e">
@@ -8458,7 +9147,7 @@
         <v>#N/A</v>
       </c>
       <c r="S357" s="9" t="e">
-        <f>VLOOKUP(G357,HTKT!A$300:$B357,2,0)</f>
+        <f>VLOOKUP(G357,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T357" s="9" t="e">
@@ -8476,7 +9165,7 @@
         <v>#N/A</v>
       </c>
       <c r="S358" s="9" t="e">
-        <f>VLOOKUP(G358,HTKT!A$300:$B358,2,0)</f>
+        <f>VLOOKUP(G358,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T358" s="9" t="e">
@@ -8494,7 +9183,7 @@
         <v>#N/A</v>
       </c>
       <c r="S359" s="9" t="e">
-        <f>VLOOKUP(G359,HTKT!A$300:$B359,2,0)</f>
+        <f>VLOOKUP(G359,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T359" s="9" t="e">
@@ -8512,7 +9201,7 @@
         <v>#N/A</v>
       </c>
       <c r="S360" s="9" t="e">
-        <f>VLOOKUP(G360,HTKT!A$300:$B360,2,0)</f>
+        <f>VLOOKUP(G360,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T360" s="9" t="e">
@@ -8530,7 +9219,7 @@
         <v>#N/A</v>
       </c>
       <c r="S361" s="9" t="e">
-        <f>VLOOKUP(G361,HTKT!A$300:$B361,2,0)</f>
+        <f>VLOOKUP(G361,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T361" s="9" t="e">
@@ -8548,7 +9237,7 @@
         <v>#N/A</v>
       </c>
       <c r="S362" s="9" t="e">
-        <f>VLOOKUP(G362,HTKT!A$300:$B362,2,0)</f>
+        <f>VLOOKUP(G362,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T362" s="9" t="e">
@@ -8566,7 +9255,7 @@
         <v>#N/A</v>
       </c>
       <c r="S363" s="9" t="e">
-        <f>VLOOKUP(G363,HTKT!A$300:$B363,2,0)</f>
+        <f>VLOOKUP(G363,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T363" s="9" t="e">
@@ -8584,7 +9273,7 @@
         <v>#N/A</v>
       </c>
       <c r="S364" s="9" t="e">
-        <f>VLOOKUP(G364,HTKT!A$300:$B364,2,0)</f>
+        <f>VLOOKUP(G364,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T364" s="9" t="e">
@@ -8602,7 +9291,7 @@
         <v>#N/A</v>
       </c>
       <c r="S365" s="9" t="e">
-        <f>VLOOKUP(G365,HTKT!A$300:$B365,2,0)</f>
+        <f>VLOOKUP(G365,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T365" s="9" t="e">
@@ -8620,7 +9309,7 @@
         <v>#N/A</v>
       </c>
       <c r="S366" s="9" t="e">
-        <f>VLOOKUP(G366,HTKT!A$300:$B366,2,0)</f>
+        <f>VLOOKUP(G366,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T366" s="9" t="e">
@@ -8638,7 +9327,7 @@
         <v>#N/A</v>
       </c>
       <c r="S367" s="9" t="e">
-        <f>VLOOKUP(G367,HTKT!A$300:$B367,2,0)</f>
+        <f>VLOOKUP(G367,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T367" s="9" t="e">
@@ -8656,7 +9345,7 @@
         <v>#N/A</v>
       </c>
       <c r="S368" s="9" t="e">
-        <f>VLOOKUP(G368,HTKT!A$300:$B368,2,0)</f>
+        <f>VLOOKUP(G368,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T368" s="9" t="e">
@@ -8674,7 +9363,7 @@
         <v>#N/A</v>
       </c>
       <c r="S369" s="9" t="e">
-        <f>VLOOKUP(G369,HTKT!A$300:$B369,2,0)</f>
+        <f>VLOOKUP(G369,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T369" s="9" t="e">
@@ -8692,7 +9381,7 @@
         <v>#N/A</v>
       </c>
       <c r="S370" s="9" t="e">
-        <f>VLOOKUP(G370,HTKT!A$300:$B370,2,0)</f>
+        <f>VLOOKUP(G370,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T370" s="9" t="e">
@@ -8710,7 +9399,7 @@
         <v>#N/A</v>
       </c>
       <c r="S371" s="9" t="e">
-        <f>VLOOKUP(G371,HTKT!A$300:$B371,2,0)</f>
+        <f>VLOOKUP(G371,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T371" s="9" t="e">
@@ -8728,7 +9417,7 @@
         <v>#N/A</v>
       </c>
       <c r="S372" s="9" t="e">
-        <f>VLOOKUP(G372,HTKT!A$300:$B372,2,0)</f>
+        <f>VLOOKUP(G372,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T372" s="9" t="e">
@@ -8746,7 +9435,7 @@
         <v>#N/A</v>
       </c>
       <c r="S373" s="9" t="e">
-        <f>VLOOKUP(G373,HTKT!A$300:$B373,2,0)</f>
+        <f>VLOOKUP(G373,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T373" s="9" t="e">
@@ -8764,7 +9453,7 @@
         <v>#N/A</v>
       </c>
       <c r="S374" s="9" t="e">
-        <f>VLOOKUP(G374,HTKT!A$300:$B374,2,0)</f>
+        <f>VLOOKUP(G374,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T374" s="9" t="e">
@@ -8782,7 +9471,7 @@
         <v>#N/A</v>
       </c>
       <c r="S375" s="9" t="e">
-        <f>VLOOKUP(G375,HTKT!A$300:$B375,2,0)</f>
+        <f>VLOOKUP(G375,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T375" s="9" t="e">
@@ -8800,7 +9489,7 @@
         <v>#N/A</v>
       </c>
       <c r="S376" s="9" t="e">
-        <f>VLOOKUP(G376,HTKT!A$300:$B376,2,0)</f>
+        <f>VLOOKUP(G376,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T376" s="9" t="e">
@@ -8818,7 +9507,7 @@
         <v>#N/A</v>
       </c>
       <c r="S377" s="9" t="e">
-        <f>VLOOKUP(G377,HTKT!A$300:$B377,2,0)</f>
+        <f>VLOOKUP(G377,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T377" s="9" t="e">
@@ -8836,7 +9525,7 @@
         <v>#N/A</v>
       </c>
       <c r="S378" s="9" t="e">
-        <f>VLOOKUP(G378,HTKT!A$300:$B378,2,0)</f>
+        <f>VLOOKUP(G378,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T378" s="9" t="e">
@@ -8854,7 +9543,7 @@
         <v>#N/A</v>
       </c>
       <c r="S379" s="9" t="e">
-        <f>VLOOKUP(G379,HTKT!A$300:$B379,2,0)</f>
+        <f>VLOOKUP(G379,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T379" s="9" t="e">
@@ -8872,7 +9561,7 @@
         <v>#N/A</v>
       </c>
       <c r="S380" s="9" t="e">
-        <f>VLOOKUP(G380,HTKT!A$300:$B380,2,0)</f>
+        <f>VLOOKUP(G380,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T380" s="9" t="e">
@@ -8890,7 +9579,7 @@
         <v>#N/A</v>
       </c>
       <c r="S381" s="9" t="e">
-        <f>VLOOKUP(G381,HTKT!A$300:$B381,2,0)</f>
+        <f>VLOOKUP(G381,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T381" s="9" t="e">
@@ -8908,7 +9597,7 @@
         <v>#N/A</v>
       </c>
       <c r="S382" s="9" t="e">
-        <f>VLOOKUP(G382,HTKT!A$300:$B382,2,0)</f>
+        <f>VLOOKUP(G382,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T382" s="9" t="e">
@@ -8926,7 +9615,7 @@
         <v>#N/A</v>
       </c>
       <c r="S383" s="9" t="e">
-        <f>VLOOKUP(G383,HTKT!A$300:$B383,2,0)</f>
+        <f>VLOOKUP(G383,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T383" s="9" t="e">
@@ -8944,7 +9633,7 @@
         <v>#N/A</v>
       </c>
       <c r="S384" s="9" t="e">
-        <f>VLOOKUP(G384,HTKT!A$300:$B384,2,0)</f>
+        <f>VLOOKUP(G384,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T384" s="9" t="e">
@@ -8962,7 +9651,7 @@
         <v>#N/A</v>
       </c>
       <c r="S385" s="9" t="e">
-        <f>VLOOKUP(G385,HTKT!A$300:$B385,2,0)</f>
+        <f>VLOOKUP(G385,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T385" s="9" t="e">
@@ -8980,7 +9669,7 @@
         <v>#N/A</v>
       </c>
       <c r="S386" s="9" t="e">
-        <f>VLOOKUP(G386,HTKT!A$300:$B386,2,0)</f>
+        <f>VLOOKUP(G386,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T386" s="9" t="e">
@@ -8998,7 +9687,7 @@
         <v>#N/A</v>
       </c>
       <c r="S387" s="9" t="e">
-        <f>VLOOKUP(G387,HTKT!A$300:$B387,2,0)</f>
+        <f>VLOOKUP(G387,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T387" s="9" t="e">
@@ -9016,7 +9705,7 @@
         <v>#N/A</v>
       </c>
       <c r="S388" s="9" t="e">
-        <f>VLOOKUP(G388,HTKT!A$300:$B388,2,0)</f>
+        <f>VLOOKUP(G388,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T388" s="9" t="e">
@@ -9034,7 +9723,7 @@
         <v>#N/A</v>
       </c>
       <c r="S389" s="9" t="e">
-        <f>VLOOKUP(G389,HTKT!A$300:$B389,2,0)</f>
+        <f>VLOOKUP(G389,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T389" s="9" t="e">
@@ -9052,7 +9741,7 @@
         <v>#N/A</v>
       </c>
       <c r="S390" s="9" t="e">
-        <f>VLOOKUP(G390,HTKT!A$300:$B390,2,0)</f>
+        <f>VLOOKUP(G390,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T390" s="9" t="e">
@@ -9070,7 +9759,7 @@
         <v>#N/A</v>
       </c>
       <c r="S391" s="9" t="e">
-        <f>VLOOKUP(G391,HTKT!A$300:$B391,2,0)</f>
+        <f>VLOOKUP(G391,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T391" s="9" t="e">
@@ -9088,7 +9777,7 @@
         <v>#N/A</v>
       </c>
       <c r="S392" s="9" t="e">
-        <f>VLOOKUP(G392,HTKT!A$300:$B392,2,0)</f>
+        <f>VLOOKUP(G392,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T392" s="9" t="e">
@@ -9106,7 +9795,7 @@
         <v>#N/A</v>
       </c>
       <c r="S393" s="9" t="e">
-        <f>VLOOKUP(G393,HTKT!A$300:$B393,2,0)</f>
+        <f>VLOOKUP(G393,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T393" s="9" t="e">
@@ -9124,7 +9813,7 @@
         <v>#N/A</v>
       </c>
       <c r="S394" s="9" t="e">
-        <f>VLOOKUP(G394,HTKT!A$300:$B394,2,0)</f>
+        <f>VLOOKUP(G394,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T394" s="9" t="e">
@@ -9142,7 +9831,7 @@
         <v>#N/A</v>
       </c>
       <c r="S395" s="9" t="e">
-        <f>VLOOKUP(G395,HTKT!A$300:$B395,2,0)</f>
+        <f>VLOOKUP(G395,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T395" s="9" t="e">
@@ -9160,7 +9849,7 @@
         <v>#N/A</v>
       </c>
       <c r="S396" s="9" t="e">
-        <f>VLOOKUP(G396,HTKT!A$300:$B396,2,0)</f>
+        <f>VLOOKUP(G396,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T396" s="9" t="e">
@@ -9178,7 +9867,7 @@
         <v>#N/A</v>
       </c>
       <c r="S397" s="9" t="e">
-        <f>VLOOKUP(G397,HTKT!A$300:$B397,2,0)</f>
+        <f>VLOOKUP(G397,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T397" s="9" t="e">
@@ -9196,7 +9885,7 @@
         <v>#N/A</v>
       </c>
       <c r="S398" s="9" t="e">
-        <f>VLOOKUP(G398,HTKT!A$300:$B398,2,0)</f>
+        <f>VLOOKUP(G398,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T398" s="9" t="e">
@@ -9214,7 +9903,7 @@
         <v>#N/A</v>
       </c>
       <c r="S399" s="9" t="e">
-        <f>VLOOKUP(G399,HTKT!A$300:$B399,2,0)</f>
+        <f>VLOOKUP(G399,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T399" s="9" t="e">
@@ -9232,7 +9921,7 @@
         <v>#N/A</v>
       </c>
       <c r="S400" s="9" t="e">
-        <f>VLOOKUP(G400,HTKT!A$300:$B400,2,0)</f>
+        <f>VLOOKUP(G400,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T400" s="9" t="e">
@@ -9250,7 +9939,7 @@
         <v>#N/A</v>
       </c>
       <c r="S401" s="9" t="e">
-        <f>VLOOKUP(G401,HTKT!A$300:$B401,2,0)</f>
+        <f>VLOOKUP(G401,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T401" s="9" t="e">
@@ -9268,7 +9957,7 @@
         <v>#N/A</v>
       </c>
       <c r="S402" s="9" t="e">
-        <f>VLOOKUP(G402,HTKT!A$300:$B402,2,0)</f>
+        <f>VLOOKUP(G402,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T402" s="9" t="e">
@@ -9286,7 +9975,7 @@
         <v>#N/A</v>
       </c>
       <c r="S403" s="9" t="e">
-        <f>VLOOKUP(G403,HTKT!A$300:$B403,2,0)</f>
+        <f>VLOOKUP(G403,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T403" s="9" t="e">
@@ -9304,7 +9993,7 @@
         <v>#N/A</v>
       </c>
       <c r="S404" s="9" t="e">
-        <f>VLOOKUP(G404,HTKT!A$300:$B404,2,0)</f>
+        <f>VLOOKUP(G404,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T404" s="9" t="e">
@@ -9322,7 +10011,7 @@
         <v>#N/A</v>
       </c>
       <c r="S405" s="9" t="e">
-        <f>VLOOKUP(G405,HTKT!A$300:$B405,2,0)</f>
+        <f>VLOOKUP(G405,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T405" s="9" t="e">
@@ -9340,7 +10029,7 @@
         <v>#N/A</v>
       </c>
       <c r="S406" s="9" t="e">
-        <f>VLOOKUP(G406,HTKT!A$300:$B406,2,0)</f>
+        <f>VLOOKUP(G406,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T406" s="9" t="e">
@@ -9358,7 +10047,7 @@
         <v>#N/A</v>
       </c>
       <c r="S407" s="9" t="e">
-        <f>VLOOKUP(G407,HTKT!A$300:$B407,2,0)</f>
+        <f>VLOOKUP(G407,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T407" s="9" t="e">
@@ -9376,7 +10065,7 @@
         <v>#N/A</v>
       </c>
       <c r="S408" s="9" t="e">
-        <f>VLOOKUP(G408,HTKT!A$300:$B408,2,0)</f>
+        <f>VLOOKUP(G408,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T408" s="9" t="e">
@@ -9394,7 +10083,7 @@
         <v>#N/A</v>
       </c>
       <c r="S409" s="9" t="e">
-        <f>VLOOKUP(G409,HTKT!A$300:$B409,2,0)</f>
+        <f>VLOOKUP(G409,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T409" s="9" t="e">
@@ -9412,7 +10101,7 @@
         <v>#N/A</v>
       </c>
       <c r="S410" s="9" t="e">
-        <f>VLOOKUP(G410,HTKT!A$300:$B410,2,0)</f>
+        <f>VLOOKUP(G410,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T410" s="9" t="e">
@@ -9430,7 +10119,7 @@
         <v>#N/A</v>
       </c>
       <c r="S411" s="9" t="e">
-        <f>VLOOKUP(G411,HTKT!A$300:$B411,2,0)</f>
+        <f>VLOOKUP(G411,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T411" s="9" t="e">
@@ -9448,7 +10137,7 @@
         <v>#N/A</v>
       </c>
       <c r="S412" s="9" t="e">
-        <f>VLOOKUP(G412,HTKT!A$300:$B412,2,0)</f>
+        <f>VLOOKUP(G412,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T412" s="9" t="e">
@@ -9466,7 +10155,7 @@
         <v>#N/A</v>
       </c>
       <c r="S413" s="9" t="e">
-        <f>VLOOKUP(G413,HTKT!A$300:$B413,2,0)</f>
+        <f>VLOOKUP(G413,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T413" s="9" t="e">
@@ -9484,7 +10173,7 @@
         <v>#N/A</v>
       </c>
       <c r="S414" s="9" t="e">
-        <f>VLOOKUP(G414,HTKT!A$300:$B414,2,0)</f>
+        <f>VLOOKUP(G414,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T414" s="9" t="e">
@@ -9502,7 +10191,7 @@
         <v>#N/A</v>
       </c>
       <c r="S415" s="9" t="e">
-        <f>VLOOKUP(G415,HTKT!A$300:$B415,2,0)</f>
+        <f>VLOOKUP(G415,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T415" s="9" t="e">
@@ -9520,7 +10209,7 @@
         <v>#N/A</v>
       </c>
       <c r="S416" s="9" t="e">
-        <f>VLOOKUP(G416,HTKT!A$300:$B416,2,0)</f>
+        <f>VLOOKUP(G416,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T416" s="9" t="e">
@@ -9538,7 +10227,7 @@
         <v>#N/A</v>
       </c>
       <c r="S417" s="9" t="e">
-        <f>VLOOKUP(G417,HTKT!A$300:$B417,2,0)</f>
+        <f>VLOOKUP(G417,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T417" s="9" t="e">
@@ -9556,7 +10245,7 @@
         <v>#N/A</v>
       </c>
       <c r="S418" s="9" t="e">
-        <f>VLOOKUP(G418,HTKT!A$300:$B418,2,0)</f>
+        <f>VLOOKUP(G418,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T418" s="9" t="e">
@@ -9574,7 +10263,7 @@
         <v>#N/A</v>
       </c>
       <c r="S419" s="9" t="e">
-        <f>VLOOKUP(G419,HTKT!A$300:$B419,2,0)</f>
+        <f>VLOOKUP(G419,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T419" s="9" t="e">
@@ -9592,7 +10281,7 @@
         <v>#N/A</v>
       </c>
       <c r="S420" s="9" t="e">
-        <f>VLOOKUP(G420,HTKT!A$300:$B420,2,0)</f>
+        <f>VLOOKUP(G420,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T420" s="9" t="e">
@@ -9610,7 +10299,7 @@
         <v>#N/A</v>
       </c>
       <c r="S421" s="9" t="e">
-        <f>VLOOKUP(G421,HTKT!A$300:$B421,2,0)</f>
+        <f>VLOOKUP(G421,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T421" s="9" t="e">
@@ -9628,7 +10317,7 @@
         <v>#N/A</v>
       </c>
       <c r="S422" s="9" t="e">
-        <f>VLOOKUP(G422,HTKT!A$300:$B422,2,0)</f>
+        <f>VLOOKUP(G422,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T422" s="9" t="e">
@@ -9646,7 +10335,7 @@
         <v>#N/A</v>
       </c>
       <c r="S423" s="9" t="e">
-        <f>VLOOKUP(G423,HTKT!A$300:$B423,2,0)</f>
+        <f>VLOOKUP(G423,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T423" s="9" t="e">
@@ -9664,7 +10353,7 @@
         <v>#N/A</v>
       </c>
       <c r="S424" s="9" t="e">
-        <f>VLOOKUP(G424,HTKT!A$300:$B424,2,0)</f>
+        <f>VLOOKUP(G424,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T424" s="9" t="e">
@@ -9682,7 +10371,7 @@
         <v>#N/A</v>
       </c>
       <c r="S425" s="9" t="e">
-        <f>VLOOKUP(G425,HTKT!A$300:$B425,2,0)</f>
+        <f>VLOOKUP(G425,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T425" s="9" t="e">
@@ -9700,7 +10389,7 @@
         <v>#N/A</v>
       </c>
       <c r="S426" s="9" t="e">
-        <f>VLOOKUP(G426,HTKT!A$300:$B426,2,0)</f>
+        <f>VLOOKUP(G426,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T426" s="9" t="e">
@@ -9718,7 +10407,7 @@
         <v>#N/A</v>
       </c>
       <c r="S427" s="9" t="e">
-        <f>VLOOKUP(G427,HTKT!A$300:$B427,2,0)</f>
+        <f>VLOOKUP(G427,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T427" s="9" t="e">
@@ -9736,7 +10425,7 @@
         <v>#N/A</v>
       </c>
       <c r="S428" s="9" t="e">
-        <f>VLOOKUP(G428,HTKT!A$300:$B428,2,0)</f>
+        <f>VLOOKUP(G428,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T428" s="9" t="e">
@@ -9754,7 +10443,7 @@
         <v>#N/A</v>
       </c>
       <c r="S429" s="9" t="e">
-        <f>VLOOKUP(G429,HTKT!A$300:$B429,2,0)</f>
+        <f>VLOOKUP(G429,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T429" s="9" t="e">
@@ -9772,7 +10461,7 @@
         <v>#N/A</v>
       </c>
       <c r="S430" s="9" t="e">
-        <f>VLOOKUP(G430,HTKT!A$300:$B430,2,0)</f>
+        <f>VLOOKUP(G430,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T430" s="9" t="e">
@@ -9790,7 +10479,7 @@
         <v>#N/A</v>
       </c>
       <c r="S431" s="9" t="e">
-        <f>VLOOKUP(G431,HTKT!A$300:$B431,2,0)</f>
+        <f>VLOOKUP(G431,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T431" s="9" t="e">
@@ -9808,7 +10497,7 @@
         <v>#N/A</v>
       </c>
       <c r="S432" s="9" t="e">
-        <f>VLOOKUP(G432,HTKT!A$300:$B432,2,0)</f>
+        <f>VLOOKUP(G432,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T432" s="9" t="e">
@@ -9826,7 +10515,7 @@
         <v>#N/A</v>
       </c>
       <c r="S433" s="9" t="e">
-        <f>VLOOKUP(G433,HTKT!A$300:$B433,2,0)</f>
+        <f>VLOOKUP(G433,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T433" s="9" t="e">
@@ -9844,7 +10533,7 @@
         <v>#N/A</v>
       </c>
       <c r="S434" s="9" t="e">
-        <f>VLOOKUP(G434,HTKT!A$300:$B434,2,0)</f>
+        <f>VLOOKUP(G434,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T434" s="9" t="e">
@@ -9862,7 +10551,7 @@
         <v>#N/A</v>
       </c>
       <c r="S435" s="9" t="e">
-        <f>VLOOKUP(G435,HTKT!A$300:$B435,2,0)</f>
+        <f>VLOOKUP(G435,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T435" s="9" t="e">
@@ -9880,7 +10569,7 @@
         <v>#N/A</v>
       </c>
       <c r="S436" s="9" t="e">
-        <f>VLOOKUP(G436,HTKT!A$300:$B436,2,0)</f>
+        <f>VLOOKUP(G436,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T436" s="9" t="e">
@@ -9898,7 +10587,7 @@
         <v>#N/A</v>
       </c>
       <c r="S437" s="9" t="e">
-        <f>VLOOKUP(G437,HTKT!A$300:$B437,2,0)</f>
+        <f>VLOOKUP(G437,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T437" s="9" t="e">
@@ -9916,7 +10605,7 @@
         <v>#N/A</v>
       </c>
       <c r="S438" s="9" t="e">
-        <f>VLOOKUP(G438,HTKT!A$300:$B438,2,0)</f>
+        <f>VLOOKUP(G438,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T438" s="9" t="e">
@@ -9934,7 +10623,7 @@
         <v>#N/A</v>
       </c>
       <c r="S439" s="9" t="e">
-        <f>VLOOKUP(G439,HTKT!A$300:$B439,2,0)</f>
+        <f>VLOOKUP(G439,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T439" s="9" t="e">
@@ -9952,7 +10641,7 @@
         <v>#N/A</v>
       </c>
       <c r="S440" s="9" t="e">
-        <f>VLOOKUP(G440,HTKT!A$300:$B440,2,0)</f>
+        <f>VLOOKUP(G440,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T440" s="9" t="e">
@@ -9970,7 +10659,7 @@
         <v>#N/A</v>
       </c>
       <c r="S441" s="9" t="e">
-        <f>VLOOKUP(G441,HTKT!A$300:$B441,2,0)</f>
+        <f>VLOOKUP(G441,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T441" s="9" t="e">
@@ -9988,7 +10677,7 @@
         <v>#N/A</v>
       </c>
       <c r="S442" s="9" t="e">
-        <f>VLOOKUP(G442,HTKT!A$300:$B442,2,0)</f>
+        <f>VLOOKUP(G442,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T442" s="9" t="e">
@@ -10006,7 +10695,7 @@
         <v>#N/A</v>
       </c>
       <c r="S443" s="9" t="e">
-        <f>VLOOKUP(G443,HTKT!A$300:$B443,2,0)</f>
+        <f>VLOOKUP(G443,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T443" s="9" t="e">
@@ -10024,7 +10713,7 @@
         <v>#N/A</v>
       </c>
       <c r="S444" s="9" t="e">
-        <f>VLOOKUP(G444,HTKT!A$300:$B444,2,0)</f>
+        <f>VLOOKUP(G444,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T444" s="9" t="e">
@@ -10042,7 +10731,7 @@
         <v>#N/A</v>
       </c>
       <c r="S445" s="9" t="e">
-        <f>VLOOKUP(G445,HTKT!A$300:$B445,2,0)</f>
+        <f>VLOOKUP(G445,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T445" s="9" t="e">
@@ -10060,7 +10749,7 @@
         <v>#N/A</v>
       </c>
       <c r="S446" s="9" t="e">
-        <f>VLOOKUP(G446,HTKT!A$300:$B446,2,0)</f>
+        <f>VLOOKUP(G446,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T446" s="9" t="e">
@@ -10078,7 +10767,7 @@
         <v>#N/A</v>
       </c>
       <c r="S447" s="9" t="e">
-        <f>VLOOKUP(G447,HTKT!A$300:$B447,2,0)</f>
+        <f>VLOOKUP(G447,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T447" s="9" t="e">
@@ -10096,7 +10785,7 @@
         <v>#N/A</v>
       </c>
       <c r="S448" s="9" t="e">
-        <f>VLOOKUP(G448,HTKT!A$300:$B448,2,0)</f>
+        <f>VLOOKUP(G448,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T448" s="9" t="e">
@@ -10114,7 +10803,7 @@
         <v>#N/A</v>
       </c>
       <c r="S449" s="9" t="e">
-        <f>VLOOKUP(G449,HTKT!A$300:$B449,2,0)</f>
+        <f>VLOOKUP(G449,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T449" s="9" t="e">
@@ -10132,7 +10821,7 @@
         <v>#N/A</v>
       </c>
       <c r="S450" s="9" t="e">
-        <f>VLOOKUP(G450,HTKT!A$300:$B450,2,0)</f>
+        <f>VLOOKUP(G450,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T450" s="9" t="e">
@@ -10150,7 +10839,7 @@
         <v>#N/A</v>
       </c>
       <c r="S451" s="9" t="e">
-        <f>VLOOKUP(G451,HTKT!A$300:$B451,2,0)</f>
+        <f>VLOOKUP(G451,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T451" s="9" t="e">
@@ -10168,7 +10857,7 @@
         <v>#N/A</v>
       </c>
       <c r="S452" s="9" t="e">
-        <f>VLOOKUP(G452,HTKT!A$300:$B452,2,0)</f>
+        <f>VLOOKUP(G452,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T452" s="9" t="e">
@@ -10186,7 +10875,7 @@
         <v>#N/A</v>
       </c>
       <c r="S453" s="9" t="e">
-        <f>VLOOKUP(G453,HTKT!A$300:$B453,2,0)</f>
+        <f>VLOOKUP(G453,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T453" s="9" t="e">
@@ -10204,7 +10893,7 @@
         <v>#N/A</v>
       </c>
       <c r="S454" s="9" t="e">
-        <f>VLOOKUP(G454,HTKT!A$300:$B454,2,0)</f>
+        <f>VLOOKUP(G454,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T454" s="9" t="e">
@@ -10222,7 +10911,7 @@
         <v>#N/A</v>
       </c>
       <c r="S455" s="9" t="e">
-        <f>VLOOKUP(G455,HTKT!A$300:$B455,2,0)</f>
+        <f>VLOOKUP(G455,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T455" s="9" t="e">
@@ -10240,7 +10929,7 @@
         <v>#N/A</v>
       </c>
       <c r="S456" s="9" t="e">
-        <f>VLOOKUP(G456,HTKT!A$300:$B456,2,0)</f>
+        <f>VLOOKUP(G456,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T456" s="9" t="e">
@@ -10258,7 +10947,7 @@
         <v>#N/A</v>
       </c>
       <c r="S457" s="9" t="e">
-        <f>VLOOKUP(G457,HTKT!A$300:$B457,2,0)</f>
+        <f>VLOOKUP(G457,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T457" s="9" t="e">
@@ -10276,7 +10965,7 @@
         <v>#N/A</v>
       </c>
       <c r="S458" s="9" t="e">
-        <f>VLOOKUP(G458,HTKT!A$300:$B458,2,0)</f>
+        <f>VLOOKUP(G458,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T458" s="9" t="e">
@@ -10294,7 +10983,7 @@
         <v>#N/A</v>
       </c>
       <c r="S459" s="9" t="e">
-        <f>VLOOKUP(G459,HTKT!A$300:$B459,2,0)</f>
+        <f>VLOOKUP(G459,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T459" s="9" t="e">
@@ -10312,7 +11001,7 @@
         <v>#N/A</v>
       </c>
       <c r="S460" s="9" t="e">
-        <f>VLOOKUP(G460,HTKT!A$300:$B460,2,0)</f>
+        <f>VLOOKUP(G460,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T460" s="9" t="e">
@@ -10330,7 +11019,7 @@
         <v>#N/A</v>
       </c>
       <c r="S461" s="9" t="e">
-        <f>VLOOKUP(G461,HTKT!A$300:$B461,2,0)</f>
+        <f>VLOOKUP(G461,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T461" s="9" t="e">
@@ -10348,7 +11037,7 @@
         <v>#N/A</v>
       </c>
       <c r="S462" s="9" t="e">
-        <f>VLOOKUP(G462,HTKT!A$300:$B462,2,0)</f>
+        <f>VLOOKUP(G462,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T462" s="9" t="e">
@@ -10366,7 +11055,7 @@
         <v>#N/A</v>
       </c>
       <c r="S463" s="9" t="e">
-        <f>VLOOKUP(G463,HTKT!A$300:$B463,2,0)</f>
+        <f>VLOOKUP(G463,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T463" s="9" t="e">
@@ -10384,7 +11073,7 @@
         <v>#N/A</v>
       </c>
       <c r="S464" s="9" t="e">
-        <f>VLOOKUP(G464,HTKT!A$300:$B464,2,0)</f>
+        <f>VLOOKUP(G464,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T464" s="9" t="e">
@@ -10402,7 +11091,7 @@
         <v>#N/A</v>
       </c>
       <c r="S465" s="9" t="e">
-        <f>VLOOKUP(G465,HTKT!A$300:$B465,2,0)</f>
+        <f>VLOOKUP(G465,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T465" s="9" t="e">
@@ -10420,7 +11109,7 @@
         <v>#N/A</v>
       </c>
       <c r="S466" s="9" t="e">
-        <f>VLOOKUP(G466,HTKT!A$300:$B466,2,0)</f>
+        <f>VLOOKUP(G466,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T466" s="9" t="e">
@@ -10438,7 +11127,7 @@
         <v>#N/A</v>
       </c>
       <c r="S467" s="9" t="e">
-        <f>VLOOKUP(G467,HTKT!A$300:$B467,2,0)</f>
+        <f>VLOOKUP(G467,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T467" s="9" t="e">
@@ -10456,7 +11145,7 @@
         <v>#N/A</v>
       </c>
       <c r="S468" s="9" t="e">
-        <f>VLOOKUP(G468,HTKT!A$300:$B468,2,0)</f>
+        <f>VLOOKUP(G468,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T468" s="9" t="e">
@@ -10474,7 +11163,7 @@
         <v>#N/A</v>
       </c>
       <c r="S469" s="9" t="e">
-        <f>VLOOKUP(G469,HTKT!A$300:$B469,2,0)</f>
+        <f>VLOOKUP(G469,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T469" s="9" t="e">
@@ -10492,7 +11181,7 @@
         <v>#N/A</v>
       </c>
       <c r="S470" s="9" t="e">
-        <f>VLOOKUP(G470,HTKT!A$300:$B470,2,0)</f>
+        <f>VLOOKUP(G470,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T470" s="9" t="e">
@@ -10510,7 +11199,7 @@
         <v>#N/A</v>
       </c>
       <c r="S471" s="9" t="e">
-        <f>VLOOKUP(G471,HTKT!A$300:$B471,2,0)</f>
+        <f>VLOOKUP(G471,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T471" s="9" t="e">
@@ -10528,7 +11217,7 @@
         <v>#N/A</v>
       </c>
       <c r="S472" s="9" t="e">
-        <f>VLOOKUP(G472,HTKT!A$300:$B472,2,0)</f>
+        <f>VLOOKUP(G472,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T472" s="9" t="e">
@@ -10546,7 +11235,7 @@
         <v>#N/A</v>
       </c>
       <c r="S473" s="9" t="e">
-        <f>VLOOKUP(G473,HTKT!A$300:$B473,2,0)</f>
+        <f>VLOOKUP(G473,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T473" s="9" t="e">
@@ -10564,7 +11253,7 @@
         <v>#N/A</v>
       </c>
       <c r="S474" s="9" t="e">
-        <f>VLOOKUP(G474,HTKT!A$300:$B474,2,0)</f>
+        <f>VLOOKUP(G474,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T474" s="9" t="e">
@@ -10582,7 +11271,7 @@
         <v>#N/A</v>
       </c>
       <c r="S475" s="9" t="e">
-        <f>VLOOKUP(G475,HTKT!A$300:$B475,2,0)</f>
+        <f>VLOOKUP(G475,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T475" s="9" t="e">
@@ -10600,7 +11289,7 @@
         <v>#N/A</v>
       </c>
       <c r="S476" s="9" t="e">
-        <f>VLOOKUP(G476,HTKT!A$300:$B476,2,0)</f>
+        <f>VLOOKUP(G476,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T476" s="9" t="e">
@@ -10618,7 +11307,7 @@
         <v>#N/A</v>
       </c>
       <c r="S477" s="9" t="e">
-        <f>VLOOKUP(G477,HTKT!A$300:$B477,2,0)</f>
+        <f>VLOOKUP(G477,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T477" s="9" t="e">
@@ -10636,7 +11325,7 @@
         <v>#N/A</v>
       </c>
       <c r="S478" s="9" t="e">
-        <f>VLOOKUP(G478,HTKT!A$300:$B478,2,0)</f>
+        <f>VLOOKUP(G478,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T478" s="9" t="e">
@@ -10654,7 +11343,7 @@
         <v>#N/A</v>
       </c>
       <c r="S479" s="9" t="e">
-        <f>VLOOKUP(G479,HTKT!A$300:$B479,2,0)</f>
+        <f>VLOOKUP(G479,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T479" s="9" t="e">
@@ -10672,7 +11361,7 @@
         <v>#N/A</v>
       </c>
       <c r="S480" s="9" t="e">
-        <f>VLOOKUP(G480,HTKT!A$300:$B480,2,0)</f>
+        <f>VLOOKUP(G480,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T480" s="9" t="e">
@@ -10690,7 +11379,7 @@
         <v>#N/A</v>
       </c>
       <c r="S481" s="9" t="e">
-        <f>VLOOKUP(G481,HTKT!A$300:$B481,2,0)</f>
+        <f>VLOOKUP(G481,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T481" s="9" t="e">
@@ -10708,7 +11397,7 @@
         <v>#N/A</v>
       </c>
       <c r="S482" s="9" t="e">
-        <f>VLOOKUP(G482,HTKT!A$300:$B482,2,0)</f>
+        <f>VLOOKUP(G482,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T482" s="9" t="e">
@@ -10726,7 +11415,7 @@
         <v>#N/A</v>
       </c>
       <c r="S483" s="9" t="e">
-        <f>VLOOKUP(G483,HTKT!A$300:$B483,2,0)</f>
+        <f>VLOOKUP(G483,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T483" s="9" t="e">
@@ -10744,7 +11433,7 @@
         <v>#N/A</v>
       </c>
       <c r="S484" s="9" t="e">
-        <f>VLOOKUP(G484,HTKT!A$300:$B484,2,0)</f>
+        <f>VLOOKUP(G484,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T484" s="9" t="e">
@@ -10762,7 +11451,7 @@
         <v>#N/A</v>
       </c>
       <c r="S485" s="9" t="e">
-        <f>VLOOKUP(G485,HTKT!A$300:$B485,2,0)</f>
+        <f>VLOOKUP(G485,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T485" s="9" t="e">
@@ -10780,7 +11469,7 @@
         <v>#N/A</v>
       </c>
       <c r="S486" s="9" t="e">
-        <f>VLOOKUP(G486,HTKT!A$300:$B486,2,0)</f>
+        <f>VLOOKUP(G486,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T486" s="9" t="e">
@@ -10798,7 +11487,7 @@
         <v>#N/A</v>
       </c>
       <c r="S487" s="9" t="e">
-        <f>VLOOKUP(G487,HTKT!A$300:$B487,2,0)</f>
+        <f>VLOOKUP(G487,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T487" s="9" t="e">
@@ -10816,7 +11505,7 @@
         <v>#N/A</v>
       </c>
       <c r="S488" s="9" t="e">
-        <f>VLOOKUP(G488,HTKT!A$300:$B488,2,0)</f>
+        <f>VLOOKUP(G488,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T488" s="9" t="e">
@@ -10834,7 +11523,7 @@
         <v>#N/A</v>
       </c>
       <c r="S489" s="9" t="e">
-        <f>VLOOKUP(G489,HTKT!A$300:$B489,2,0)</f>
+        <f>VLOOKUP(G489,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T489" s="9" t="e">
@@ -10852,7 +11541,7 @@
         <v>#N/A</v>
       </c>
       <c r="S490" s="9" t="e">
-        <f>VLOOKUP(G490,HTKT!A$300:$B490,2,0)</f>
+        <f>VLOOKUP(G490,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T490" s="9" t="e">
@@ -10870,7 +11559,7 @@
         <v>#N/A</v>
       </c>
       <c r="S491" s="9" t="e">
-        <f>VLOOKUP(G491,HTKT!A$300:$B491,2,0)</f>
+        <f>VLOOKUP(G491,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T491" s="9" t="e">
@@ -10888,7 +11577,7 @@
         <v>#N/A</v>
       </c>
       <c r="S492" s="9" t="e">
-        <f>VLOOKUP(G492,HTKT!A$300:$B492,2,0)</f>
+        <f>VLOOKUP(G492,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T492" s="9" t="e">
@@ -10906,7 +11595,7 @@
         <v>#N/A</v>
       </c>
       <c r="S493" s="9" t="e">
-        <f>VLOOKUP(G493,HTKT!A$300:$B493,2,0)</f>
+        <f>VLOOKUP(G493,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T493" s="9" t="e">
@@ -10924,7 +11613,7 @@
         <v>#N/A</v>
       </c>
       <c r="S494" s="9" t="e">
-        <f>VLOOKUP(G494,HTKT!A$300:$B494,2,0)</f>
+        <f>VLOOKUP(G494,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T494" s="9" t="e">
@@ -10942,7 +11631,7 @@
         <v>#N/A</v>
       </c>
       <c r="S495" s="9" t="e">
-        <f>VLOOKUP(G495,HTKT!A$300:$B495,2,0)</f>
+        <f>VLOOKUP(G495,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T495" s="9" t="e">
@@ -10960,7 +11649,7 @@
         <v>#N/A</v>
       </c>
       <c r="S496" s="9" t="e">
-        <f>VLOOKUP(G496,HTKT!A$300:$B496,2,0)</f>
+        <f>VLOOKUP(G496,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T496" s="9" t="e">
@@ -10978,7 +11667,7 @@
         <v>#N/A</v>
       </c>
       <c r="S497" s="9" t="e">
-        <f>VLOOKUP(G497,HTKT!A$300:$B497,2,0)</f>
+        <f>VLOOKUP(G497,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T497" s="9" t="e">
@@ -10996,7 +11685,7 @@
         <v>#N/A</v>
       </c>
       <c r="S498" s="9" t="e">
-        <f>VLOOKUP(G498,HTKT!A$300:$B498,2,0)</f>
+        <f>VLOOKUP(G498,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T498" s="9" t="e">
@@ -11014,7 +11703,7 @@
         <v>#N/A</v>
       </c>
       <c r="S499" s="9" t="e">
-        <f>VLOOKUP(G499,HTKT!A$300:$B499,2,0)</f>
+        <f>VLOOKUP(G499,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T499" s="9" t="e">
@@ -11032,7 +11721,7 @@
         <v>#N/A</v>
       </c>
       <c r="S500" s="9" t="e">
-        <f>VLOOKUP(G500,HTKT!A$300:$B500,2,0)</f>
+        <f>VLOOKUP(G500,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T500" s="9" t="e">
@@ -11050,7 +11739,7 @@
         <v>#N/A</v>
       </c>
       <c r="S501" s="9" t="e">
-        <f>VLOOKUP(G501,HTKT!A$300:$B501,2,0)</f>
+        <f>VLOOKUP(G501,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T501" s="9" t="e">
@@ -11068,7 +11757,7 @@
         <v>#N/A</v>
       </c>
       <c r="S502" s="9" t="e">
-        <f>VLOOKUP(G502,HTKT!A$300:$B502,2,0)</f>
+        <f>VLOOKUP(G502,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T502" s="9" t="e">
@@ -11086,7 +11775,7 @@
         <v>#N/A</v>
       </c>
       <c r="S503" s="9" t="e">
-        <f>VLOOKUP(G503,HTKT!A$300:$B503,2,0)</f>
+        <f>VLOOKUP(G503,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T503" s="9" t="e">
@@ -11104,7 +11793,7 @@
         <v>#N/A</v>
       </c>
       <c r="S504" s="9" t="e">
-        <f>VLOOKUP(G504,HTKT!A$300:$B504,2,0)</f>
+        <f>VLOOKUP(G504,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T504" s="9" t="e">
@@ -11122,7 +11811,7 @@
         <v>#N/A</v>
       </c>
       <c r="S505" s="9" t="e">
-        <f>VLOOKUP(G505,HTKT!A$300:$B505,2,0)</f>
+        <f>VLOOKUP(G505,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T505" s="9" t="e">
@@ -11140,7 +11829,7 @@
         <v>#N/A</v>
       </c>
       <c r="S506" s="9" t="e">
-        <f>VLOOKUP(G506,HTKT!A$300:$B506,2,0)</f>
+        <f>VLOOKUP(G506,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T506" s="9" t="e">
@@ -11158,7 +11847,7 @@
         <v>#N/A</v>
       </c>
       <c r="S507" s="9" t="e">
-        <f>VLOOKUP(G507,HTKT!A$300:$B507,2,0)</f>
+        <f>VLOOKUP(G507,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T507" s="9" t="e">
@@ -11176,7 +11865,7 @@
         <v>#N/A</v>
       </c>
       <c r="S508" s="9" t="e">
-        <f>VLOOKUP(G508,HTKT!A$300:$B508,2,0)</f>
+        <f>VLOOKUP(G508,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T508" s="9" t="e">
@@ -11194,7 +11883,7 @@
         <v>#N/A</v>
       </c>
       <c r="S509" s="9" t="e">
-        <f>VLOOKUP(G509,HTKT!A$300:$B509,2,0)</f>
+        <f>VLOOKUP(G509,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T509" s="9" t="e">
@@ -11212,7 +11901,7 @@
         <v>#N/A</v>
       </c>
       <c r="S510" s="9" t="e">
-        <f>VLOOKUP(G510,HTKT!A$300:$B510,2,0)</f>
+        <f>VLOOKUP(G510,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T510" s="9" t="e">
@@ -11230,7 +11919,7 @@
         <v>#N/A</v>
       </c>
       <c r="S511" s="9" t="e">
-        <f>VLOOKUP(G511,HTKT!A$300:$B511,2,0)</f>
+        <f>VLOOKUP(G511,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T511" s="9" t="e">
@@ -11248,7 +11937,7 @@
         <v>#N/A</v>
       </c>
       <c r="S512" s="9" t="e">
-        <f>VLOOKUP(G512,HTKT!A$300:$B512,2,0)</f>
+        <f>VLOOKUP(G512,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T512" s="9" t="e">
@@ -11266,7 +11955,7 @@
         <v>#N/A</v>
       </c>
       <c r="S513" s="9" t="e">
-        <f>VLOOKUP(G513,HTKT!A$300:$B513,2,0)</f>
+        <f>VLOOKUP(G513,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T513" s="9" t="e">
@@ -11284,7 +11973,7 @@
         <v>#N/A</v>
       </c>
       <c r="S514" s="9" t="e">
-        <f>VLOOKUP(G514,HTKT!A$300:$B514,2,0)</f>
+        <f>VLOOKUP(G514,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T514" s="9" t="e">
@@ -11302,7 +11991,7 @@
         <v>#N/A</v>
       </c>
       <c r="S515" s="9" t="e">
-        <f>VLOOKUP(G515,HTKT!A$300:$B515,2,0)</f>
+        <f>VLOOKUP(G515,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T515" s="9" t="e">
@@ -11320,7 +12009,7 @@
         <v>#N/A</v>
       </c>
       <c r="S516" s="9" t="e">
-        <f>VLOOKUP(G516,HTKT!A$300:$B516,2,0)</f>
+        <f>VLOOKUP(G516,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T516" s="9" t="e">
@@ -11338,7 +12027,7 @@
         <v>#N/A</v>
       </c>
       <c r="S517" s="9" t="e">
-        <f>VLOOKUP(G517,HTKT!A$300:$B517,2,0)</f>
+        <f>VLOOKUP(G517,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T517" s="9" t="e">
@@ -11356,7 +12045,7 @@
         <v>#N/A</v>
       </c>
       <c r="S518" s="9" t="e">
-        <f>VLOOKUP(G518,HTKT!A$300:$B518,2,0)</f>
+        <f>VLOOKUP(G518,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T518" s="9" t="e">
@@ -11374,7 +12063,7 @@
         <v>#N/A</v>
       </c>
       <c r="S519" s="9" t="e">
-        <f>VLOOKUP(G519,HTKT!A$300:$B519,2,0)</f>
+        <f>VLOOKUP(G519,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T519" s="9" t="e">
@@ -11392,7 +12081,7 @@
         <v>#N/A</v>
       </c>
       <c r="S520" s="9" t="e">
-        <f>VLOOKUP(G520,HTKT!A$300:$B520,2,0)</f>
+        <f>VLOOKUP(G520,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T520" s="9" t="e">
@@ -11410,7 +12099,7 @@
         <v>#N/A</v>
       </c>
       <c r="S521" s="9" t="e">
-        <f>VLOOKUP(G521,HTKT!A$300:$B521,2,0)</f>
+        <f>VLOOKUP(G521,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T521" s="9" t="e">
@@ -11428,7 +12117,7 @@
         <v>#N/A</v>
       </c>
       <c r="S522" s="9" t="e">
-        <f>VLOOKUP(G522,HTKT!A$300:$B522,2,0)</f>
+        <f>VLOOKUP(G522,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T522" s="9" t="e">
@@ -11446,7 +12135,7 @@
         <v>#N/A</v>
       </c>
       <c r="S523" s="9" t="e">
-        <f>VLOOKUP(G523,HTKT!A$300:$B523,2,0)</f>
+        <f>VLOOKUP(G523,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T523" s="9" t="e">
@@ -11464,7 +12153,7 @@
         <v>#N/A</v>
       </c>
       <c r="S524" s="9" t="e">
-        <f>VLOOKUP(G524,HTKT!A$300:$B524,2,0)</f>
+        <f>VLOOKUP(G524,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T524" s="9" t="e">
@@ -11482,7 +12171,7 @@
         <v>#N/A</v>
       </c>
       <c r="S525" s="9" t="e">
-        <f>VLOOKUP(G525,HTKT!A$300:$B525,2,0)</f>
+        <f>VLOOKUP(G525,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T525" s="9" t="e">
@@ -11500,7 +12189,7 @@
         <v>#N/A</v>
       </c>
       <c r="S526" s="9" t="e">
-        <f>VLOOKUP(G526,HTKT!A$300:$B526,2,0)</f>
+        <f>VLOOKUP(G526,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T526" s="9" t="e">
@@ -11518,7 +12207,7 @@
         <v>#N/A</v>
       </c>
       <c r="S527" s="9" t="e">
-        <f>VLOOKUP(G527,HTKT!A$300:$B527,2,0)</f>
+        <f>VLOOKUP(G527,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T527" s="9" t="e">
@@ -11536,7 +12225,7 @@
         <v>#N/A</v>
       </c>
       <c r="S528" s="9" t="e">
-        <f>VLOOKUP(G528,HTKT!A$300:$B528,2,0)</f>
+        <f>VLOOKUP(G528,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T528" s="9" t="e">
@@ -11554,7 +12243,7 @@
         <v>#N/A</v>
       </c>
       <c r="S529" s="9" t="e">
-        <f>VLOOKUP(G529,HTKT!A$300:$B529,2,0)</f>
+        <f>VLOOKUP(G529,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T529" s="9" t="e">
@@ -11572,7 +12261,7 @@
         <v>#N/A</v>
       </c>
       <c r="S530" s="9" t="e">
-        <f>VLOOKUP(G530,HTKT!A$300:$B530,2,0)</f>
+        <f>VLOOKUP(G530,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T530" s="9" t="e">
@@ -11590,7 +12279,7 @@
         <v>#N/A</v>
       </c>
       <c r="S531" s="9" t="e">
-        <f>VLOOKUP(G531,HTKT!A$300:$B531,2,0)</f>
+        <f>VLOOKUP(G531,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T531" s="9" t="e">
@@ -11608,7 +12297,7 @@
         <v>#N/A</v>
       </c>
       <c r="S532" s="9" t="e">
-        <f>VLOOKUP(G532,HTKT!A$300:$B532,2,0)</f>
+        <f>VLOOKUP(G532,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T532" s="9" t="e">
@@ -11626,7 +12315,7 @@
         <v>#N/A</v>
       </c>
       <c r="S533" s="9" t="e">
-        <f>VLOOKUP(G533,HTKT!A$300:$B533,2,0)</f>
+        <f>VLOOKUP(G533,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T533" s="9" t="e">
@@ -11644,7 +12333,7 @@
         <v>#N/A</v>
       </c>
       <c r="S534" s="9" t="e">
-        <f>VLOOKUP(G534,HTKT!A$300:$B534,2,0)</f>
+        <f>VLOOKUP(G534,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T534" s="9" t="e">
@@ -11662,7 +12351,7 @@
         <v>#N/A</v>
       </c>
       <c r="S535" s="9" t="e">
-        <f>VLOOKUP(G535,HTKT!A$300:$B535,2,0)</f>
+        <f>VLOOKUP(G535,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T535" s="9" t="e">
@@ -11680,7 +12369,7 @@
         <v>#N/A</v>
       </c>
       <c r="S536" s="9" t="e">
-        <f>VLOOKUP(G536,HTKT!A$300:$B536,2,0)</f>
+        <f>VLOOKUP(G536,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T536" s="9" t="e">
@@ -11698,7 +12387,7 @@
         <v>#N/A</v>
       </c>
       <c r="S537" s="9" t="e">
-        <f>VLOOKUP(G537,HTKT!A$300:$B537,2,0)</f>
+        <f>VLOOKUP(G537,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T537" s="9" t="e">
@@ -11716,7 +12405,7 @@
         <v>#N/A</v>
       </c>
       <c r="S538" s="9" t="e">
-        <f>VLOOKUP(G538,HTKT!A$300:$B538,2,0)</f>
+        <f>VLOOKUP(G538,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T538" s="9" t="e">
@@ -11734,7 +12423,7 @@
         <v>#N/A</v>
       </c>
       <c r="S539" s="9" t="e">
-        <f>VLOOKUP(G539,HTKT!A$300:$B539,2,0)</f>
+        <f>VLOOKUP(G539,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T539" s="9" t="e">
@@ -11752,7 +12441,7 @@
         <v>#N/A</v>
       </c>
       <c r="S540" s="9" t="e">
-        <f>VLOOKUP(G540,HTKT!A$300:$B540,2,0)</f>
+        <f>VLOOKUP(G540,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T540" s="9" t="e">
@@ -11770,7 +12459,7 @@
         <v>#N/A</v>
       </c>
       <c r="S541" s="9" t="e">
-        <f>VLOOKUP(G541,HTKT!A$300:$B541,2,0)</f>
+        <f>VLOOKUP(G541,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T541" s="9" t="e">
@@ -11788,7 +12477,7 @@
         <v>#N/A</v>
       </c>
       <c r="S542" s="9" t="e">
-        <f>VLOOKUP(G542,HTKT!A$300:$B542,2,0)</f>
+        <f>VLOOKUP(G542,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T542" s="9" t="e">
@@ -11806,7 +12495,7 @@
         <v>#N/A</v>
       </c>
       <c r="S543" s="9" t="e">
-        <f>VLOOKUP(G543,HTKT!A$300:$B543,2,0)</f>
+        <f>VLOOKUP(G543,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T543" s="9" t="e">
@@ -11824,7 +12513,7 @@
         <v>#N/A</v>
       </c>
       <c r="S544" s="9" t="e">
-        <f>VLOOKUP(G544,HTKT!A$300:$B544,2,0)</f>
+        <f>VLOOKUP(G544,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T544" s="9" t="e">
@@ -11842,7 +12531,7 @@
         <v>#N/A</v>
       </c>
       <c r="S545" s="9" t="e">
-        <f>VLOOKUP(G545,HTKT!A$300:$B545,2,0)</f>
+        <f>VLOOKUP(G545,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T545" s="9" t="e">
@@ -11860,7 +12549,7 @@
         <v>#N/A</v>
       </c>
       <c r="S546" s="9" t="e">
-        <f>VLOOKUP(G546,HTKT!A$300:$B546,2,0)</f>
+        <f>VLOOKUP(G546,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T546" s="9" t="e">
@@ -11878,7 +12567,7 @@
         <v>#N/A</v>
       </c>
       <c r="S547" s="9" t="e">
-        <f>VLOOKUP(G547,HTKT!A$300:$B547,2,0)</f>
+        <f>VLOOKUP(G547,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T547" s="9" t="e">
@@ -11896,7 +12585,7 @@
         <v>#N/A</v>
       </c>
       <c r="S548" s="9" t="e">
-        <f>VLOOKUP(G548,HTKT!A$300:$B548,2,0)</f>
+        <f>VLOOKUP(G548,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T548" s="9" t="e">
@@ -11914,7 +12603,7 @@
         <v>#N/A</v>
       </c>
       <c r="S549" s="9" t="e">
-        <f>VLOOKUP(G549,HTKT!A$300:$B549,2,0)</f>
+        <f>VLOOKUP(G549,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T549" s="9" t="e">
@@ -11932,7 +12621,7 @@
         <v>#N/A</v>
       </c>
       <c r="S550" s="9" t="e">
-        <f>VLOOKUP(G550,HTKT!A$300:$B550,2,0)</f>
+        <f>VLOOKUP(G550,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T550" s="9" t="e">
@@ -11950,7 +12639,7 @@
         <v>#N/A</v>
       </c>
       <c r="S551" s="9" t="e">
-        <f>VLOOKUP(G551,HTKT!A$300:$B551,2,0)</f>
+        <f>VLOOKUP(G551,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T551" s="9" t="e">
@@ -11968,7 +12657,7 @@
         <v>#N/A</v>
       </c>
       <c r="S552" s="9" t="e">
-        <f>VLOOKUP(G552,HTKT!A$300:$B552,2,0)</f>
+        <f>VLOOKUP(G552,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T552" s="9" t="e">
@@ -11986,7 +12675,7 @@
         <v>#N/A</v>
       </c>
       <c r="S553" s="9" t="e">
-        <f>VLOOKUP(G553,HTKT!A$300:$B553,2,0)</f>
+        <f>VLOOKUP(G553,HTKT!$A$2:$B$300,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="T553" s="9" t="e">
@@ -11995,42 +12684,6 @@
       </c>
       <c r="U553" s="9" t="e">
         <f>VLOOKUP(I553,LVHD!$A$2:$B$25,2,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="554" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R554" s="9" t="e">
-        <f>VLOOKUP(F554,'phan loai kt'!$A$2:$B$4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S554" s="9" t="e">
-        <f>VLOOKUP(G554,HTKT!A$300:$B554,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T554" s="9" t="e">
-        <f>VLOOKUP(H554,PLDT!$A$2:$B$14,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U554" s="9" t="e">
-        <f>VLOOKUP(I554,LVHD!$A$2:$B$25,2,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="555" spans="18:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R555" s="9" t="e">
-        <f>VLOOKUP(F555,'phan loai kt'!$A$2:$B$4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="S555" s="9" t="e">
-        <f>VLOOKUP(G555,HTKT!A$300:$B555,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="T555" s="9" t="e">
-        <f>VLOOKUP(H555,PLDT!$A$2:$B$14,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="U555" s="9" t="e">
-        <f>VLOOKUP(I555,LVHD!$A$2:$B$25,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12040,35 +12693,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>HTKT!$A$38:$A$65</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1 G249:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'phan loai kt'!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>LVHD!$A$2:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>PLDT!$A$2:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>HTKT!$A$38:$A$65</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1 G251:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>HTKT!$A$2:$A$300</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G250</xm:sqref>
+          <xm:sqref>G2:G248</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12077,14 +12730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" style="17" customWidth="1"/>
@@ -12821,7 +13474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12953,7 +13606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -13173,7 +13826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13217,11 +13870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13392,25 +14045,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>PLDT!$A$2:$A$14</xm:f>
           </x14:formula1>
           <xm:sqref>H1:H6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>LVHD!$A$2:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'phan loai kt'!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>HTKT!$A$38:$A$65</xm:f>
           </x14:formula1>

--- a/public/data/download/MauTDKT.xlsx
+++ b/public/data/download/MauTDKT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRTruong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A8503-5460-4ABC-990A-5A5921AF12DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="6795"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file nhận" sheetId="9" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="phan loai kt" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="Hướng dẫn" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="276">
   <si>
     <t>maphanloai</t>
   </si>
@@ -38,9 +39,6 @@
   </si>
   <si>
     <t>TAPTHE</t>
-  </si>
-  <si>
-    <t>Cơ quan Đảng</t>
   </si>
   <si>
     <t>Cơ quan Trung Ương đóng trên địa bàn</t>
@@ -867,12 +865,18 @@
   <si>
     <t>Huyện Quảng Trạch</t>
   </si>
+  <si>
+    <t>Cơ quan Đảng và các tổ chức chính trị, xã hội</t>
+  </si>
+  <si>
+    <t>Các cấp lãnh đạo khác</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,8 +937,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,6 +967,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1031,13 +1060,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="headerStyle" xfId="1"/>
+    <cellStyle name="headerStyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1845,11 +1878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1875,43 +1908,43 @@
   <sheetData>
     <row r="1" spans="1:21" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>55</v>
-      </c>
       <c r="R1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,7 +1966,7 @@
         <v>#N/A</v>
       </c>
       <c r="T2" s="9" t="e">
-        <f>VLOOKUP(H2,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H2,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U2" s="9" t="e">
@@ -1960,7 +1993,7 @@
         <v>#N/A</v>
       </c>
       <c r="T3" s="9" t="e">
-        <f>VLOOKUP(H3,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H3,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U3" s="9" t="e">
@@ -1987,7 +2020,7 @@
         <v>#N/A</v>
       </c>
       <c r="T4" s="9" t="e">
-        <f>VLOOKUP(H4,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H4,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U4" s="9" t="e">
@@ -2014,7 +2047,7 @@
         <v>#N/A</v>
       </c>
       <c r="T5" s="9" t="e">
-        <f>VLOOKUP(H5,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H5,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U5" s="9" t="e">
@@ -2041,7 +2074,7 @@
         <v>#N/A</v>
       </c>
       <c r="T6" s="9" t="e">
-        <f>VLOOKUP(H6,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H6,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U6" s="9" t="e">
@@ -2068,7 +2101,7 @@
         <v>#N/A</v>
       </c>
       <c r="T7" s="9" t="e">
-        <f>VLOOKUP(H7,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H7,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U7" s="9" t="e">
@@ -2095,7 +2128,7 @@
         <v>#N/A</v>
       </c>
       <c r="T8" s="9" t="e">
-        <f>VLOOKUP(H8,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H8,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U8" s="9" t="e">
@@ -2107,7 +2140,7 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="22"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
@@ -2122,7 +2155,7 @@
         <v>#N/A</v>
       </c>
       <c r="T9" s="9" t="e">
-        <f>VLOOKUP(H9,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H9,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U9" s="9" t="e">
@@ -2149,7 +2182,7 @@
         <v>#N/A</v>
       </c>
       <c r="T10" s="9" t="e">
-        <f>VLOOKUP(H10,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H10,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U10" s="9" t="e">
@@ -2176,7 +2209,7 @@
         <v>#N/A</v>
       </c>
       <c r="T11" s="9" t="e">
-        <f>VLOOKUP(H11,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H11,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U11" s="9" t="e">
@@ -2203,7 +2236,7 @@
         <v>#N/A</v>
       </c>
       <c r="T12" s="9" t="e">
-        <f>VLOOKUP(H12,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H12,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U12" s="9" t="e">
@@ -2230,7 +2263,7 @@
         <v>#N/A</v>
       </c>
       <c r="T13" s="9" t="e">
-        <f>VLOOKUP(H13,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H13,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U13" s="9" t="e">
@@ -2257,7 +2290,7 @@
         <v>#N/A</v>
       </c>
       <c r="T14" s="9" t="e">
-        <f>VLOOKUP(H14,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H14,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U14" s="9" t="e">
@@ -2284,7 +2317,7 @@
         <v>#N/A</v>
       </c>
       <c r="T15" s="9" t="e">
-        <f>VLOOKUP(H15,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H15,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U15" s="9" t="e">
@@ -2311,7 +2344,7 @@
         <v>#N/A</v>
       </c>
       <c r="T16" s="9" t="e">
-        <f>VLOOKUP(H16,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H16,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U16" s="9" t="e">
@@ -2338,7 +2371,7 @@
         <v>#N/A</v>
       </c>
       <c r="T17" s="9" t="e">
-        <f>VLOOKUP(H17,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H17,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U17" s="9" t="e">
@@ -2365,7 +2398,7 @@
         <v>#N/A</v>
       </c>
       <c r="T18" s="9" t="e">
-        <f>VLOOKUP(H18,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H18,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U18" s="9" t="e">
@@ -2392,7 +2425,7 @@
         <v>#N/A</v>
       </c>
       <c r="T19" s="9" t="e">
-        <f>VLOOKUP(H19,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H19,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U19" s="9" t="e">
@@ -2419,7 +2452,7 @@
         <v>#N/A</v>
       </c>
       <c r="T20" s="9" t="e">
-        <f>VLOOKUP(H20,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H20,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U20" s="9" t="e">
@@ -2446,7 +2479,7 @@
         <v>#N/A</v>
       </c>
       <c r="T21" s="9" t="e">
-        <f>VLOOKUP(H21,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H21,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U21" s="9" t="e">
@@ -2473,7 +2506,7 @@
         <v>#N/A</v>
       </c>
       <c r="T22" s="9" t="e">
-        <f>VLOOKUP(H22,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H22,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U22" s="9" t="e">
@@ -2500,7 +2533,7 @@
         <v>#N/A</v>
       </c>
       <c r="T23" s="9" t="e">
-        <f>VLOOKUP(H23,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H23,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U23" s="9" t="e">
@@ -2527,7 +2560,7 @@
         <v>#N/A</v>
       </c>
       <c r="T24" s="9" t="e">
-        <f>VLOOKUP(H24,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H24,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U24" s="9" t="e">
@@ -2554,7 +2587,7 @@
         <v>#N/A</v>
       </c>
       <c r="T25" s="9" t="e">
-        <f>VLOOKUP(H25,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H25,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U25" s="9" t="e">
@@ -2581,7 +2614,7 @@
         <v>#N/A</v>
       </c>
       <c r="T26" s="9" t="e">
-        <f>VLOOKUP(H26,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H26,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U26" s="9" t="e">
@@ -2608,7 +2641,7 @@
         <v>#N/A</v>
       </c>
       <c r="T27" s="9" t="e">
-        <f>VLOOKUP(H27,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H27,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U27" s="9" t="e">
@@ -2635,7 +2668,7 @@
         <v>#N/A</v>
       </c>
       <c r="T28" s="9" t="e">
-        <f>VLOOKUP(H28,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H28,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U28" s="9" t="e">
@@ -2662,7 +2695,7 @@
         <v>#N/A</v>
       </c>
       <c r="T29" s="9" t="e">
-        <f>VLOOKUP(H29,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H29,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U29" s="9" t="e">
@@ -2689,7 +2722,7 @@
         <v>#N/A</v>
       </c>
       <c r="T30" s="9" t="e">
-        <f>VLOOKUP(H30,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H30,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U30" s="9" t="e">
@@ -2716,7 +2749,7 @@
         <v>#N/A</v>
       </c>
       <c r="T31" s="9" t="e">
-        <f>VLOOKUP(H31,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H31,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U31" s="9" t="e">
@@ -2743,7 +2776,7 @@
         <v>#N/A</v>
       </c>
       <c r="T32" s="9" t="e">
-        <f>VLOOKUP(H32,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H32,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U32" s="9" t="e">
@@ -2770,7 +2803,7 @@
         <v>#N/A</v>
       </c>
       <c r="T33" s="9" t="e">
-        <f>VLOOKUP(H33,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H33,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U33" s="9" t="e">
@@ -2797,7 +2830,7 @@
         <v>#N/A</v>
       </c>
       <c r="T34" s="9" t="e">
-        <f>VLOOKUP(H34,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H34,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U34" s="9" t="e">
@@ -2824,7 +2857,7 @@
         <v>#N/A</v>
       </c>
       <c r="T35" s="9" t="e">
-        <f>VLOOKUP(H35,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H35,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U35" s="9" t="e">
@@ -2851,7 +2884,7 @@
         <v>#N/A</v>
       </c>
       <c r="T36" s="9" t="e">
-        <f>VLOOKUP(H36,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H36,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U36" s="9" t="e">
@@ -2878,7 +2911,7 @@
         <v>#N/A</v>
       </c>
       <c r="T37" s="9" t="e">
-        <f>VLOOKUP(H37,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H37,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U37" s="9" t="e">
@@ -2905,7 +2938,7 @@
         <v>#N/A</v>
       </c>
       <c r="T38" s="9" t="e">
-        <f>VLOOKUP(H38,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H38,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U38" s="9" t="e">
@@ -2916,7 +2949,7 @@
     <row r="39" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
-      <c r="C39" s="23"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="21"/>
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
@@ -2932,7 +2965,7 @@
         <v>#N/A</v>
       </c>
       <c r="T39" s="9" t="e">
-        <f>VLOOKUP(H39,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H39,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U39" s="9" t="e">
@@ -2959,7 +2992,7 @@
         <v>#N/A</v>
       </c>
       <c r="T40" s="9" t="e">
-        <f>VLOOKUP(H40,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H40,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U40" s="9" t="e">
@@ -2986,7 +3019,7 @@
         <v>#N/A</v>
       </c>
       <c r="T41" s="9" t="e">
-        <f>VLOOKUP(H41,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H41,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U41" s="9" t="e">
@@ -3013,7 +3046,7 @@
         <v>#N/A</v>
       </c>
       <c r="T42" s="9" t="e">
-        <f>VLOOKUP(H42,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H42,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U42" s="9" t="e">
@@ -3040,7 +3073,7 @@
         <v>#N/A</v>
       </c>
       <c r="T43" s="9" t="e">
-        <f>VLOOKUP(H43,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H43,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U43" s="9" t="e">
@@ -3067,7 +3100,7 @@
         <v>#N/A</v>
       </c>
       <c r="T44" s="9" t="e">
-        <f>VLOOKUP(H44,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H44,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U44" s="9" t="e">
@@ -3094,7 +3127,7 @@
         <v>#N/A</v>
       </c>
       <c r="T45" s="9" t="e">
-        <f>VLOOKUP(H45,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H45,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U45" s="9" t="e">
@@ -3121,7 +3154,7 @@
         <v>#N/A</v>
       </c>
       <c r="T46" s="9" t="e">
-        <f>VLOOKUP(H46,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H46,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U46" s="9" t="e">
@@ -3148,7 +3181,7 @@
         <v>#N/A</v>
       </c>
       <c r="T47" s="9" t="e">
-        <f>VLOOKUP(H47,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H47,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U47" s="9" t="e">
@@ -3175,7 +3208,7 @@
         <v>#N/A</v>
       </c>
       <c r="T48" s="9" t="e">
-        <f>VLOOKUP(H48,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H48,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U48" s="9" t="e">
@@ -3202,7 +3235,7 @@
         <v>#N/A</v>
       </c>
       <c r="T49" s="9" t="e">
-        <f>VLOOKUP(H49,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H49,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U49" s="9" t="e">
@@ -3229,7 +3262,7 @@
         <v>#N/A</v>
       </c>
       <c r="T50" s="9" t="e">
-        <f>VLOOKUP(H50,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H50,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U50" s="9" t="e">
@@ -3256,7 +3289,7 @@
         <v>#N/A</v>
       </c>
       <c r="T51" s="9" t="e">
-        <f>VLOOKUP(H51,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H51,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U51" s="9" t="e">
@@ -3283,7 +3316,7 @@
         <v>#N/A</v>
       </c>
       <c r="T52" s="9" t="e">
-        <f>VLOOKUP(H52,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H52,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U52" s="9" t="e">
@@ -3310,7 +3343,7 @@
         <v>#N/A</v>
       </c>
       <c r="T53" s="9" t="e">
-        <f>VLOOKUP(H53,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H53,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U53" s="9" t="e">
@@ -3337,7 +3370,7 @@
         <v>#N/A</v>
       </c>
       <c r="T54" s="9" t="e">
-        <f>VLOOKUP(H54,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H54,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U54" s="9" t="e">
@@ -3364,7 +3397,7 @@
         <v>#N/A</v>
       </c>
       <c r="T55" s="9" t="e">
-        <f>VLOOKUP(H55,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H55,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U55" s="9" t="e">
@@ -3391,7 +3424,7 @@
         <v>#N/A</v>
       </c>
       <c r="T56" s="9" t="e">
-        <f>VLOOKUP(H56,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H56,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U56" s="9" t="e">
@@ -3418,7 +3451,7 @@
         <v>#N/A</v>
       </c>
       <c r="T57" s="9" t="e">
-        <f>VLOOKUP(H57,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H57,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U57" s="9" t="e">
@@ -3445,7 +3478,7 @@
         <v>#N/A</v>
       </c>
       <c r="T58" s="9" t="e">
-        <f>VLOOKUP(H58,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H58,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U58" s="9" t="e">
@@ -3472,7 +3505,7 @@
         <v>#N/A</v>
       </c>
       <c r="T59" s="9" t="e">
-        <f>VLOOKUP(H59,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H59,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U59" s="9" t="e">
@@ -3499,7 +3532,7 @@
         <v>#N/A</v>
       </c>
       <c r="T60" s="9" t="e">
-        <f>VLOOKUP(H60,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H60,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U60" s="9" t="e">
@@ -3526,7 +3559,7 @@
         <v>#N/A</v>
       </c>
       <c r="T61" s="9" t="e">
-        <f>VLOOKUP(H61,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H61,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U61" s="9" t="e">
@@ -3553,7 +3586,7 @@
         <v>#N/A</v>
       </c>
       <c r="T62" s="9" t="e">
-        <f>VLOOKUP(H62,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H62,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U62" s="9" t="e">
@@ -3580,7 +3613,7 @@
         <v>#N/A</v>
       </c>
       <c r="T63" s="9" t="e">
-        <f>VLOOKUP(H63,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H63,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U63" s="9" t="e">
@@ -3607,7 +3640,7 @@
         <v>#N/A</v>
       </c>
       <c r="T64" s="9" t="e">
-        <f>VLOOKUP(H64,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H64,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U64" s="9" t="e">
@@ -3634,7 +3667,7 @@
         <v>#N/A</v>
       </c>
       <c r="T65" s="9" t="e">
-        <f>VLOOKUP(H65,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H65,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U65" s="9" t="e">
@@ -3661,7 +3694,7 @@
         <v>#N/A</v>
       </c>
       <c r="T66" s="9" t="e">
-        <f>VLOOKUP(H66,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H66,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U66" s="9" t="e">
@@ -3688,7 +3721,7 @@
         <v>#N/A</v>
       </c>
       <c r="T67" s="9" t="e">
-        <f>VLOOKUP(H67,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H67,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U67" s="9" t="e">
@@ -3715,7 +3748,7 @@
         <v>#N/A</v>
       </c>
       <c r="T68" s="9" t="e">
-        <f>VLOOKUP(H68,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H68,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U68" s="9" t="e">
@@ -3742,7 +3775,7 @@
         <v>#N/A</v>
       </c>
       <c r="T69" s="9" t="e">
-        <f>VLOOKUP(H69,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H69,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U69" s="9" t="e">
@@ -3769,7 +3802,7 @@
         <v>#N/A</v>
       </c>
       <c r="T70" s="9" t="e">
-        <f>VLOOKUP(H70,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H70,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U70" s="9" t="e">
@@ -3796,7 +3829,7 @@
         <v>#N/A</v>
       </c>
       <c r="T71" s="9" t="e">
-        <f>VLOOKUP(H71,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H71,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U71" s="9" t="e">
@@ -3823,7 +3856,7 @@
         <v>#N/A</v>
       </c>
       <c r="T72" s="9" t="e">
-        <f>VLOOKUP(H72,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H72,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U72" s="9" t="e">
@@ -3850,7 +3883,7 @@
         <v>#N/A</v>
       </c>
       <c r="T73" s="9" t="e">
-        <f>VLOOKUP(H73,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H73,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U73" s="9" t="e">
@@ -3877,7 +3910,7 @@
         <v>#N/A</v>
       </c>
       <c r="T74" s="9" t="e">
-        <f>VLOOKUP(H74,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H74,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U74" s="9" t="e">
@@ -3904,7 +3937,7 @@
         <v>#N/A</v>
       </c>
       <c r="T75" s="9" t="e">
-        <f>VLOOKUP(H75,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H75,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U75" s="9" t="e">
@@ -3931,7 +3964,7 @@
         <v>#N/A</v>
       </c>
       <c r="T76" s="9" t="e">
-        <f>VLOOKUP(H76,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H76,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U76" s="9" t="e">
@@ -3958,7 +3991,7 @@
         <v>#N/A</v>
       </c>
       <c r="T77" s="9" t="e">
-        <f>VLOOKUP(H77,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H77,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U77" s="9" t="e">
@@ -3985,7 +4018,7 @@
         <v>#N/A</v>
       </c>
       <c r="T78" s="9" t="e">
-        <f>VLOOKUP(H78,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H78,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U78" s="9" t="e">
@@ -4012,7 +4045,7 @@
         <v>#N/A</v>
       </c>
       <c r="T79" s="9" t="e">
-        <f>VLOOKUP(H79,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H79,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U79" s="9" t="e">
@@ -4039,7 +4072,7 @@
         <v>#N/A</v>
       </c>
       <c r="T80" s="9" t="e">
-        <f>VLOOKUP(H80,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H80,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U80" s="9" t="e">
@@ -4066,7 +4099,7 @@
         <v>#N/A</v>
       </c>
       <c r="T81" s="9" t="e">
-        <f>VLOOKUP(H81,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H81,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U81" s="9" t="e">
@@ -4093,7 +4126,7 @@
         <v>#N/A</v>
       </c>
       <c r="T82" s="9" t="e">
-        <f>VLOOKUP(H82,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H82,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U82" s="9" t="e">
@@ -4120,7 +4153,7 @@
         <v>#N/A</v>
       </c>
       <c r="T83" s="9" t="e">
-        <f>VLOOKUP(H83,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H83,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U83" s="9" t="e">
@@ -4147,7 +4180,7 @@
         <v>#N/A</v>
       </c>
       <c r="T84" s="9" t="e">
-        <f>VLOOKUP(H84,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H84,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U84" s="9" t="e">
@@ -4174,7 +4207,7 @@
         <v>#N/A</v>
       </c>
       <c r="T85" s="9" t="e">
-        <f>VLOOKUP(H85,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H85,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U85" s="9" t="e">
@@ -4201,7 +4234,7 @@
         <v>#N/A</v>
       </c>
       <c r="T86" s="9" t="e">
-        <f>VLOOKUP(H86,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H86,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U86" s="9" t="e">
@@ -4228,7 +4261,7 @@
         <v>#N/A</v>
       </c>
       <c r="T87" s="9" t="e">
-        <f>VLOOKUP(H87,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H87,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U87" s="9" t="e">
@@ -4255,7 +4288,7 @@
         <v>#N/A</v>
       </c>
       <c r="T88" s="9" t="e">
-        <f>VLOOKUP(H88,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H88,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U88" s="9" t="e">
@@ -4282,7 +4315,7 @@
         <v>#N/A</v>
       </c>
       <c r="T89" s="9" t="e">
-        <f>VLOOKUP(H89,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H89,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U89" s="9" t="e">
@@ -4309,7 +4342,7 @@
         <v>#N/A</v>
       </c>
       <c r="T90" s="9" t="e">
-        <f>VLOOKUP(H90,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H90,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U90" s="9" t="e">
@@ -4336,7 +4369,7 @@
         <v>#N/A</v>
       </c>
       <c r="T91" s="9" t="e">
-        <f>VLOOKUP(H91,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H91,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U91" s="9" t="e">
@@ -4347,7 +4380,7 @@
     <row r="92" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
-      <c r="C92" s="23"/>
+      <c r="C92" s="22"/>
       <c r="D92" s="21"/>
       <c r="E92" s="11"/>
       <c r="F92" s="12"/>
@@ -4363,7 +4396,7 @@
         <v>#N/A</v>
       </c>
       <c r="T92" s="9" t="e">
-        <f>VLOOKUP(H92,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H92,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U92" s="9" t="e">
@@ -4390,7 +4423,7 @@
         <v>#N/A</v>
       </c>
       <c r="T93" s="9" t="e">
-        <f>VLOOKUP(H93,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H93,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U93" s="9" t="e">
@@ -4417,7 +4450,7 @@
         <v>#N/A</v>
       </c>
       <c r="T94" s="9" t="e">
-        <f>VLOOKUP(H94,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H94,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U94" s="9" t="e">
@@ -4435,7 +4468,7 @@
         <v>#N/A</v>
       </c>
       <c r="T95" s="9" t="e">
-        <f>VLOOKUP(H95,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H95,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U95" s="9" t="e">
@@ -4453,7 +4486,7 @@
         <v>#N/A</v>
       </c>
       <c r="T96" s="9" t="e">
-        <f>VLOOKUP(H96,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H96,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U96" s="9" t="e">
@@ -4471,7 +4504,7 @@
         <v>#N/A</v>
       </c>
       <c r="T97" s="9" t="e">
-        <f>VLOOKUP(H97,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H97,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U97" s="9" t="e">
@@ -4489,7 +4522,7 @@
         <v>#N/A</v>
       </c>
       <c r="T98" s="9" t="e">
-        <f>VLOOKUP(H98,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H98,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U98" s="9" t="e">
@@ -4507,7 +4540,7 @@
         <v>#N/A</v>
       </c>
       <c r="T99" s="9" t="e">
-        <f>VLOOKUP(H99,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H99,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U99" s="9" t="e">
@@ -4525,7 +4558,7 @@
         <v>#N/A</v>
       </c>
       <c r="T100" s="9" t="e">
-        <f>VLOOKUP(H100,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H100,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U100" s="9" t="e">
@@ -4543,7 +4576,7 @@
         <v>#N/A</v>
       </c>
       <c r="T101" s="9" t="e">
-        <f>VLOOKUP(H101,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H101,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U101" s="9" t="e">
@@ -4561,7 +4594,7 @@
         <v>#N/A</v>
       </c>
       <c r="T102" s="9" t="e">
-        <f>VLOOKUP(H102,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H102,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U102" s="9" t="e">
@@ -4579,7 +4612,7 @@
         <v>#N/A</v>
       </c>
       <c r="T103" s="9" t="e">
-        <f>VLOOKUP(H103,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H103,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U103" s="9" t="e">
@@ -4597,7 +4630,7 @@
         <v>#N/A</v>
       </c>
       <c r="T104" s="9" t="e">
-        <f>VLOOKUP(H104,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H104,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U104" s="9" t="e">
@@ -4615,7 +4648,7 @@
         <v>#N/A</v>
       </c>
       <c r="T105" s="9" t="e">
-        <f>VLOOKUP(H105,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H105,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U105" s="9" t="e">
@@ -4633,7 +4666,7 @@
         <v>#N/A</v>
       </c>
       <c r="T106" s="9" t="e">
-        <f>VLOOKUP(H106,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H106,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U106" s="9" t="e">
@@ -4651,7 +4684,7 @@
         <v>#N/A</v>
       </c>
       <c r="T107" s="9" t="e">
-        <f>VLOOKUP(H107,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H107,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U107" s="9" t="e">
@@ -4669,7 +4702,7 @@
         <v>#N/A</v>
       </c>
       <c r="T108" s="9" t="e">
-        <f>VLOOKUP(H108,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H108,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U108" s="9" t="e">
@@ -4687,7 +4720,7 @@
         <v>#N/A</v>
       </c>
       <c r="T109" s="9" t="e">
-        <f>VLOOKUP(H109,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H109,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U109" s="9" t="e">
@@ -4705,7 +4738,7 @@
         <v>#N/A</v>
       </c>
       <c r="T110" s="9" t="e">
-        <f>VLOOKUP(H110,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H110,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U110" s="9" t="e">
@@ -4723,7 +4756,7 @@
         <v>#N/A</v>
       </c>
       <c r="T111" s="9" t="e">
-        <f>VLOOKUP(H111,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H111,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U111" s="9" t="e">
@@ -4741,7 +4774,7 @@
         <v>#N/A</v>
       </c>
       <c r="T112" s="9" t="e">
-        <f>VLOOKUP(H112,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H112,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U112" s="9" t="e">
@@ -4759,7 +4792,7 @@
         <v>#N/A</v>
       </c>
       <c r="T113" s="9" t="e">
-        <f>VLOOKUP(H113,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H113,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U113" s="9" t="e">
@@ -4777,7 +4810,7 @@
         <v>#N/A</v>
       </c>
       <c r="T114" s="9" t="e">
-        <f>VLOOKUP(H114,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H114,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U114" s="9" t="e">
@@ -4795,7 +4828,7 @@
         <v>#N/A</v>
       </c>
       <c r="T115" s="9" t="e">
-        <f>VLOOKUP(H115,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H115,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U115" s="9" t="e">
@@ -4813,7 +4846,7 @@
         <v>#N/A</v>
       </c>
       <c r="T116" s="9" t="e">
-        <f>VLOOKUP(H116,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H116,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U116" s="9" t="e">
@@ -4831,7 +4864,7 @@
         <v>#N/A</v>
       </c>
       <c r="T117" s="9" t="e">
-        <f>VLOOKUP(H117,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H117,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U117" s="9" t="e">
@@ -4849,7 +4882,7 @@
         <v>#N/A</v>
       </c>
       <c r="T118" s="9" t="e">
-        <f>VLOOKUP(H118,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H118,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U118" s="9" t="e">
@@ -4867,7 +4900,7 @@
         <v>#N/A</v>
       </c>
       <c r="T119" s="9" t="e">
-        <f>VLOOKUP(H119,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H119,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U119" s="9" t="e">
@@ -4885,7 +4918,7 @@
         <v>#N/A</v>
       </c>
       <c r="T120" s="9" t="e">
-        <f>VLOOKUP(H120,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H120,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U120" s="9" t="e">
@@ -4903,7 +4936,7 @@
         <v>#N/A</v>
       </c>
       <c r="T121" s="9" t="e">
-        <f>VLOOKUP(H121,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H121,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U121" s="9" t="e">
@@ -4921,7 +4954,7 @@
         <v>#N/A</v>
       </c>
       <c r="T122" s="9" t="e">
-        <f>VLOOKUP(H122,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H122,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U122" s="9" t="e">
@@ -4939,7 +4972,7 @@
         <v>#N/A</v>
       </c>
       <c r="T123" s="9" t="e">
-        <f>VLOOKUP(H123,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H123,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U123" s="9" t="e">
@@ -4957,7 +4990,7 @@
         <v>#N/A</v>
       </c>
       <c r="T124" s="9" t="e">
-        <f>VLOOKUP(H124,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H124,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U124" s="9" t="e">
@@ -4975,7 +5008,7 @@
         <v>#N/A</v>
       </c>
       <c r="T125" s="9" t="e">
-        <f>VLOOKUP(H125,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H125,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U125" s="9" t="e">
@@ -4993,7 +5026,7 @@
         <v>#N/A</v>
       </c>
       <c r="T126" s="9" t="e">
-        <f>VLOOKUP(H126,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H126,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U126" s="9" t="e">
@@ -5011,7 +5044,7 @@
         <v>#N/A</v>
       </c>
       <c r="T127" s="9" t="e">
-        <f>VLOOKUP(H127,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H127,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U127" s="9" t="e">
@@ -5029,7 +5062,7 @@
         <v>#N/A</v>
       </c>
       <c r="T128" s="9" t="e">
-        <f>VLOOKUP(H128,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H128,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U128" s="9" t="e">
@@ -5047,7 +5080,7 @@
         <v>#N/A</v>
       </c>
       <c r="T129" s="9" t="e">
-        <f>VLOOKUP(H129,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H129,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U129" s="9" t="e">
@@ -5065,7 +5098,7 @@
         <v>#N/A</v>
       </c>
       <c r="T130" s="9" t="e">
-        <f>VLOOKUP(H130,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H130,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U130" s="9" t="e">
@@ -5083,7 +5116,7 @@
         <v>#N/A</v>
       </c>
       <c r="T131" s="9" t="e">
-        <f>VLOOKUP(H131,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H131,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U131" s="9" t="e">
@@ -5101,7 +5134,7 @@
         <v>#N/A</v>
       </c>
       <c r="T132" s="9" t="e">
-        <f>VLOOKUP(H132,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H132,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U132" s="9" t="e">
@@ -5119,7 +5152,7 @@
         <v>#N/A</v>
       </c>
       <c r="T133" s="9" t="e">
-        <f>VLOOKUP(H133,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H133,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U133" s="9" t="e">
@@ -5137,7 +5170,7 @@
         <v>#N/A</v>
       </c>
       <c r="T134" s="9" t="e">
-        <f>VLOOKUP(H134,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H134,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U134" s="9" t="e">
@@ -5155,7 +5188,7 @@
         <v>#N/A</v>
       </c>
       <c r="T135" s="9" t="e">
-        <f>VLOOKUP(H135,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H135,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U135" s="9" t="e">
@@ -5173,7 +5206,7 @@
         <v>#N/A</v>
       </c>
       <c r="T136" s="9" t="e">
-        <f>VLOOKUP(H136,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H136,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U136" s="9" t="e">
@@ -5191,7 +5224,7 @@
         <v>#N/A</v>
       </c>
       <c r="T137" s="9" t="e">
-        <f>VLOOKUP(H137,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H137,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U137" s="9" t="e">
@@ -5209,7 +5242,7 @@
         <v>#N/A</v>
       </c>
       <c r="T138" s="9" t="e">
-        <f>VLOOKUP(H138,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H138,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U138" s="9" t="e">
@@ -5227,7 +5260,7 @@
         <v>#N/A</v>
       </c>
       <c r="T139" s="9" t="e">
-        <f>VLOOKUP(H139,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H139,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U139" s="9" t="e">
@@ -5245,7 +5278,7 @@
         <v>#N/A</v>
       </c>
       <c r="T140" s="9" t="e">
-        <f>VLOOKUP(H140,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H140,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U140" s="9" t="e">
@@ -5263,7 +5296,7 @@
         <v>#N/A</v>
       </c>
       <c r="T141" s="9" t="e">
-        <f>VLOOKUP(H141,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H141,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U141" s="9" t="e">
@@ -5281,7 +5314,7 @@
         <v>#N/A</v>
       </c>
       <c r="T142" s="9" t="e">
-        <f>VLOOKUP(H142,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H142,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U142" s="9" t="e">
@@ -5299,7 +5332,7 @@
         <v>#N/A</v>
       </c>
       <c r="T143" s="9" t="e">
-        <f>VLOOKUP(H143,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H143,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U143" s="9" t="e">
@@ -5317,7 +5350,7 @@
         <v>#N/A</v>
       </c>
       <c r="T144" s="9" t="e">
-        <f>VLOOKUP(H144,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H144,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U144" s="9" t="e">
@@ -5335,7 +5368,7 @@
         <v>#N/A</v>
       </c>
       <c r="T145" s="9" t="e">
-        <f>VLOOKUP(H145,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H145,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U145" s="9" t="e">
@@ -5353,7 +5386,7 @@
         <v>#N/A</v>
       </c>
       <c r="T146" s="9" t="e">
-        <f>VLOOKUP(H146,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H146,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U146" s="9" t="e">
@@ -5371,7 +5404,7 @@
         <v>#N/A</v>
       </c>
       <c r="T147" s="9" t="e">
-        <f>VLOOKUP(H147,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H147,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U147" s="9" t="e">
@@ -5389,7 +5422,7 @@
         <v>#N/A</v>
       </c>
       <c r="T148" s="9" t="e">
-        <f>VLOOKUP(H148,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H148,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U148" s="9" t="e">
@@ -5407,7 +5440,7 @@
         <v>#N/A</v>
       </c>
       <c r="T149" s="9" t="e">
-        <f>VLOOKUP(H149,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H149,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U149" s="9" t="e">
@@ -5425,7 +5458,7 @@
         <v>#N/A</v>
       </c>
       <c r="T150" s="9" t="e">
-        <f>VLOOKUP(H150,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H150,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U150" s="9" t="e">
@@ -5443,7 +5476,7 @@
         <v>#N/A</v>
       </c>
       <c r="T151" s="9" t="e">
-        <f>VLOOKUP(H151,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H151,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U151" s="9" t="e">
@@ -5461,7 +5494,7 @@
         <v>#N/A</v>
       </c>
       <c r="T152" s="9" t="e">
-        <f>VLOOKUP(H152,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H152,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U152" s="9" t="e">
@@ -5479,7 +5512,7 @@
         <v>#N/A</v>
       </c>
       <c r="T153" s="9" t="e">
-        <f>VLOOKUP(H153,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H153,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U153" s="9" t="e">
@@ -5497,7 +5530,7 @@
         <v>#N/A</v>
       </c>
       <c r="T154" s="9" t="e">
-        <f>VLOOKUP(H154,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H154,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U154" s="9" t="e">
@@ -5515,7 +5548,7 @@
         <v>#N/A</v>
       </c>
       <c r="T155" s="9" t="e">
-        <f>VLOOKUP(H155,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H155,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U155" s="9" t="e">
@@ -5533,7 +5566,7 @@
         <v>#N/A</v>
       </c>
       <c r="T156" s="9" t="e">
-        <f>VLOOKUP(H156,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H156,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U156" s="9" t="e">
@@ -5551,7 +5584,7 @@
         <v>#N/A</v>
       </c>
       <c r="T157" s="9" t="e">
-        <f>VLOOKUP(H157,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H157,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U157" s="9" t="e">
@@ -5569,7 +5602,7 @@
         <v>#N/A</v>
       </c>
       <c r="T158" s="9" t="e">
-        <f>VLOOKUP(H158,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H158,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U158" s="9" t="e">
@@ -5587,7 +5620,7 @@
         <v>#N/A</v>
       </c>
       <c r="T159" s="9" t="e">
-        <f>VLOOKUP(H159,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H159,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U159" s="9" t="e">
@@ -5605,7 +5638,7 @@
         <v>#N/A</v>
       </c>
       <c r="T160" s="9" t="e">
-        <f>VLOOKUP(H160,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H160,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U160" s="9" t="e">
@@ -5623,7 +5656,7 @@
         <v>#N/A</v>
       </c>
       <c r="T161" s="9" t="e">
-        <f>VLOOKUP(H161,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H161,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U161" s="9" t="e">
@@ -5641,7 +5674,7 @@
         <v>#N/A</v>
       </c>
       <c r="T162" s="9" t="e">
-        <f>VLOOKUP(H162,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H162,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U162" s="9" t="e">
@@ -5659,7 +5692,7 @@
         <v>#N/A</v>
       </c>
       <c r="T163" s="9" t="e">
-        <f>VLOOKUP(H163,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H163,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U163" s="9" t="e">
@@ -5677,7 +5710,7 @@
         <v>#N/A</v>
       </c>
       <c r="T164" s="9" t="e">
-        <f>VLOOKUP(H164,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H164,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U164" s="9" t="e">
@@ -5695,7 +5728,7 @@
         <v>#N/A</v>
       </c>
       <c r="T165" s="9" t="e">
-        <f>VLOOKUP(H165,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H165,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U165" s="9" t="e">
@@ -5713,7 +5746,7 @@
         <v>#N/A</v>
       </c>
       <c r="T166" s="9" t="e">
-        <f>VLOOKUP(H166,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H166,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U166" s="9" t="e">
@@ -5731,7 +5764,7 @@
         <v>#N/A</v>
       </c>
       <c r="T167" s="9" t="e">
-        <f>VLOOKUP(H167,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H167,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U167" s="9" t="e">
@@ -5749,7 +5782,7 @@
         <v>#N/A</v>
       </c>
       <c r="T168" s="9" t="e">
-        <f>VLOOKUP(H168,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H168,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U168" s="9" t="e">
@@ -5767,7 +5800,7 @@
         <v>#N/A</v>
       </c>
       <c r="T169" s="9" t="e">
-        <f>VLOOKUP(H169,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H169,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U169" s="9" t="e">
@@ -5785,7 +5818,7 @@
         <v>#N/A</v>
       </c>
       <c r="T170" s="9" t="e">
-        <f>VLOOKUP(H170,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H170,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U170" s="9" t="e">
@@ -5803,7 +5836,7 @@
         <v>#N/A</v>
       </c>
       <c r="T171" s="9" t="e">
-        <f>VLOOKUP(H171,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H171,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U171" s="9" t="e">
@@ -5821,7 +5854,7 @@
         <v>#N/A</v>
       </c>
       <c r="T172" s="9" t="e">
-        <f>VLOOKUP(H172,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H172,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U172" s="9" t="e">
@@ -5839,7 +5872,7 @@
         <v>#N/A</v>
       </c>
       <c r="T173" s="9" t="e">
-        <f>VLOOKUP(H173,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H173,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U173" s="9" t="e">
@@ -5857,7 +5890,7 @@
         <v>#N/A</v>
       </c>
       <c r="T174" s="9" t="e">
-        <f>VLOOKUP(H174,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H174,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U174" s="9" t="e">
@@ -5875,7 +5908,7 @@
         <v>#N/A</v>
       </c>
       <c r="T175" s="9" t="e">
-        <f>VLOOKUP(H175,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H175,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U175" s="9" t="e">
@@ -5893,7 +5926,7 @@
         <v>#N/A</v>
       </c>
       <c r="T176" s="9" t="e">
-        <f>VLOOKUP(H176,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H176,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U176" s="9" t="e">
@@ -5911,7 +5944,7 @@
         <v>#N/A</v>
       </c>
       <c r="T177" s="9" t="e">
-        <f>VLOOKUP(H177,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H177,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U177" s="9" t="e">
@@ -5929,7 +5962,7 @@
         <v>#N/A</v>
       </c>
       <c r="T178" s="9" t="e">
-        <f>VLOOKUP(H178,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H178,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U178" s="9" t="e">
@@ -5947,7 +5980,7 @@
         <v>#N/A</v>
       </c>
       <c r="T179" s="9" t="e">
-        <f>VLOOKUP(H179,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H179,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U179" s="9" t="e">
@@ -5965,7 +5998,7 @@
         <v>#N/A</v>
       </c>
       <c r="T180" s="9" t="e">
-        <f>VLOOKUP(H180,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H180,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U180" s="9" t="e">
@@ -5983,7 +6016,7 @@
         <v>#N/A</v>
       </c>
       <c r="T181" s="9" t="e">
-        <f>VLOOKUP(H181,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H181,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U181" s="9" t="e">
@@ -6001,7 +6034,7 @@
         <v>#N/A</v>
       </c>
       <c r="T182" s="9" t="e">
-        <f>VLOOKUP(H182,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H182,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U182" s="9" t="e">
@@ -6019,7 +6052,7 @@
         <v>#N/A</v>
       </c>
       <c r="T183" s="9" t="e">
-        <f>VLOOKUP(H183,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H183,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U183" s="9" t="e">
@@ -6037,7 +6070,7 @@
         <v>#N/A</v>
       </c>
       <c r="T184" s="9" t="e">
-        <f>VLOOKUP(H184,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H184,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U184" s="9" t="e">
@@ -6055,7 +6088,7 @@
         <v>#N/A</v>
       </c>
       <c r="T185" s="9" t="e">
-        <f>VLOOKUP(H185,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H185,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U185" s="9" t="e">
@@ -6073,7 +6106,7 @@
         <v>#N/A</v>
       </c>
       <c r="T186" s="9" t="e">
-        <f>VLOOKUP(H186,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H186,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U186" s="9" t="e">
@@ -6091,7 +6124,7 @@
         <v>#N/A</v>
       </c>
       <c r="T187" s="9" t="e">
-        <f>VLOOKUP(H187,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H187,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U187" s="9" t="e">
@@ -6109,7 +6142,7 @@
         <v>#N/A</v>
       </c>
       <c r="T188" s="9" t="e">
-        <f>VLOOKUP(H188,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H188,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U188" s="9" t="e">
@@ -6127,7 +6160,7 @@
         <v>#N/A</v>
       </c>
       <c r="T189" s="9" t="e">
-        <f>VLOOKUP(H189,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H189,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U189" s="9" t="e">
@@ -6145,7 +6178,7 @@
         <v>#N/A</v>
       </c>
       <c r="T190" s="9" t="e">
-        <f>VLOOKUP(H190,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H190,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U190" s="9" t="e">
@@ -6163,7 +6196,7 @@
         <v>#N/A</v>
       </c>
       <c r="T191" s="9" t="e">
-        <f>VLOOKUP(H191,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H191,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U191" s="9" t="e">
@@ -6181,7 +6214,7 @@
         <v>#N/A</v>
       </c>
       <c r="T192" s="9" t="e">
-        <f>VLOOKUP(H192,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H192,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U192" s="9" t="e">
@@ -6199,7 +6232,7 @@
         <v>#N/A</v>
       </c>
       <c r="T193" s="9" t="e">
-        <f>VLOOKUP(H193,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H193,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U193" s="9" t="e">
@@ -6217,7 +6250,7 @@
         <v>#N/A</v>
       </c>
       <c r="T194" s="9" t="e">
-        <f>VLOOKUP(H194,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H194,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U194" s="9" t="e">
@@ -6235,7 +6268,7 @@
         <v>#N/A</v>
       </c>
       <c r="T195" s="9" t="e">
-        <f>VLOOKUP(H195,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H195,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U195" s="9" t="e">
@@ -6253,7 +6286,7 @@
         <v>#N/A</v>
       </c>
       <c r="T196" s="9" t="e">
-        <f>VLOOKUP(H196,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H196,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U196" s="9" t="e">
@@ -6271,7 +6304,7 @@
         <v>#N/A</v>
       </c>
       <c r="T197" s="9" t="e">
-        <f>VLOOKUP(H197,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H197,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U197" s="9" t="e">
@@ -6289,7 +6322,7 @@
         <v>#N/A</v>
       </c>
       <c r="T198" s="9" t="e">
-        <f>VLOOKUP(H198,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H198,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U198" s="9" t="e">
@@ -6307,7 +6340,7 @@
         <v>#N/A</v>
       </c>
       <c r="T199" s="9" t="e">
-        <f>VLOOKUP(H199,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H199,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U199" s="9" t="e">
@@ -6325,7 +6358,7 @@
         <v>#N/A</v>
       </c>
       <c r="T200" s="9" t="e">
-        <f>VLOOKUP(H200,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H200,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U200" s="9" t="e">
@@ -6343,7 +6376,7 @@
         <v>#N/A</v>
       </c>
       <c r="T201" s="9" t="e">
-        <f>VLOOKUP(H201,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H201,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U201" s="9" t="e">
@@ -6361,7 +6394,7 @@
         <v>#N/A</v>
       </c>
       <c r="T202" s="9" t="e">
-        <f>VLOOKUP(H202,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H202,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U202" s="9" t="e">
@@ -6379,7 +6412,7 @@
         <v>#N/A</v>
       </c>
       <c r="T203" s="9" t="e">
-        <f>VLOOKUP(H203,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H203,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U203" s="9" t="e">
@@ -6397,7 +6430,7 @@
         <v>#N/A</v>
       </c>
       <c r="T204" s="9" t="e">
-        <f>VLOOKUP(H204,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H204,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U204" s="9" t="e">
@@ -6415,7 +6448,7 @@
         <v>#N/A</v>
       </c>
       <c r="T205" s="9" t="e">
-        <f>VLOOKUP(H205,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H205,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U205" s="9" t="e">
@@ -6433,7 +6466,7 @@
         <v>#N/A</v>
       </c>
       <c r="T206" s="9" t="e">
-        <f>VLOOKUP(H206,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H206,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U206" s="9" t="e">
@@ -6451,7 +6484,7 @@
         <v>#N/A</v>
       </c>
       <c r="T207" s="9" t="e">
-        <f>VLOOKUP(H207,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H207,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U207" s="9" t="e">
@@ -6469,7 +6502,7 @@
         <v>#N/A</v>
       </c>
       <c r="T208" s="9" t="e">
-        <f>VLOOKUP(H208,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H208,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U208" s="9" t="e">
@@ -6487,7 +6520,7 @@
         <v>#N/A</v>
       </c>
       <c r="T209" s="9" t="e">
-        <f>VLOOKUP(H209,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H209,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U209" s="9" t="e">
@@ -6505,7 +6538,7 @@
         <v>#N/A</v>
       </c>
       <c r="T210" s="9" t="e">
-        <f>VLOOKUP(H210,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H210,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U210" s="9" t="e">
@@ -6523,7 +6556,7 @@
         <v>#N/A</v>
       </c>
       <c r="T211" s="9" t="e">
-        <f>VLOOKUP(H211,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H211,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U211" s="9" t="e">
@@ -6541,7 +6574,7 @@
         <v>#N/A</v>
       </c>
       <c r="T212" s="9" t="e">
-        <f>VLOOKUP(H212,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H212,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U212" s="9" t="e">
@@ -6559,7 +6592,7 @@
         <v>#N/A</v>
       </c>
       <c r="T213" s="9" t="e">
-        <f>VLOOKUP(H213,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H213,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U213" s="9" t="e">
@@ -6577,7 +6610,7 @@
         <v>#N/A</v>
       </c>
       <c r="T214" s="9" t="e">
-        <f>VLOOKUP(H214,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H214,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U214" s="9" t="e">
@@ -6595,7 +6628,7 @@
         <v>#N/A</v>
       </c>
       <c r="T215" s="9" t="e">
-        <f>VLOOKUP(H215,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H215,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U215" s="9" t="e">
@@ -6613,7 +6646,7 @@
         <v>#N/A</v>
       </c>
       <c r="T216" s="9" t="e">
-        <f>VLOOKUP(H216,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H216,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U216" s="9" t="e">
@@ -6631,7 +6664,7 @@
         <v>#N/A</v>
       </c>
       <c r="T217" s="9" t="e">
-        <f>VLOOKUP(H217,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H217,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U217" s="9" t="e">
@@ -6649,7 +6682,7 @@
         <v>#N/A</v>
       </c>
       <c r="T218" s="9" t="e">
-        <f>VLOOKUP(H218,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H218,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U218" s="9" t="e">
@@ -6667,7 +6700,7 @@
         <v>#N/A</v>
       </c>
       <c r="T219" s="9" t="e">
-        <f>VLOOKUP(H219,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H219,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U219" s="9" t="e">
@@ -6685,7 +6718,7 @@
         <v>#N/A</v>
       </c>
       <c r="T220" s="9" t="e">
-        <f>VLOOKUP(H220,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H220,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U220" s="9" t="e">
@@ -6703,7 +6736,7 @@
         <v>#N/A</v>
       </c>
       <c r="T221" s="9" t="e">
-        <f>VLOOKUP(H221,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H221,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U221" s="9" t="e">
@@ -6721,7 +6754,7 @@
         <v>#N/A</v>
       </c>
       <c r="T222" s="9" t="e">
-        <f>VLOOKUP(H222,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H222,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U222" s="9" t="e">
@@ -6739,7 +6772,7 @@
         <v>#N/A</v>
       </c>
       <c r="T223" s="9" t="e">
-        <f>VLOOKUP(H223,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H223,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U223" s="9" t="e">
@@ -6757,7 +6790,7 @@
         <v>#N/A</v>
       </c>
       <c r="T224" s="9" t="e">
-        <f>VLOOKUP(H224,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H224,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U224" s="9" t="e">
@@ -6775,7 +6808,7 @@
         <v>#N/A</v>
       </c>
       <c r="T225" s="9" t="e">
-        <f>VLOOKUP(H225,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H225,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U225" s="9" t="e">
@@ -6793,7 +6826,7 @@
         <v>#N/A</v>
       </c>
       <c r="T226" s="9" t="e">
-        <f>VLOOKUP(H226,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H226,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U226" s="9" t="e">
@@ -6811,7 +6844,7 @@
         <v>#N/A</v>
       </c>
       <c r="T227" s="9" t="e">
-        <f>VLOOKUP(H227,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H227,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U227" s="9" t="e">
@@ -6829,7 +6862,7 @@
         <v>#N/A</v>
       </c>
       <c r="T228" s="9" t="e">
-        <f>VLOOKUP(H228,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H228,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U228" s="9" t="e">
@@ -6847,7 +6880,7 @@
         <v>#N/A</v>
       </c>
       <c r="T229" s="9" t="e">
-        <f>VLOOKUP(H229,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H229,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U229" s="9" t="e">
@@ -6865,7 +6898,7 @@
         <v>#N/A</v>
       </c>
       <c r="T230" s="9" t="e">
-        <f>VLOOKUP(H230,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H230,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U230" s="9" t="e">
@@ -6883,7 +6916,7 @@
         <v>#N/A</v>
       </c>
       <c r="T231" s="9" t="e">
-        <f>VLOOKUP(H231,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H231,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U231" s="9" t="e">
@@ -6901,7 +6934,7 @@
         <v>#N/A</v>
       </c>
       <c r="T232" s="9" t="e">
-        <f>VLOOKUP(H232,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H232,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U232" s="9" t="e">
@@ -6919,7 +6952,7 @@
         <v>#N/A</v>
       </c>
       <c r="T233" s="9" t="e">
-        <f>VLOOKUP(H233,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H233,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U233" s="9" t="e">
@@ -6937,7 +6970,7 @@
         <v>#N/A</v>
       </c>
       <c r="T234" s="9" t="e">
-        <f>VLOOKUP(H234,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H234,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U234" s="9" t="e">
@@ -6955,7 +6988,7 @@
         <v>#N/A</v>
       </c>
       <c r="T235" s="9" t="e">
-        <f>VLOOKUP(H235,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H235,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U235" s="9" t="e">
@@ -6973,7 +7006,7 @@
         <v>#N/A</v>
       </c>
       <c r="T236" s="9" t="e">
-        <f>VLOOKUP(H236,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H236,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U236" s="9" t="e">
@@ -6991,7 +7024,7 @@
         <v>#N/A</v>
       </c>
       <c r="T237" s="9" t="e">
-        <f>VLOOKUP(H237,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H237,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U237" s="9" t="e">
@@ -7009,7 +7042,7 @@
         <v>#N/A</v>
       </c>
       <c r="T238" s="9" t="e">
-        <f>VLOOKUP(H238,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H238,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U238" s="9" t="e">
@@ -7027,7 +7060,7 @@
         <v>#N/A</v>
       </c>
       <c r="T239" s="9" t="e">
-        <f>VLOOKUP(H239,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H239,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U239" s="9" t="e">
@@ -7045,7 +7078,7 @@
         <v>#N/A</v>
       </c>
       <c r="T240" s="9" t="e">
-        <f>VLOOKUP(H240,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H240,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U240" s="9" t="e">
@@ -7063,7 +7096,7 @@
         <v>#N/A</v>
       </c>
       <c r="T241" s="9" t="e">
-        <f>VLOOKUP(H241,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H241,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U241" s="9" t="e">
@@ -7081,7 +7114,7 @@
         <v>#N/A</v>
       </c>
       <c r="T242" s="9" t="e">
-        <f>VLOOKUP(H242,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H242,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U242" s="9" t="e">
@@ -7099,7 +7132,7 @@
         <v>#N/A</v>
       </c>
       <c r="T243" s="9" t="e">
-        <f>VLOOKUP(H243,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H243,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U243" s="9" t="e">
@@ -7117,7 +7150,7 @@
         <v>#N/A</v>
       </c>
       <c r="T244" s="9" t="e">
-        <f>VLOOKUP(H244,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H244,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U244" s="9" t="e">
@@ -7135,7 +7168,7 @@
         <v>#N/A</v>
       </c>
       <c r="T245" s="9" t="e">
-        <f>VLOOKUP(H245,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H245,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U245" s="9" t="e">
@@ -7153,7 +7186,7 @@
         <v>#N/A</v>
       </c>
       <c r="T246" s="9" t="e">
-        <f>VLOOKUP(H246,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H246,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U246" s="9" t="e">
@@ -7171,7 +7204,7 @@
         <v>#N/A</v>
       </c>
       <c r="T247" s="9" t="e">
-        <f>VLOOKUP(H247,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H247,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U247" s="9" t="e">
@@ -7189,7 +7222,7 @@
         <v>#N/A</v>
       </c>
       <c r="T248" s="9" t="e">
-        <f>VLOOKUP(H248,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H248,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U248" s="9" t="e">
@@ -7207,7 +7240,7 @@
         <v>#N/A</v>
       </c>
       <c r="T249" s="9" t="e">
-        <f>VLOOKUP(H249,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H249,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U249" s="9" t="e">
@@ -7225,7 +7258,7 @@
         <v>#N/A</v>
       </c>
       <c r="T250" s="9" t="e">
-        <f>VLOOKUP(H250,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H250,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U250" s="9" t="e">
@@ -7243,7 +7276,7 @@
         <v>#N/A</v>
       </c>
       <c r="T251" s="9" t="e">
-        <f>VLOOKUP(H251,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H251,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U251" s="9" t="e">
@@ -7261,7 +7294,7 @@
         <v>#N/A</v>
       </c>
       <c r="T252" s="9" t="e">
-        <f>VLOOKUP(H252,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H252,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U252" s="9" t="e">
@@ -7279,7 +7312,7 @@
         <v>#N/A</v>
       </c>
       <c r="T253" s="9" t="e">
-        <f>VLOOKUP(H253,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H253,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U253" s="9" t="e">
@@ -7297,7 +7330,7 @@
         <v>#N/A</v>
       </c>
       <c r="T254" s="9" t="e">
-        <f>VLOOKUP(H254,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H254,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U254" s="9" t="e">
@@ -7315,7 +7348,7 @@
         <v>#N/A</v>
       </c>
       <c r="T255" s="9" t="e">
-        <f>VLOOKUP(H255,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H255,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U255" s="9" t="e">
@@ -7333,7 +7366,7 @@
         <v>#N/A</v>
       </c>
       <c r="T256" s="9" t="e">
-        <f>VLOOKUP(H256,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H256,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U256" s="9" t="e">
@@ -7351,7 +7384,7 @@
         <v>#N/A</v>
       </c>
       <c r="T257" s="9" t="e">
-        <f>VLOOKUP(H257,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H257,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U257" s="9" t="e">
@@ -7369,7 +7402,7 @@
         <v>#N/A</v>
       </c>
       <c r="T258" s="9" t="e">
-        <f>VLOOKUP(H258,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H258,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U258" s="9" t="e">
@@ -7387,7 +7420,7 @@
         <v>#N/A</v>
       </c>
       <c r="T259" s="9" t="e">
-        <f>VLOOKUP(H259,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H259,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U259" s="9" t="e">
@@ -7405,7 +7438,7 @@
         <v>#N/A</v>
       </c>
       <c r="T260" s="9" t="e">
-        <f>VLOOKUP(H260,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H260,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U260" s="9" t="e">
@@ -7423,7 +7456,7 @@
         <v>#N/A</v>
       </c>
       <c r="T261" s="9" t="e">
-        <f>VLOOKUP(H261,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H261,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U261" s="9" t="e">
@@ -7441,7 +7474,7 @@
         <v>#N/A</v>
       </c>
       <c r="T262" s="9" t="e">
-        <f>VLOOKUP(H262,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H262,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U262" s="9" t="e">
@@ -7459,7 +7492,7 @@
         <v>#N/A</v>
       </c>
       <c r="T263" s="9" t="e">
-        <f>VLOOKUP(H263,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H263,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U263" s="9" t="e">
@@ -7477,7 +7510,7 @@
         <v>#N/A</v>
       </c>
       <c r="T264" s="9" t="e">
-        <f>VLOOKUP(H264,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H264,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U264" s="9" t="e">
@@ -7495,7 +7528,7 @@
         <v>#N/A</v>
       </c>
       <c r="T265" s="9" t="e">
-        <f>VLOOKUP(H265,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H265,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U265" s="9" t="e">
@@ -7513,7 +7546,7 @@
         <v>#N/A</v>
       </c>
       <c r="T266" s="9" t="e">
-        <f>VLOOKUP(H266,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H266,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U266" s="9" t="e">
@@ -7531,7 +7564,7 @@
         <v>#N/A</v>
       </c>
       <c r="T267" s="9" t="e">
-        <f>VLOOKUP(H267,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H267,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U267" s="9" t="e">
@@ -7549,7 +7582,7 @@
         <v>#N/A</v>
       </c>
       <c r="T268" s="9" t="e">
-        <f>VLOOKUP(H268,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H268,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U268" s="9" t="e">
@@ -7567,7 +7600,7 @@
         <v>#N/A</v>
       </c>
       <c r="T269" s="9" t="e">
-        <f>VLOOKUP(H269,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H269,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U269" s="9" t="e">
@@ -7585,7 +7618,7 @@
         <v>#N/A</v>
       </c>
       <c r="T270" s="9" t="e">
-        <f>VLOOKUP(H270,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H270,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U270" s="9" t="e">
@@ -7603,7 +7636,7 @@
         <v>#N/A</v>
       </c>
       <c r="T271" s="9" t="e">
-        <f>VLOOKUP(H271,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H271,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U271" s="9" t="e">
@@ -7621,7 +7654,7 @@
         <v>#N/A</v>
       </c>
       <c r="T272" s="9" t="e">
-        <f>VLOOKUP(H272,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H272,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U272" s="9" t="e">
@@ -7639,7 +7672,7 @@
         <v>#N/A</v>
       </c>
       <c r="T273" s="9" t="e">
-        <f>VLOOKUP(H273,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H273,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U273" s="9" t="e">
@@ -7657,7 +7690,7 @@
         <v>#N/A</v>
       </c>
       <c r="T274" s="9" t="e">
-        <f>VLOOKUP(H274,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H274,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U274" s="9" t="e">
@@ -7675,7 +7708,7 @@
         <v>#N/A</v>
       </c>
       <c r="T275" s="9" t="e">
-        <f>VLOOKUP(H275,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H275,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U275" s="9" t="e">
@@ -7693,7 +7726,7 @@
         <v>#N/A</v>
       </c>
       <c r="T276" s="9" t="e">
-        <f>VLOOKUP(H276,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H276,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U276" s="9" t="e">
@@ -7711,7 +7744,7 @@
         <v>#N/A</v>
       </c>
       <c r="T277" s="9" t="e">
-        <f>VLOOKUP(H277,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H277,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U277" s="9" t="e">
@@ -7729,7 +7762,7 @@
         <v>#N/A</v>
       </c>
       <c r="T278" s="9" t="e">
-        <f>VLOOKUP(H278,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H278,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U278" s="9" t="e">
@@ -7747,7 +7780,7 @@
         <v>#N/A</v>
       </c>
       <c r="T279" s="9" t="e">
-        <f>VLOOKUP(H279,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H279,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U279" s="9" t="e">
@@ -7765,7 +7798,7 @@
         <v>#N/A</v>
       </c>
       <c r="T280" s="9" t="e">
-        <f>VLOOKUP(H280,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H280,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U280" s="9" t="e">
@@ -7783,7 +7816,7 @@
         <v>#N/A</v>
       </c>
       <c r="T281" s="9" t="e">
-        <f>VLOOKUP(H281,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H281,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U281" s="9" t="e">
@@ -7801,7 +7834,7 @@
         <v>#N/A</v>
       </c>
       <c r="T282" s="9" t="e">
-        <f>VLOOKUP(H282,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H282,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U282" s="9" t="e">
@@ -7819,7 +7852,7 @@
         <v>#N/A</v>
       </c>
       <c r="T283" s="9" t="e">
-        <f>VLOOKUP(H283,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H283,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U283" s="9" t="e">
@@ -7837,7 +7870,7 @@
         <v>#N/A</v>
       </c>
       <c r="T284" s="9" t="e">
-        <f>VLOOKUP(H284,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H284,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U284" s="9" t="e">
@@ -7855,7 +7888,7 @@
         <v>#N/A</v>
       </c>
       <c r="T285" s="9" t="e">
-        <f>VLOOKUP(H285,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H285,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U285" s="9" t="e">
@@ -7873,7 +7906,7 @@
         <v>#N/A</v>
       </c>
       <c r="T286" s="9" t="e">
-        <f>VLOOKUP(H286,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H286,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U286" s="9" t="e">
@@ -7891,7 +7924,7 @@
         <v>#N/A</v>
       </c>
       <c r="T287" s="9" t="e">
-        <f>VLOOKUP(H287,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H287,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U287" s="9" t="e">
@@ -7909,7 +7942,7 @@
         <v>#N/A</v>
       </c>
       <c r="T288" s="9" t="e">
-        <f>VLOOKUP(H288,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H288,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U288" s="9" t="e">
@@ -7927,7 +7960,7 @@
         <v>#N/A</v>
       </c>
       <c r="T289" s="9" t="e">
-        <f>VLOOKUP(H289,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H289,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U289" s="9" t="e">
@@ -7945,7 +7978,7 @@
         <v>#N/A</v>
       </c>
       <c r="T290" s="9" t="e">
-        <f>VLOOKUP(H290,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H290,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U290" s="9" t="e">
@@ -7963,7 +7996,7 @@
         <v>#N/A</v>
       </c>
       <c r="T291" s="9" t="e">
-        <f>VLOOKUP(H291,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H291,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U291" s="9" t="e">
@@ -7981,7 +8014,7 @@
         <v>#N/A</v>
       </c>
       <c r="T292" s="9" t="e">
-        <f>VLOOKUP(H292,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H292,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U292" s="9" t="e">
@@ -7999,7 +8032,7 @@
         <v>#N/A</v>
       </c>
       <c r="T293" s="9" t="e">
-        <f>VLOOKUP(H293,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H293,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U293" s="9" t="e">
@@ -8017,7 +8050,7 @@
         <v>#N/A</v>
       </c>
       <c r="T294" s="9" t="e">
-        <f>VLOOKUP(H294,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H294,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U294" s="9" t="e">
@@ -8035,7 +8068,7 @@
         <v>#N/A</v>
       </c>
       <c r="T295" s="9" t="e">
-        <f>VLOOKUP(H295,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H295,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U295" s="9" t="e">
@@ -8053,7 +8086,7 @@
         <v>#N/A</v>
       </c>
       <c r="T296" s="9" t="e">
-        <f>VLOOKUP(H296,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H296,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U296" s="9" t="e">
@@ -8071,7 +8104,7 @@
         <v>#N/A</v>
       </c>
       <c r="T297" s="9" t="e">
-        <f>VLOOKUP(H297,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H297,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U297" s="9" t="e">
@@ -8089,7 +8122,7 @@
         <v>#N/A</v>
       </c>
       <c r="T298" s="9" t="e">
-        <f>VLOOKUP(H298,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H298,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U298" s="9" t="e">
@@ -8107,7 +8140,7 @@
         <v>#N/A</v>
       </c>
       <c r="T299" s="9" t="e">
-        <f>VLOOKUP(H299,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H299,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U299" s="9" t="e">
@@ -8125,7 +8158,7 @@
         <v>#N/A</v>
       </c>
       <c r="T300" s="9" t="e">
-        <f>VLOOKUP(H300,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H300,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U300" s="9" t="e">
@@ -8143,7 +8176,7 @@
         <v>#N/A</v>
       </c>
       <c r="T301" s="9" t="e">
-        <f>VLOOKUP(H301,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H301,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U301" s="9" t="e">
@@ -8161,7 +8194,7 @@
         <v>#N/A</v>
       </c>
       <c r="T302" s="9" t="e">
-        <f>VLOOKUP(H302,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H302,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U302" s="9" t="e">
@@ -8179,7 +8212,7 @@
         <v>#N/A</v>
       </c>
       <c r="T303" s="9" t="e">
-        <f>VLOOKUP(H303,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H303,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U303" s="9" t="e">
@@ -8197,7 +8230,7 @@
         <v>#N/A</v>
       </c>
       <c r="T304" s="9" t="e">
-        <f>VLOOKUP(H304,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H304,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U304" s="9" t="e">
@@ -8215,7 +8248,7 @@
         <v>#N/A</v>
       </c>
       <c r="T305" s="9" t="e">
-        <f>VLOOKUP(H305,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H305,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U305" s="9" t="e">
@@ -8233,7 +8266,7 @@
         <v>#N/A</v>
       </c>
       <c r="T306" s="9" t="e">
-        <f>VLOOKUP(H306,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H306,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U306" s="9" t="e">
@@ -8251,7 +8284,7 @@
         <v>#N/A</v>
       </c>
       <c r="T307" s="9" t="e">
-        <f>VLOOKUP(H307,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H307,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U307" s="9" t="e">
@@ -8269,7 +8302,7 @@
         <v>#N/A</v>
       </c>
       <c r="T308" s="9" t="e">
-        <f>VLOOKUP(H308,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H308,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U308" s="9" t="e">
@@ -8287,7 +8320,7 @@
         <v>#N/A</v>
       </c>
       <c r="T309" s="9" t="e">
-        <f>VLOOKUP(H309,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H309,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U309" s="9" t="e">
@@ -8305,7 +8338,7 @@
         <v>#N/A</v>
       </c>
       <c r="T310" s="9" t="e">
-        <f>VLOOKUP(H310,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H310,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U310" s="9" t="e">
@@ -8323,7 +8356,7 @@
         <v>#N/A</v>
       </c>
       <c r="T311" s="9" t="e">
-        <f>VLOOKUP(H311,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H311,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U311" s="9" t="e">
@@ -8341,7 +8374,7 @@
         <v>#N/A</v>
       </c>
       <c r="T312" s="9" t="e">
-        <f>VLOOKUP(H312,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H312,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U312" s="9" t="e">
@@ -8359,7 +8392,7 @@
         <v>#N/A</v>
       </c>
       <c r="T313" s="9" t="e">
-        <f>VLOOKUP(H313,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H313,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U313" s="9" t="e">
@@ -8377,7 +8410,7 @@
         <v>#N/A</v>
       </c>
       <c r="T314" s="9" t="e">
-        <f>VLOOKUP(H314,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H314,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U314" s="9" t="e">
@@ -8395,7 +8428,7 @@
         <v>#N/A</v>
       </c>
       <c r="T315" s="9" t="e">
-        <f>VLOOKUP(H315,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H315,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U315" s="9" t="e">
@@ -8413,7 +8446,7 @@
         <v>#N/A</v>
       </c>
       <c r="T316" s="9" t="e">
-        <f>VLOOKUP(H316,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H316,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U316" s="9" t="e">
@@ -8431,7 +8464,7 @@
         <v>#N/A</v>
       </c>
       <c r="T317" s="9" t="e">
-        <f>VLOOKUP(H317,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H317,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U317" s="9" t="e">
@@ -8449,7 +8482,7 @@
         <v>#N/A</v>
       </c>
       <c r="T318" s="9" t="e">
-        <f>VLOOKUP(H318,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H318,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U318" s="9" t="e">
@@ -8467,7 +8500,7 @@
         <v>#N/A</v>
       </c>
       <c r="T319" s="9" t="e">
-        <f>VLOOKUP(H319,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H319,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U319" s="9" t="e">
@@ -8485,7 +8518,7 @@
         <v>#N/A</v>
       </c>
       <c r="T320" s="9" t="e">
-        <f>VLOOKUP(H320,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H320,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U320" s="9" t="e">
@@ -8503,7 +8536,7 @@
         <v>#N/A</v>
       </c>
       <c r="T321" s="9" t="e">
-        <f>VLOOKUP(H321,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H321,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U321" s="9" t="e">
@@ -8521,7 +8554,7 @@
         <v>#N/A</v>
       </c>
       <c r="T322" s="9" t="e">
-        <f>VLOOKUP(H322,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H322,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U322" s="9" t="e">
@@ -8539,7 +8572,7 @@
         <v>#N/A</v>
       </c>
       <c r="T323" s="9" t="e">
-        <f>VLOOKUP(H323,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H323,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U323" s="9" t="e">
@@ -8557,7 +8590,7 @@
         <v>#N/A</v>
       </c>
       <c r="T324" s="9" t="e">
-        <f>VLOOKUP(H324,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H324,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U324" s="9" t="e">
@@ -8575,7 +8608,7 @@
         <v>#N/A</v>
       </c>
       <c r="T325" s="9" t="e">
-        <f>VLOOKUP(H325,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H325,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U325" s="9" t="e">
@@ -8593,7 +8626,7 @@
         <v>#N/A</v>
       </c>
       <c r="T326" s="9" t="e">
-        <f>VLOOKUP(H326,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H326,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U326" s="9" t="e">
@@ -8611,7 +8644,7 @@
         <v>#N/A</v>
       </c>
       <c r="T327" s="9" t="e">
-        <f>VLOOKUP(H327,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H327,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U327" s="9" t="e">
@@ -8629,7 +8662,7 @@
         <v>#N/A</v>
       </c>
       <c r="T328" s="9" t="e">
-        <f>VLOOKUP(H328,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H328,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U328" s="9" t="e">
@@ -8647,7 +8680,7 @@
         <v>#N/A</v>
       </c>
       <c r="T329" s="9" t="e">
-        <f>VLOOKUP(H329,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H329,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U329" s="9" t="e">
@@ -8665,7 +8698,7 @@
         <v>#N/A</v>
       </c>
       <c r="T330" s="9" t="e">
-        <f>VLOOKUP(H330,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H330,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U330" s="9" t="e">
@@ -8683,7 +8716,7 @@
         <v>#N/A</v>
       </c>
       <c r="T331" s="9" t="e">
-        <f>VLOOKUP(H331,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H331,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U331" s="9" t="e">
@@ -8701,7 +8734,7 @@
         <v>#N/A</v>
       </c>
       <c r="T332" s="9" t="e">
-        <f>VLOOKUP(H332,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H332,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U332" s="9" t="e">
@@ -8719,7 +8752,7 @@
         <v>#N/A</v>
       </c>
       <c r="T333" s="9" t="e">
-        <f>VLOOKUP(H333,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H333,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U333" s="9" t="e">
@@ -8737,7 +8770,7 @@
         <v>#N/A</v>
       </c>
       <c r="T334" s="9" t="e">
-        <f>VLOOKUP(H334,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H334,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U334" s="9" t="e">
@@ -8755,7 +8788,7 @@
         <v>#N/A</v>
       </c>
       <c r="T335" s="9" t="e">
-        <f>VLOOKUP(H335,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H335,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U335" s="9" t="e">
@@ -8773,7 +8806,7 @@
         <v>#N/A</v>
       </c>
       <c r="T336" s="9" t="e">
-        <f>VLOOKUP(H336,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H336,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U336" s="9" t="e">
@@ -8791,7 +8824,7 @@
         <v>#N/A</v>
       </c>
       <c r="T337" s="9" t="e">
-        <f>VLOOKUP(H337,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H337,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U337" s="9" t="e">
@@ -8809,7 +8842,7 @@
         <v>#N/A</v>
       </c>
       <c r="T338" s="9" t="e">
-        <f>VLOOKUP(H338,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H338,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U338" s="9" t="e">
@@ -8827,7 +8860,7 @@
         <v>#N/A</v>
       </c>
       <c r="T339" s="9" t="e">
-        <f>VLOOKUP(H339,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H339,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U339" s="9" t="e">
@@ -8845,7 +8878,7 @@
         <v>#N/A</v>
       </c>
       <c r="T340" s="9" t="e">
-        <f>VLOOKUP(H340,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H340,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U340" s="9" t="e">
@@ -8863,7 +8896,7 @@
         <v>#N/A</v>
       </c>
       <c r="T341" s="9" t="e">
-        <f>VLOOKUP(H341,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H341,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U341" s="9" t="e">
@@ -8881,7 +8914,7 @@
         <v>#N/A</v>
       </c>
       <c r="T342" s="9" t="e">
-        <f>VLOOKUP(H342,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H342,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U342" s="9" t="e">
@@ -8899,7 +8932,7 @@
         <v>#N/A</v>
       </c>
       <c r="T343" s="9" t="e">
-        <f>VLOOKUP(H343,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H343,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U343" s="9" t="e">
@@ -8917,7 +8950,7 @@
         <v>#N/A</v>
       </c>
       <c r="T344" s="9" t="e">
-        <f>VLOOKUP(H344,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H344,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U344" s="9" t="e">
@@ -8935,7 +8968,7 @@
         <v>#N/A</v>
       </c>
       <c r="T345" s="9" t="e">
-        <f>VLOOKUP(H345,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H345,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U345" s="9" t="e">
@@ -8953,7 +8986,7 @@
         <v>#N/A</v>
       </c>
       <c r="T346" s="9" t="e">
-        <f>VLOOKUP(H346,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H346,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U346" s="9" t="e">
@@ -8971,7 +9004,7 @@
         <v>#N/A</v>
       </c>
       <c r="T347" s="9" t="e">
-        <f>VLOOKUP(H347,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H347,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U347" s="9" t="e">
@@ -8989,7 +9022,7 @@
         <v>#N/A</v>
       </c>
       <c r="T348" s="9" t="e">
-        <f>VLOOKUP(H348,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H348,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U348" s="9" t="e">
@@ -9007,7 +9040,7 @@
         <v>#N/A</v>
       </c>
       <c r="T349" s="9" t="e">
-        <f>VLOOKUP(H349,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H349,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U349" s="9" t="e">
@@ -9025,7 +9058,7 @@
         <v>#N/A</v>
       </c>
       <c r="T350" s="9" t="e">
-        <f>VLOOKUP(H350,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H350,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U350" s="9" t="e">
@@ -9043,7 +9076,7 @@
         <v>#N/A</v>
       </c>
       <c r="T351" s="9" t="e">
-        <f>VLOOKUP(H351,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H351,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U351" s="9" t="e">
@@ -9061,7 +9094,7 @@
         <v>#N/A</v>
       </c>
       <c r="T352" s="9" t="e">
-        <f>VLOOKUP(H352,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H352,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U352" s="9" t="e">
@@ -9079,7 +9112,7 @@
         <v>#N/A</v>
       </c>
       <c r="T353" s="9" t="e">
-        <f>VLOOKUP(H353,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H353,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U353" s="9" t="e">
@@ -9097,7 +9130,7 @@
         <v>#N/A</v>
       </c>
       <c r="T354" s="9" t="e">
-        <f>VLOOKUP(H354,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H354,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U354" s="9" t="e">
@@ -9115,7 +9148,7 @@
         <v>#N/A</v>
       </c>
       <c r="T355" s="9" t="e">
-        <f>VLOOKUP(H355,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H355,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U355" s="9" t="e">
@@ -9133,7 +9166,7 @@
         <v>#N/A</v>
       </c>
       <c r="T356" s="9" t="e">
-        <f>VLOOKUP(H356,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H356,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U356" s="9" t="e">
@@ -9151,7 +9184,7 @@
         <v>#N/A</v>
       </c>
       <c r="T357" s="9" t="e">
-        <f>VLOOKUP(H357,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H357,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U357" s="9" t="e">
@@ -9169,7 +9202,7 @@
         <v>#N/A</v>
       </c>
       <c r="T358" s="9" t="e">
-        <f>VLOOKUP(H358,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H358,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U358" s="9" t="e">
@@ -9187,7 +9220,7 @@
         <v>#N/A</v>
       </c>
       <c r="T359" s="9" t="e">
-        <f>VLOOKUP(H359,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H359,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U359" s="9" t="e">
@@ -9205,7 +9238,7 @@
         <v>#N/A</v>
       </c>
       <c r="T360" s="9" t="e">
-        <f>VLOOKUP(H360,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H360,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U360" s="9" t="e">
@@ -9223,7 +9256,7 @@
         <v>#N/A</v>
       </c>
       <c r="T361" s="9" t="e">
-        <f>VLOOKUP(H361,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H361,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U361" s="9" t="e">
@@ -9241,7 +9274,7 @@
         <v>#N/A</v>
       </c>
       <c r="T362" s="9" t="e">
-        <f>VLOOKUP(H362,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H362,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U362" s="9" t="e">
@@ -9259,7 +9292,7 @@
         <v>#N/A</v>
       </c>
       <c r="T363" s="9" t="e">
-        <f>VLOOKUP(H363,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H363,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U363" s="9" t="e">
@@ -9277,7 +9310,7 @@
         <v>#N/A</v>
       </c>
       <c r="T364" s="9" t="e">
-        <f>VLOOKUP(H364,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H364,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U364" s="9" t="e">
@@ -9295,7 +9328,7 @@
         <v>#N/A</v>
       </c>
       <c r="T365" s="9" t="e">
-        <f>VLOOKUP(H365,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H365,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U365" s="9" t="e">
@@ -9313,7 +9346,7 @@
         <v>#N/A</v>
       </c>
       <c r="T366" s="9" t="e">
-        <f>VLOOKUP(H366,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H366,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U366" s="9" t="e">
@@ -9331,7 +9364,7 @@
         <v>#N/A</v>
       </c>
       <c r="T367" s="9" t="e">
-        <f>VLOOKUP(H367,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H367,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U367" s="9" t="e">
@@ -9349,7 +9382,7 @@
         <v>#N/A</v>
       </c>
       <c r="T368" s="9" t="e">
-        <f>VLOOKUP(H368,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H368,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U368" s="9" t="e">
@@ -9367,7 +9400,7 @@
         <v>#N/A</v>
       </c>
       <c r="T369" s="9" t="e">
-        <f>VLOOKUP(H369,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H369,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U369" s="9" t="e">
@@ -9385,7 +9418,7 @@
         <v>#N/A</v>
       </c>
       <c r="T370" s="9" t="e">
-        <f>VLOOKUP(H370,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H370,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U370" s="9" t="e">
@@ -9403,7 +9436,7 @@
         <v>#N/A</v>
       </c>
       <c r="T371" s="9" t="e">
-        <f>VLOOKUP(H371,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H371,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U371" s="9" t="e">
@@ -9421,7 +9454,7 @@
         <v>#N/A</v>
       </c>
       <c r="T372" s="9" t="e">
-        <f>VLOOKUP(H372,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H372,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U372" s="9" t="e">
@@ -9439,7 +9472,7 @@
         <v>#N/A</v>
       </c>
       <c r="T373" s="9" t="e">
-        <f>VLOOKUP(H373,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H373,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U373" s="9" t="e">
@@ -9457,7 +9490,7 @@
         <v>#N/A</v>
       </c>
       <c r="T374" s="9" t="e">
-        <f>VLOOKUP(H374,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H374,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U374" s="9" t="e">
@@ -9475,7 +9508,7 @@
         <v>#N/A</v>
       </c>
       <c r="T375" s="9" t="e">
-        <f>VLOOKUP(H375,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H375,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U375" s="9" t="e">
@@ -9493,7 +9526,7 @@
         <v>#N/A</v>
       </c>
       <c r="T376" s="9" t="e">
-        <f>VLOOKUP(H376,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H376,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U376" s="9" t="e">
@@ -9511,7 +9544,7 @@
         <v>#N/A</v>
       </c>
       <c r="T377" s="9" t="e">
-        <f>VLOOKUP(H377,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H377,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U377" s="9" t="e">
@@ -9529,7 +9562,7 @@
         <v>#N/A</v>
       </c>
       <c r="T378" s="9" t="e">
-        <f>VLOOKUP(H378,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H378,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U378" s="9" t="e">
@@ -9547,7 +9580,7 @@
         <v>#N/A</v>
       </c>
       <c r="T379" s="9" t="e">
-        <f>VLOOKUP(H379,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H379,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U379" s="9" t="e">
@@ -9565,7 +9598,7 @@
         <v>#N/A</v>
       </c>
       <c r="T380" s="9" t="e">
-        <f>VLOOKUP(H380,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H380,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U380" s="9" t="e">
@@ -9583,7 +9616,7 @@
         <v>#N/A</v>
       </c>
       <c r="T381" s="9" t="e">
-        <f>VLOOKUP(H381,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H381,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U381" s="9" t="e">
@@ -9601,7 +9634,7 @@
         <v>#N/A</v>
       </c>
       <c r="T382" s="9" t="e">
-        <f>VLOOKUP(H382,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H382,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U382" s="9" t="e">
@@ -9619,7 +9652,7 @@
         <v>#N/A</v>
       </c>
       <c r="T383" s="9" t="e">
-        <f>VLOOKUP(H383,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H383,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U383" s="9" t="e">
@@ -9637,7 +9670,7 @@
         <v>#N/A</v>
       </c>
       <c r="T384" s="9" t="e">
-        <f>VLOOKUP(H384,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H384,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U384" s="9" t="e">
@@ -9655,7 +9688,7 @@
         <v>#N/A</v>
       </c>
       <c r="T385" s="9" t="e">
-        <f>VLOOKUP(H385,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H385,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U385" s="9" t="e">
@@ -9673,7 +9706,7 @@
         <v>#N/A</v>
       </c>
       <c r="T386" s="9" t="e">
-        <f>VLOOKUP(H386,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H386,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U386" s="9" t="e">
@@ -9691,7 +9724,7 @@
         <v>#N/A</v>
       </c>
       <c r="T387" s="9" t="e">
-        <f>VLOOKUP(H387,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H387,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U387" s="9" t="e">
@@ -9709,7 +9742,7 @@
         <v>#N/A</v>
       </c>
       <c r="T388" s="9" t="e">
-        <f>VLOOKUP(H388,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H388,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U388" s="9" t="e">
@@ -9727,7 +9760,7 @@
         <v>#N/A</v>
       </c>
       <c r="T389" s="9" t="e">
-        <f>VLOOKUP(H389,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H389,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U389" s="9" t="e">
@@ -9745,7 +9778,7 @@
         <v>#N/A</v>
       </c>
       <c r="T390" s="9" t="e">
-        <f>VLOOKUP(H390,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H390,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U390" s="9" t="e">
@@ -9763,7 +9796,7 @@
         <v>#N/A</v>
       </c>
       <c r="T391" s="9" t="e">
-        <f>VLOOKUP(H391,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H391,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U391" s="9" t="e">
@@ -9781,7 +9814,7 @@
         <v>#N/A</v>
       </c>
       <c r="T392" s="9" t="e">
-        <f>VLOOKUP(H392,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H392,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U392" s="9" t="e">
@@ -9799,7 +9832,7 @@
         <v>#N/A</v>
       </c>
       <c r="T393" s="9" t="e">
-        <f>VLOOKUP(H393,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H393,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U393" s="9" t="e">
@@ -9817,7 +9850,7 @@
         <v>#N/A</v>
       </c>
       <c r="T394" s="9" t="e">
-        <f>VLOOKUP(H394,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H394,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U394" s="9" t="e">
@@ -9835,7 +9868,7 @@
         <v>#N/A</v>
       </c>
       <c r="T395" s="9" t="e">
-        <f>VLOOKUP(H395,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H395,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U395" s="9" t="e">
@@ -9853,7 +9886,7 @@
         <v>#N/A</v>
       </c>
       <c r="T396" s="9" t="e">
-        <f>VLOOKUP(H396,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H396,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U396" s="9" t="e">
@@ -9871,7 +9904,7 @@
         <v>#N/A</v>
       </c>
       <c r="T397" s="9" t="e">
-        <f>VLOOKUP(H397,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H397,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U397" s="9" t="e">
@@ -9889,7 +9922,7 @@
         <v>#N/A</v>
       </c>
       <c r="T398" s="9" t="e">
-        <f>VLOOKUP(H398,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H398,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U398" s="9" t="e">
@@ -9907,7 +9940,7 @@
         <v>#N/A</v>
       </c>
       <c r="T399" s="9" t="e">
-        <f>VLOOKUP(H399,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H399,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U399" s="9" t="e">
@@ -9925,7 +9958,7 @@
         <v>#N/A</v>
       </c>
       <c r="T400" s="9" t="e">
-        <f>VLOOKUP(H400,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H400,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U400" s="9" t="e">
@@ -9943,7 +9976,7 @@
         <v>#N/A</v>
       </c>
       <c r="T401" s="9" t="e">
-        <f>VLOOKUP(H401,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H401,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U401" s="9" t="e">
@@ -9961,7 +9994,7 @@
         <v>#N/A</v>
       </c>
       <c r="T402" s="9" t="e">
-        <f>VLOOKUP(H402,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H402,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U402" s="9" t="e">
@@ -9979,7 +10012,7 @@
         <v>#N/A</v>
       </c>
       <c r="T403" s="9" t="e">
-        <f>VLOOKUP(H403,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H403,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U403" s="9" t="e">
@@ -9997,7 +10030,7 @@
         <v>#N/A</v>
       </c>
       <c r="T404" s="9" t="e">
-        <f>VLOOKUP(H404,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H404,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U404" s="9" t="e">
@@ -10015,7 +10048,7 @@
         <v>#N/A</v>
       </c>
       <c r="T405" s="9" t="e">
-        <f>VLOOKUP(H405,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H405,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U405" s="9" t="e">
@@ -10033,7 +10066,7 @@
         <v>#N/A</v>
       </c>
       <c r="T406" s="9" t="e">
-        <f>VLOOKUP(H406,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H406,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U406" s="9" t="e">
@@ -10051,7 +10084,7 @@
         <v>#N/A</v>
       </c>
       <c r="T407" s="9" t="e">
-        <f>VLOOKUP(H407,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H407,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U407" s="9" t="e">
@@ -10069,7 +10102,7 @@
         <v>#N/A</v>
       </c>
       <c r="T408" s="9" t="e">
-        <f>VLOOKUP(H408,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H408,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U408" s="9" t="e">
@@ -10087,7 +10120,7 @@
         <v>#N/A</v>
       </c>
       <c r="T409" s="9" t="e">
-        <f>VLOOKUP(H409,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H409,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U409" s="9" t="e">
@@ -10105,7 +10138,7 @@
         <v>#N/A</v>
       </c>
       <c r="T410" s="9" t="e">
-        <f>VLOOKUP(H410,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H410,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U410" s="9" t="e">
@@ -10123,7 +10156,7 @@
         <v>#N/A</v>
       </c>
       <c r="T411" s="9" t="e">
-        <f>VLOOKUP(H411,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H411,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U411" s="9" t="e">
@@ -10141,7 +10174,7 @@
         <v>#N/A</v>
       </c>
       <c r="T412" s="9" t="e">
-        <f>VLOOKUP(H412,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H412,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U412" s="9" t="e">
@@ -10159,7 +10192,7 @@
         <v>#N/A</v>
       </c>
       <c r="T413" s="9" t="e">
-        <f>VLOOKUP(H413,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H413,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U413" s="9" t="e">
@@ -10177,7 +10210,7 @@
         <v>#N/A</v>
       </c>
       <c r="T414" s="9" t="e">
-        <f>VLOOKUP(H414,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H414,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U414" s="9" t="e">
@@ -10195,7 +10228,7 @@
         <v>#N/A</v>
       </c>
       <c r="T415" s="9" t="e">
-        <f>VLOOKUP(H415,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H415,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U415" s="9" t="e">
@@ -10213,7 +10246,7 @@
         <v>#N/A</v>
       </c>
       <c r="T416" s="9" t="e">
-        <f>VLOOKUP(H416,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H416,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U416" s="9" t="e">
@@ -10231,7 +10264,7 @@
         <v>#N/A</v>
       </c>
       <c r="T417" s="9" t="e">
-        <f>VLOOKUP(H417,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H417,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U417" s="9" t="e">
@@ -10249,7 +10282,7 @@
         <v>#N/A</v>
       </c>
       <c r="T418" s="9" t="e">
-        <f>VLOOKUP(H418,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H418,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U418" s="9" t="e">
@@ -10267,7 +10300,7 @@
         <v>#N/A</v>
       </c>
       <c r="T419" s="9" t="e">
-        <f>VLOOKUP(H419,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H419,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U419" s="9" t="e">
@@ -10285,7 +10318,7 @@
         <v>#N/A</v>
       </c>
       <c r="T420" s="9" t="e">
-        <f>VLOOKUP(H420,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H420,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U420" s="9" t="e">
@@ -10303,7 +10336,7 @@
         <v>#N/A</v>
       </c>
       <c r="T421" s="9" t="e">
-        <f>VLOOKUP(H421,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H421,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U421" s="9" t="e">
@@ -10321,7 +10354,7 @@
         <v>#N/A</v>
       </c>
       <c r="T422" s="9" t="e">
-        <f>VLOOKUP(H422,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H422,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U422" s="9" t="e">
@@ -10339,7 +10372,7 @@
         <v>#N/A</v>
       </c>
       <c r="T423" s="9" t="e">
-        <f>VLOOKUP(H423,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H423,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U423" s="9" t="e">
@@ -10357,7 +10390,7 @@
         <v>#N/A</v>
       </c>
       <c r="T424" s="9" t="e">
-        <f>VLOOKUP(H424,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H424,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U424" s="9" t="e">
@@ -10375,7 +10408,7 @@
         <v>#N/A</v>
       </c>
       <c r="T425" s="9" t="e">
-        <f>VLOOKUP(H425,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H425,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U425" s="9" t="e">
@@ -10393,7 +10426,7 @@
         <v>#N/A</v>
       </c>
       <c r="T426" s="9" t="e">
-        <f>VLOOKUP(H426,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H426,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U426" s="9" t="e">
@@ -10411,7 +10444,7 @@
         <v>#N/A</v>
       </c>
       <c r="T427" s="9" t="e">
-        <f>VLOOKUP(H427,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H427,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U427" s="9" t="e">
@@ -10429,7 +10462,7 @@
         <v>#N/A</v>
       </c>
       <c r="T428" s="9" t="e">
-        <f>VLOOKUP(H428,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H428,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U428" s="9" t="e">
@@ -10447,7 +10480,7 @@
         <v>#N/A</v>
       </c>
       <c r="T429" s="9" t="e">
-        <f>VLOOKUP(H429,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H429,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U429" s="9" t="e">
@@ -10465,7 +10498,7 @@
         <v>#N/A</v>
       </c>
       <c r="T430" s="9" t="e">
-        <f>VLOOKUP(H430,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H430,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U430" s="9" t="e">
@@ -10483,7 +10516,7 @@
         <v>#N/A</v>
       </c>
       <c r="T431" s="9" t="e">
-        <f>VLOOKUP(H431,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H431,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U431" s="9" t="e">
@@ -10501,7 +10534,7 @@
         <v>#N/A</v>
       </c>
       <c r="T432" s="9" t="e">
-        <f>VLOOKUP(H432,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H432,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U432" s="9" t="e">
@@ -10519,7 +10552,7 @@
         <v>#N/A</v>
       </c>
       <c r="T433" s="9" t="e">
-        <f>VLOOKUP(H433,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H433,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U433" s="9" t="e">
@@ -10537,7 +10570,7 @@
         <v>#N/A</v>
       </c>
       <c r="T434" s="9" t="e">
-        <f>VLOOKUP(H434,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H434,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U434" s="9" t="e">
@@ -10555,7 +10588,7 @@
         <v>#N/A</v>
       </c>
       <c r="T435" s="9" t="e">
-        <f>VLOOKUP(H435,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H435,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U435" s="9" t="e">
@@ -10573,7 +10606,7 @@
         <v>#N/A</v>
       </c>
       <c r="T436" s="9" t="e">
-        <f>VLOOKUP(H436,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H436,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U436" s="9" t="e">
@@ -10591,7 +10624,7 @@
         <v>#N/A</v>
       </c>
       <c r="T437" s="9" t="e">
-        <f>VLOOKUP(H437,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H437,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U437" s="9" t="e">
@@ -10609,7 +10642,7 @@
         <v>#N/A</v>
       </c>
       <c r="T438" s="9" t="e">
-        <f>VLOOKUP(H438,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H438,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U438" s="9" t="e">
@@ -10627,7 +10660,7 @@
         <v>#N/A</v>
       </c>
       <c r="T439" s="9" t="e">
-        <f>VLOOKUP(H439,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H439,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U439" s="9" t="e">
@@ -10645,7 +10678,7 @@
         <v>#N/A</v>
       </c>
       <c r="T440" s="9" t="e">
-        <f>VLOOKUP(H440,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H440,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U440" s="9" t="e">
@@ -10663,7 +10696,7 @@
         <v>#N/A</v>
       </c>
       <c r="T441" s="9" t="e">
-        <f>VLOOKUP(H441,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H441,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U441" s="9" t="e">
@@ -10681,7 +10714,7 @@
         <v>#N/A</v>
       </c>
       <c r="T442" s="9" t="e">
-        <f>VLOOKUP(H442,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H442,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U442" s="9" t="e">
@@ -10699,7 +10732,7 @@
         <v>#N/A</v>
       </c>
       <c r="T443" s="9" t="e">
-        <f>VLOOKUP(H443,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H443,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U443" s="9" t="e">
@@ -10717,7 +10750,7 @@
         <v>#N/A</v>
       </c>
       <c r="T444" s="9" t="e">
-        <f>VLOOKUP(H444,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H444,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U444" s="9" t="e">
@@ -10735,7 +10768,7 @@
         <v>#N/A</v>
       </c>
       <c r="T445" s="9" t="e">
-        <f>VLOOKUP(H445,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H445,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U445" s="9" t="e">
@@ -10753,7 +10786,7 @@
         <v>#N/A</v>
       </c>
       <c r="T446" s="9" t="e">
-        <f>VLOOKUP(H446,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H446,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U446" s="9" t="e">
@@ -10771,7 +10804,7 @@
         <v>#N/A</v>
       </c>
       <c r="T447" s="9" t="e">
-        <f>VLOOKUP(H447,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H447,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U447" s="9" t="e">
@@ -10789,7 +10822,7 @@
         <v>#N/A</v>
       </c>
       <c r="T448" s="9" t="e">
-        <f>VLOOKUP(H448,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H448,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U448" s="9" t="e">
@@ -10807,7 +10840,7 @@
         <v>#N/A</v>
       </c>
       <c r="T449" s="9" t="e">
-        <f>VLOOKUP(H449,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H449,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U449" s="9" t="e">
@@ -10825,7 +10858,7 @@
         <v>#N/A</v>
       </c>
       <c r="T450" s="9" t="e">
-        <f>VLOOKUP(H450,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H450,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U450" s="9" t="e">
@@ -10843,7 +10876,7 @@
         <v>#N/A</v>
       </c>
       <c r="T451" s="9" t="e">
-        <f>VLOOKUP(H451,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H451,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U451" s="9" t="e">
@@ -10861,7 +10894,7 @@
         <v>#N/A</v>
       </c>
       <c r="T452" s="9" t="e">
-        <f>VLOOKUP(H452,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H452,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U452" s="9" t="e">
@@ -10879,7 +10912,7 @@
         <v>#N/A</v>
       </c>
       <c r="T453" s="9" t="e">
-        <f>VLOOKUP(H453,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H453,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U453" s="9" t="e">
@@ -10897,7 +10930,7 @@
         <v>#N/A</v>
       </c>
       <c r="T454" s="9" t="e">
-        <f>VLOOKUP(H454,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H454,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U454" s="9" t="e">
@@ -10915,7 +10948,7 @@
         <v>#N/A</v>
       </c>
       <c r="T455" s="9" t="e">
-        <f>VLOOKUP(H455,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H455,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U455" s="9" t="e">
@@ -10933,7 +10966,7 @@
         <v>#N/A</v>
       </c>
       <c r="T456" s="9" t="e">
-        <f>VLOOKUP(H456,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H456,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U456" s="9" t="e">
@@ -10951,7 +10984,7 @@
         <v>#N/A</v>
       </c>
       <c r="T457" s="9" t="e">
-        <f>VLOOKUP(H457,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H457,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U457" s="9" t="e">
@@ -10969,7 +11002,7 @@
         <v>#N/A</v>
       </c>
       <c r="T458" s="9" t="e">
-        <f>VLOOKUP(H458,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H458,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U458" s="9" t="e">
@@ -10987,7 +11020,7 @@
         <v>#N/A</v>
       </c>
       <c r="T459" s="9" t="e">
-        <f>VLOOKUP(H459,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H459,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U459" s="9" t="e">
@@ -11005,7 +11038,7 @@
         <v>#N/A</v>
       </c>
       <c r="T460" s="9" t="e">
-        <f>VLOOKUP(H460,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H460,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U460" s="9" t="e">
@@ -11023,7 +11056,7 @@
         <v>#N/A</v>
       </c>
       <c r="T461" s="9" t="e">
-        <f>VLOOKUP(H461,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H461,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U461" s="9" t="e">
@@ -11041,7 +11074,7 @@
         <v>#N/A</v>
       </c>
       <c r="T462" s="9" t="e">
-        <f>VLOOKUP(H462,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H462,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U462" s="9" t="e">
@@ -11059,7 +11092,7 @@
         <v>#N/A</v>
       </c>
       <c r="T463" s="9" t="e">
-        <f>VLOOKUP(H463,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H463,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U463" s="9" t="e">
@@ -11077,7 +11110,7 @@
         <v>#N/A</v>
       </c>
       <c r="T464" s="9" t="e">
-        <f>VLOOKUP(H464,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H464,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U464" s="9" t="e">
@@ -11095,7 +11128,7 @@
         <v>#N/A</v>
       </c>
       <c r="T465" s="9" t="e">
-        <f>VLOOKUP(H465,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H465,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U465" s="9" t="e">
@@ -11113,7 +11146,7 @@
         <v>#N/A</v>
       </c>
       <c r="T466" s="9" t="e">
-        <f>VLOOKUP(H466,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H466,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U466" s="9" t="e">
@@ -11131,7 +11164,7 @@
         <v>#N/A</v>
       </c>
       <c r="T467" s="9" t="e">
-        <f>VLOOKUP(H467,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H467,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U467" s="9" t="e">
@@ -11149,7 +11182,7 @@
         <v>#N/A</v>
       </c>
       <c r="T468" s="9" t="e">
-        <f>VLOOKUP(H468,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H468,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U468" s="9" t="e">
@@ -11167,7 +11200,7 @@
         <v>#N/A</v>
       </c>
       <c r="T469" s="9" t="e">
-        <f>VLOOKUP(H469,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H469,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U469" s="9" t="e">
@@ -11185,7 +11218,7 @@
         <v>#N/A</v>
       </c>
       <c r="T470" s="9" t="e">
-        <f>VLOOKUP(H470,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H470,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U470" s="9" t="e">
@@ -11203,7 +11236,7 @@
         <v>#N/A</v>
       </c>
       <c r="T471" s="9" t="e">
-        <f>VLOOKUP(H471,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H471,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U471" s="9" t="e">
@@ -11221,7 +11254,7 @@
         <v>#N/A</v>
       </c>
       <c r="T472" s="9" t="e">
-        <f>VLOOKUP(H472,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H472,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U472" s="9" t="e">
@@ -11239,7 +11272,7 @@
         <v>#N/A</v>
       </c>
       <c r="T473" s="9" t="e">
-        <f>VLOOKUP(H473,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H473,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U473" s="9" t="e">
@@ -11257,7 +11290,7 @@
         <v>#N/A</v>
       </c>
       <c r="T474" s="9" t="e">
-        <f>VLOOKUP(H474,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H474,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U474" s="9" t="e">
@@ -11275,7 +11308,7 @@
         <v>#N/A</v>
       </c>
       <c r="T475" s="9" t="e">
-        <f>VLOOKUP(H475,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H475,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U475" s="9" t="e">
@@ -11293,7 +11326,7 @@
         <v>#N/A</v>
       </c>
       <c r="T476" s="9" t="e">
-        <f>VLOOKUP(H476,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H476,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U476" s="9" t="e">
@@ -11311,7 +11344,7 @@
         <v>#N/A</v>
       </c>
       <c r="T477" s="9" t="e">
-        <f>VLOOKUP(H477,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H477,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U477" s="9" t="e">
@@ -11329,7 +11362,7 @@
         <v>#N/A</v>
       </c>
       <c r="T478" s="9" t="e">
-        <f>VLOOKUP(H478,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H478,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U478" s="9" t="e">
@@ -11347,7 +11380,7 @@
         <v>#N/A</v>
       </c>
       <c r="T479" s="9" t="e">
-        <f>VLOOKUP(H479,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H479,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U479" s="9" t="e">
@@ -11365,7 +11398,7 @@
         <v>#N/A</v>
       </c>
       <c r="T480" s="9" t="e">
-        <f>VLOOKUP(H480,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H480,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U480" s="9" t="e">
@@ -11383,7 +11416,7 @@
         <v>#N/A</v>
       </c>
       <c r="T481" s="9" t="e">
-        <f>VLOOKUP(H481,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H481,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U481" s="9" t="e">
@@ -11401,7 +11434,7 @@
         <v>#N/A</v>
       </c>
       <c r="T482" s="9" t="e">
-        <f>VLOOKUP(H482,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H482,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U482" s="9" t="e">
@@ -11419,7 +11452,7 @@
         <v>#N/A</v>
       </c>
       <c r="T483" s="9" t="e">
-        <f>VLOOKUP(H483,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H483,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U483" s="9" t="e">
@@ -11437,7 +11470,7 @@
         <v>#N/A</v>
       </c>
       <c r="T484" s="9" t="e">
-        <f>VLOOKUP(H484,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H484,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U484" s="9" t="e">
@@ -11455,7 +11488,7 @@
         <v>#N/A</v>
       </c>
       <c r="T485" s="9" t="e">
-        <f>VLOOKUP(H485,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H485,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U485" s="9" t="e">
@@ -11473,7 +11506,7 @@
         <v>#N/A</v>
       </c>
       <c r="T486" s="9" t="e">
-        <f>VLOOKUP(H486,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H486,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U486" s="9" t="e">
@@ -11491,7 +11524,7 @@
         <v>#N/A</v>
       </c>
       <c r="T487" s="9" t="e">
-        <f>VLOOKUP(H487,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H487,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U487" s="9" t="e">
@@ -11509,7 +11542,7 @@
         <v>#N/A</v>
       </c>
       <c r="T488" s="9" t="e">
-        <f>VLOOKUP(H488,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H488,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U488" s="9" t="e">
@@ -11527,7 +11560,7 @@
         <v>#N/A</v>
       </c>
       <c r="T489" s="9" t="e">
-        <f>VLOOKUP(H489,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H489,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U489" s="9" t="e">
@@ -11545,7 +11578,7 @@
         <v>#N/A</v>
       </c>
       <c r="T490" s="9" t="e">
-        <f>VLOOKUP(H490,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H490,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U490" s="9" t="e">
@@ -11563,7 +11596,7 @@
         <v>#N/A</v>
       </c>
       <c r="T491" s="9" t="e">
-        <f>VLOOKUP(H491,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H491,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U491" s="9" t="e">
@@ -11581,7 +11614,7 @@
         <v>#N/A</v>
       </c>
       <c r="T492" s="9" t="e">
-        <f>VLOOKUP(H492,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H492,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U492" s="9" t="e">
@@ -11599,7 +11632,7 @@
         <v>#N/A</v>
       </c>
       <c r="T493" s="9" t="e">
-        <f>VLOOKUP(H493,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H493,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U493" s="9" t="e">
@@ -11617,7 +11650,7 @@
         <v>#N/A</v>
       </c>
       <c r="T494" s="9" t="e">
-        <f>VLOOKUP(H494,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H494,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U494" s="9" t="e">
@@ -11635,7 +11668,7 @@
         <v>#N/A</v>
       </c>
       <c r="T495" s="9" t="e">
-        <f>VLOOKUP(H495,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H495,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U495" s="9" t="e">
@@ -11653,7 +11686,7 @@
         <v>#N/A</v>
       </c>
       <c r="T496" s="9" t="e">
-        <f>VLOOKUP(H496,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H496,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U496" s="9" t="e">
@@ -11671,7 +11704,7 @@
         <v>#N/A</v>
       </c>
       <c r="T497" s="9" t="e">
-        <f>VLOOKUP(H497,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H497,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U497" s="9" t="e">
@@ -11689,7 +11722,7 @@
         <v>#N/A</v>
       </c>
       <c r="T498" s="9" t="e">
-        <f>VLOOKUP(H498,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H498,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U498" s="9" t="e">
@@ -11707,7 +11740,7 @@
         <v>#N/A</v>
       </c>
       <c r="T499" s="9" t="e">
-        <f>VLOOKUP(H499,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H499,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U499" s="9" t="e">
@@ -11725,7 +11758,7 @@
         <v>#N/A</v>
       </c>
       <c r="T500" s="9" t="e">
-        <f>VLOOKUP(H500,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H500,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U500" s="9" t="e">
@@ -11743,7 +11776,7 @@
         <v>#N/A</v>
       </c>
       <c r="T501" s="9" t="e">
-        <f>VLOOKUP(H501,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H501,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U501" s="9" t="e">
@@ -11761,7 +11794,7 @@
         <v>#N/A</v>
       </c>
       <c r="T502" s="9" t="e">
-        <f>VLOOKUP(H502,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H502,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U502" s="9" t="e">
@@ -11779,7 +11812,7 @@
         <v>#N/A</v>
       </c>
       <c r="T503" s="9" t="e">
-        <f>VLOOKUP(H503,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H503,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U503" s="9" t="e">
@@ -11797,7 +11830,7 @@
         <v>#N/A</v>
       </c>
       <c r="T504" s="9" t="e">
-        <f>VLOOKUP(H504,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H504,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U504" s="9" t="e">
@@ -11815,7 +11848,7 @@
         <v>#N/A</v>
       </c>
       <c r="T505" s="9" t="e">
-        <f>VLOOKUP(H505,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H505,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U505" s="9" t="e">
@@ -11833,7 +11866,7 @@
         <v>#N/A</v>
       </c>
       <c r="T506" s="9" t="e">
-        <f>VLOOKUP(H506,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H506,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U506" s="9" t="e">
@@ -11851,7 +11884,7 @@
         <v>#N/A</v>
       </c>
       <c r="T507" s="9" t="e">
-        <f>VLOOKUP(H507,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H507,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U507" s="9" t="e">
@@ -11869,7 +11902,7 @@
         <v>#N/A</v>
       </c>
       <c r="T508" s="9" t="e">
-        <f>VLOOKUP(H508,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H508,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U508" s="9" t="e">
@@ -11887,7 +11920,7 @@
         <v>#N/A</v>
       </c>
       <c r="T509" s="9" t="e">
-        <f>VLOOKUP(H509,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H509,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U509" s="9" t="e">
@@ -11905,7 +11938,7 @@
         <v>#N/A</v>
       </c>
       <c r="T510" s="9" t="e">
-        <f>VLOOKUP(H510,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H510,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U510" s="9" t="e">
@@ -11923,7 +11956,7 @@
         <v>#N/A</v>
       </c>
       <c r="T511" s="9" t="e">
-        <f>VLOOKUP(H511,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H511,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U511" s="9" t="e">
@@ -11941,7 +11974,7 @@
         <v>#N/A</v>
       </c>
       <c r="T512" s="9" t="e">
-        <f>VLOOKUP(H512,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H512,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U512" s="9" t="e">
@@ -11959,7 +11992,7 @@
         <v>#N/A</v>
       </c>
       <c r="T513" s="9" t="e">
-        <f>VLOOKUP(H513,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H513,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U513" s="9" t="e">
@@ -11977,7 +12010,7 @@
         <v>#N/A</v>
       </c>
       <c r="T514" s="9" t="e">
-        <f>VLOOKUP(H514,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H514,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U514" s="9" t="e">
@@ -11995,7 +12028,7 @@
         <v>#N/A</v>
       </c>
       <c r="T515" s="9" t="e">
-        <f>VLOOKUP(H515,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H515,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U515" s="9" t="e">
@@ -12013,7 +12046,7 @@
         <v>#N/A</v>
       </c>
       <c r="T516" s="9" t="e">
-        <f>VLOOKUP(H516,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H516,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U516" s="9" t="e">
@@ -12031,7 +12064,7 @@
         <v>#N/A</v>
       </c>
       <c r="T517" s="9" t="e">
-        <f>VLOOKUP(H517,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H517,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U517" s="9" t="e">
@@ -12049,7 +12082,7 @@
         <v>#N/A</v>
       </c>
       <c r="T518" s="9" t="e">
-        <f>VLOOKUP(H518,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H518,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U518" s="9" t="e">
@@ -12067,7 +12100,7 @@
         <v>#N/A</v>
       </c>
       <c r="T519" s="9" t="e">
-        <f>VLOOKUP(H519,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H519,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U519" s="9" t="e">
@@ -12085,7 +12118,7 @@
         <v>#N/A</v>
       </c>
       <c r="T520" s="9" t="e">
-        <f>VLOOKUP(H520,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H520,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U520" s="9" t="e">
@@ -12103,7 +12136,7 @@
         <v>#N/A</v>
       </c>
       <c r="T521" s="9" t="e">
-        <f>VLOOKUP(H521,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H521,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U521" s="9" t="e">
@@ -12121,7 +12154,7 @@
         <v>#N/A</v>
       </c>
       <c r="T522" s="9" t="e">
-        <f>VLOOKUP(H522,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H522,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U522" s="9" t="e">
@@ -12139,7 +12172,7 @@
         <v>#N/A</v>
       </c>
       <c r="T523" s="9" t="e">
-        <f>VLOOKUP(H523,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H523,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U523" s="9" t="e">
@@ -12157,7 +12190,7 @@
         <v>#N/A</v>
       </c>
       <c r="T524" s="9" t="e">
-        <f>VLOOKUP(H524,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H524,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U524" s="9" t="e">
@@ -12175,7 +12208,7 @@
         <v>#N/A</v>
       </c>
       <c r="T525" s="9" t="e">
-        <f>VLOOKUP(H525,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H525,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U525" s="9" t="e">
@@ -12193,7 +12226,7 @@
         <v>#N/A</v>
       </c>
       <c r="T526" s="9" t="e">
-        <f>VLOOKUP(H526,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H526,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U526" s="9" t="e">
@@ -12211,7 +12244,7 @@
         <v>#N/A</v>
       </c>
       <c r="T527" s="9" t="e">
-        <f>VLOOKUP(H527,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H527,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U527" s="9" t="e">
@@ -12229,7 +12262,7 @@
         <v>#N/A</v>
       </c>
       <c r="T528" s="9" t="e">
-        <f>VLOOKUP(H528,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H528,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U528" s="9" t="e">
@@ -12247,7 +12280,7 @@
         <v>#N/A</v>
       </c>
       <c r="T529" s="9" t="e">
-        <f>VLOOKUP(H529,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H529,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U529" s="9" t="e">
@@ -12265,7 +12298,7 @@
         <v>#N/A</v>
       </c>
       <c r="T530" s="9" t="e">
-        <f>VLOOKUP(H530,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H530,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U530" s="9" t="e">
@@ -12283,7 +12316,7 @@
         <v>#N/A</v>
       </c>
       <c r="T531" s="9" t="e">
-        <f>VLOOKUP(H531,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H531,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U531" s="9" t="e">
@@ -12301,7 +12334,7 @@
         <v>#N/A</v>
       </c>
       <c r="T532" s="9" t="e">
-        <f>VLOOKUP(H532,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H532,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U532" s="9" t="e">
@@ -12319,7 +12352,7 @@
         <v>#N/A</v>
       </c>
       <c r="T533" s="9" t="e">
-        <f>VLOOKUP(H533,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H533,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U533" s="9" t="e">
@@ -12337,7 +12370,7 @@
         <v>#N/A</v>
       </c>
       <c r="T534" s="9" t="e">
-        <f>VLOOKUP(H534,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H534,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U534" s="9" t="e">
@@ -12355,7 +12388,7 @@
         <v>#N/A</v>
       </c>
       <c r="T535" s="9" t="e">
-        <f>VLOOKUP(H535,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H535,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U535" s="9" t="e">
@@ -12373,7 +12406,7 @@
         <v>#N/A</v>
       </c>
       <c r="T536" s="9" t="e">
-        <f>VLOOKUP(H536,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H536,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U536" s="9" t="e">
@@ -12391,7 +12424,7 @@
         <v>#N/A</v>
       </c>
       <c r="T537" s="9" t="e">
-        <f>VLOOKUP(H537,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H537,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U537" s="9" t="e">
@@ -12409,7 +12442,7 @@
         <v>#N/A</v>
       </c>
       <c r="T538" s="9" t="e">
-        <f>VLOOKUP(H538,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H538,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U538" s="9" t="e">
@@ -12427,7 +12460,7 @@
         <v>#N/A</v>
       </c>
       <c r="T539" s="9" t="e">
-        <f>VLOOKUP(H539,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H539,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U539" s="9" t="e">
@@ -12445,7 +12478,7 @@
         <v>#N/A</v>
       </c>
       <c r="T540" s="9" t="e">
-        <f>VLOOKUP(H540,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H540,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U540" s="9" t="e">
@@ -12463,7 +12496,7 @@
         <v>#N/A</v>
       </c>
       <c r="T541" s="9" t="e">
-        <f>VLOOKUP(H541,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H541,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U541" s="9" t="e">
@@ -12481,7 +12514,7 @@
         <v>#N/A</v>
       </c>
       <c r="T542" s="9" t="e">
-        <f>VLOOKUP(H542,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H542,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U542" s="9" t="e">
@@ -12499,7 +12532,7 @@
         <v>#N/A</v>
       </c>
       <c r="T543" s="9" t="e">
-        <f>VLOOKUP(H543,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H543,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U543" s="9" t="e">
@@ -12517,7 +12550,7 @@
         <v>#N/A</v>
       </c>
       <c r="T544" s="9" t="e">
-        <f>VLOOKUP(H544,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H544,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U544" s="9" t="e">
@@ -12535,7 +12568,7 @@
         <v>#N/A</v>
       </c>
       <c r="T545" s="9" t="e">
-        <f>VLOOKUP(H545,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H545,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U545" s="9" t="e">
@@ -12553,7 +12586,7 @@
         <v>#N/A</v>
       </c>
       <c r="T546" s="9" t="e">
-        <f>VLOOKUP(H546,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H546,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U546" s="9" t="e">
@@ -12571,7 +12604,7 @@
         <v>#N/A</v>
       </c>
       <c r="T547" s="9" t="e">
-        <f>VLOOKUP(H547,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H547,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U547" s="9" t="e">
@@ -12589,7 +12622,7 @@
         <v>#N/A</v>
       </c>
       <c r="T548" s="9" t="e">
-        <f>VLOOKUP(H548,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H548,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U548" s="9" t="e">
@@ -12607,7 +12640,7 @@
         <v>#N/A</v>
       </c>
       <c r="T549" s="9" t="e">
-        <f>VLOOKUP(H549,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H549,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U549" s="9" t="e">
@@ -12625,7 +12658,7 @@
         <v>#N/A</v>
       </c>
       <c r="T550" s="9" t="e">
-        <f>VLOOKUP(H550,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H550,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U550" s="9" t="e">
@@ -12643,7 +12676,7 @@
         <v>#N/A</v>
       </c>
       <c r="T551" s="9" t="e">
-        <f>VLOOKUP(H551,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H551,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U551" s="9" t="e">
@@ -12661,7 +12694,7 @@
         <v>#N/A</v>
       </c>
       <c r="T552" s="9" t="e">
-        <f>VLOOKUP(H552,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H552,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U552" s="9" t="e">
@@ -12679,7 +12712,7 @@
         <v>#N/A</v>
       </c>
       <c r="T553" s="9" t="e">
-        <f>VLOOKUP(H553,PLDT!$A$2:$B$14,2,0)</f>
+        <f>VLOOKUP(H553,PLDT!$A$2:$B$100,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="U553" s="9" t="e">
@@ -12693,35 +12726,35 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>HTKT!$A$38:$A$65</xm:f>
           </x14:formula1>
           <xm:sqref>G1 G249:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'phan loai kt'!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>LVHD!$A$2:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>PLDT!$A$2:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>HTKT!$A$2:$A$300</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G248</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>PLDT!$A$2:$A$100</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12730,7 +12763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
@@ -12746,722 +12779,722 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -13474,139 +13507,147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1660638808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1660638843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1660638864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1660638930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1660638976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1686211958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1660638226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>1660638226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+      <c r="B9" s="24">
         <v>1660638247</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="24">
+        <v>1668477383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1668477403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1668477425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1668477439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="24">
+        <v>1668477463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="23">
         <v>1660638538</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1660638808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>1660638843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1660638864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1660638930</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1660638976</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>1668477383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1668477403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>1668477425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>1668477439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>1668477463</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mQ7WYwzBMecHvcBpGwCTyIgNVXmO2qR116iGLLUG0OsanlmvMsZKuHa7tvL/aazw0CRf1mUAEgO5/UdUKNnlQg==" saltValue="Gcsw+HSzW0Mf4sKO8a9t/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lO5FF8KLW7+wdcZTtVUW8mjsT5VJXGnKt3JaLveBFeXW107/GL15kncz+RAS3oj+y+D0FKeimklubk5ykAQ78g==" saltValue="VqoEJHVJrofybEpvKqXC0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -13621,202 +13662,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
         <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
         <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
         <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
         <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
         <v>100</v>
-      </c>
-      <c r="B23" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
         <v>102</v>
-      </c>
-      <c r="B24" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s">
         <v>104</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -13826,7 +13867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13841,15 +13882,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -13857,10 +13898,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13870,11 +13911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13890,31 +13931,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13922,25 +13963,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>109</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="11"/>
     </row>
@@ -13949,25 +13990,25 @@
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>274</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -13977,21 +14018,21 @@
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.25">
@@ -14000,21 +14041,21 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14023,18 +14064,18 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -14045,29 +14086,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>PLDT!$A$2:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000001000000}">
           <x14:formula1>
             <xm:f>LVHD!$A$2:$A$25</xm:f>
           </x14:formula1>
           <xm:sqref>I1:I6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>'phan loai kt'!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000003000000}">
           <x14:formula1>
             <xm:f>HTKT!$A$38:$A$65</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>PLDT!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>H1:H6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
